--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -676,10 +676,10 @@
         <v>1.09</v>
       </c>
       <c r="I2" t="n">
-        <v>1.68</v>
+        <v>980</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>1.09</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="H3" t="n">
         <v>1.3</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
         <v>1.52</v>
@@ -952,7 +952,7 @@
         <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
@@ -976,7 +976,7 @@
         <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
         <v>2.26</v>
@@ -991,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
         <v>85</v>
@@ -1003,10 +1003,10 @@
         <v>460</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>36</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1027,10 +1027,10 @@
         <v>200</v>
       </c>
       <c r="AJ4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1075,16 +1075,16 @@
         <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -1096,28 +1096,28 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
         <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AB5" t="n">
         <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1171,10 +1171,10 @@
         <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>1.48</v>
       </c>
       <c r="G6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>8.800000000000001</v>
@@ -1219,10 +1219,10 @@
         <v>9</v>
       </c>
       <c r="J6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.8</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,22 +1237,22 @@
         <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>240</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>2.78</v>
       </c>
       <c r="H7" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="I7" t="n">
         <v>2.86</v>
@@ -1375,13 +1375,13 @@
         <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="T7" t="n">
         <v>1.67</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
         <v>20</v>
@@ -1417,10 +1417,10 @@
         <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1429,7 +1429,7 @@
         <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1438,16 +1438,16 @@
         <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1480,13 +1480,13 @@
         <v>6.4</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="J8" t="n">
         <v>4.5</v>
@@ -1501,22 +1501,22 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
         <v>1.84</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
         <v>9.6</v>
@@ -1540,22 +1540,22 @@
         <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
         <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
         <v>25</v>
@@ -1564,22 +1564,22 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO8" t="n">
         <v>7.6</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G9" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I9" t="n">
         <v>2.98</v>
@@ -1651,10 +1651,10 @@
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
         <v>2.14</v>
@@ -1675,7 +1675,7 @@
         <v>19.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB9" t="n">
         <v>11</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK9" t="n">
         <v>32</v>
@@ -1717,7 +1717,7 @@
         <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1750,19 +1750,19 @@
         <v>11.5</v>
       </c>
       <c r="G10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="H10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.29</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.3</v>
       </c>
       <c r="J10" t="n">
         <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1771,28 +1771,28 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Q10" t="n">
         <v>1.44</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,34 +1801,34 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
         <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
         <v>32</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="11">
@@ -1894,10 +1894,10 @@
         <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G12" t="n">
         <v>1.74</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="G13" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>1.66</v>
       </c>
       <c r="I13" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>1.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
         <v>3.7</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2695,19 +2695,19 @@
         <v>4.2</v>
       </c>
       <c r="G17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H17" t="n">
         <v>1.92</v>
       </c>
       <c r="I17" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J17" t="n">
         <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2746,52 +2746,52 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="n">
         <v>1000</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
         <v>2.3</v>
@@ -2842,7 +2842,7 @@
         <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2881,13 +2881,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y18" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2896,7 +2896,7 @@
         <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2905,31 +2905,31 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
         <v>95</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G19" t="n">
         <v>1.21</v>
       </c>
       <c r="H19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,22 +2992,22 @@
         <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S19" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3019,28 +3019,28 @@
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
         <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
         <v>1000</v>
@@ -3049,10 +3049,10 @@
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>1000</v>
@@ -3061,10 +3061,10 @@
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,52 +3097,52 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G20" t="n">
         <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I20" t="n">
         <v>2.5</v>
       </c>
       <c r="J20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.9</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
         <v>4</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.9</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>2.34</v>
+        <v>1.91</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="R20" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="U20" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,43 +3151,43 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
         <v>1000</v>
@@ -3199,10 +3199,10 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G21" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
         <v>5.1</v>
       </c>
-      <c r="I21" t="n">
-        <v>5.3</v>
-      </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
         <v>3.35</v>
@@ -3256,7 +3256,7 @@
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O21" t="n">
         <v>1.52</v>
@@ -3289,22 +3289,22 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="n">
         <v>180</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="n">
         <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3316,7 +3316,7 @@
         <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>130</v>
@@ -3337,7 +3337,7 @@
         <v>22</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H22" t="n">
         <v>10</v>
@@ -3379,7 +3379,7 @@
         <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K22" t="n">
         <v>5.6</v>
@@ -3403,7 +3403,7 @@
         <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
         <v>2.98</v>
@@ -3427,16 +3427,16 @@
         <v>32</v>
       </c>
       <c r="Z22" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="AA22" t="n">
         <v>500</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
         <v>40</v>
@@ -3466,7 +3466,7 @@
         <v>42</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="n">
         <v>6.2</v>
@@ -3508,16 +3508,16 @@
         <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3535,19 +3535,19 @@
         <v>1.69</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U23" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
         <v>15.5</v>
@@ -3571,16 +3571,16 @@
         <v>7</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
@@ -3595,19 +3595,19 @@
         <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AM23" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="n">
         <v>16.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G24" t="n">
         <v>2.82</v>
       </c>
       <c r="H24" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="J24" t="n">
         <v>3.45</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>8.199999999999999</v>
@@ -3721,28 +3721,28 @@
         <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G25" t="n">
         <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.95</v>
+        <v>1.91</v>
       </c>
       <c r="I25" t="n">
         <v>6.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="K25" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         <v>1.7</v>
       </c>
       <c r="I26" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="J26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
         <v>4.4</v>
@@ -3928,13 +3928,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
         <v>2.3</v>
@@ -3943,10 +3943,10 @@
         <v>1.67</v>
       </c>
       <c r="R26" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="S26" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="T26" t="n">
         <v>1.69</v>
@@ -3961,16 +3961,16 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
         <v>12.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB26" t="n">
         <v>23</v>
@@ -3985,7 +3985,7 @@
         <v>17.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG26" t="n">
         <v>22</v>
@@ -3994,25 +3994,25 @@
         <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ26" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK26" t="n">
         <v>70</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="G27" t="n">
         <v>1.27</v>
@@ -4051,7 +4051,7 @@
         <v>15</v>
       </c>
       <c r="I27" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="J27" t="n">
         <v>7</v>
@@ -4081,10 +4081,10 @@
         <v>1.54</v>
       </c>
       <c r="S27" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T27" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U27" t="n">
         <v>1.65</v>
@@ -4099,7 +4099,7 @@
         <v>25</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z27" t="n">
         <v>200</v>
@@ -4114,16 +4114,16 @@
         <v>18.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AF27" t="n">
         <v>8.4</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
         <v>48</v>
@@ -4135,16 +4135,16 @@
         <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AN27" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4180,13 +4180,13 @@
         <v>1.71</v>
       </c>
       <c r="G28" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I28" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -4201,7 +4201,7 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -4231,16 +4231,16 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
         <v>19</v>
       </c>
       <c r="Z28" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB28" t="n">
         <v>9</v>
@@ -4264,13 +4264,13 @@
         <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
@@ -4282,7 +4282,7 @@
         <v>10.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -4315,13 +4315,13 @@
         <v>2.78</v>
       </c>
       <c r="G29" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H29" t="n">
         <v>2.62</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J29" t="n">
         <v>3.7</v>
@@ -4336,25 +4336,25 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P29" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q29" t="n">
         <v>1.7</v>
       </c>
       <c r="R29" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="S29" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="T29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U29" t="n">
         <v>2.44</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y29" t="n">
         <v>14</v>
@@ -4381,7 +4381,7 @@
         <v>14.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
         <v>12.5</v>
@@ -4390,7 +4390,7 @@
         <v>26</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
@@ -4399,25 +4399,25 @@
         <v>15.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -4450,10 +4450,10 @@
         <v>2.26</v>
       </c>
       <c r="G30" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
         <v>3.55</v>
@@ -4462,7 +4462,7 @@
         <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4471,16 +4471,16 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R30" t="n">
         <v>1.39</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Y30" t="n">
         <v>14.5</v>
@@ -4510,49 +4510,49 @@
         <v>26</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="n">
         <v>11</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ30" t="n">
         <v>32</v>
       </c>
       <c r="AK30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL30" t="n">
         <v>38</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -4585,13 +4585,13 @@
         <v>4.2</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H31" t="n">
         <v>2.02</v>
       </c>
       <c r="I31" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J31" t="n">
         <v>3.05</v>
@@ -4726,10 +4726,10 @@
         <v>6.6</v>
       </c>
       <c r="I32" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
         <v>3.95</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.77</v>
+        <v>1.24</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G34" t="n">
         <v>2.06</v>
       </c>
       <c r="H34" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J34" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H4" t="n">
         <v>8.6</v>
       </c>
       <c r="I4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J4" t="n">
         <v>4.3</v>
@@ -961,22 +961,22 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R4" t="n">
         <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
         <v>2.26</v>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="AA4" t="n">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC4" t="n">
         <v>9.800000000000001</v>
@@ -1018,13 +1018,13 @@
         <v>7.8</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ4" t="n">
         <v>13.5</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
         <v>1.73</v>
@@ -1111,13 +1111,13 @@
         <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="AB5" t="n">
         <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1159,22 +1159,22 @@
         <v>27</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="AM5" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G6" t="n">
         <v>1.5</v>
@@ -1249,10 +1249,10 @@
         <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1264,13 +1264,13 @@
         <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
         <v>85</v>
       </c>
       <c r="AA6" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AB6" t="n">
         <v>7.6</v>
@@ -1303,13 +1303,13 @@
         <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.66</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.76</v>
-      </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
         <v>3.65</v>
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
@@ -1381,13 +1381,13 @@
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,55 +1396,55 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB7" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
         <v>13</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
         <v>16</v>
       </c>
       <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL7" t="n">
         <v>38</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G8" t="n">
         <v>6.8</v>
       </c>
       <c r="H8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.58</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.59</v>
-      </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.7</v>
@@ -1510,16 +1510,16 @@
         <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
         <v>14.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE8" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF8" t="n">
         <v>70</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>130</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1615,10 @@
         <v>2.66</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H9" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="I9" t="n">
         <v>2.98</v>
@@ -1636,25 +1636,25 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
         <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
         <v>2.14</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
         <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK9" t="n">
         <v>34</v>
       </c>
-      <c r="AF9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>32</v>
-      </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
         <v>13.5</v>
@@ -1771,13 +1771,13 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="Q10" t="n">
         <v>1.44</v>
@@ -1789,10 +1789,10 @@
         <v>1.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
         <v>9.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AC10" t="n">
         <v>17</v>
@@ -1831,10 +1831,10 @@
         <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1891,7 +1891,7 @@
         <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
@@ -1915,7 +1915,7 @@
         <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="n">
         <v>1.74</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
         <v>4.1</v>
@@ -2050,7 +2050,7 @@
         <v>2.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G14" t="n">
         <v>3.05</v>
       </c>
       <c r="H14" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I14" t="n">
         <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K14" t="n">
         <v>3.65</v>
@@ -2320,7 +2320,7 @@
         <v>1.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="G15" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="Q15" t="n">
         <v>2.1</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G17" t="n">
         <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="I17" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J17" t="n">
         <v>3.55</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2755,31 +2755,31 @@
         <v>14.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
         <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
@@ -2788,16 +2788,16 @@
         <v>70</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
         <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -2839,7 +2839,7 @@
         <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
         <v>3.8</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,13 +2881,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2896,25 +2896,25 @@
         <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>34</v>
@@ -2923,13 +2923,13 @@
         <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>95</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2965,19 +2965,19 @@
         <v>1.18</v>
       </c>
       <c r="G19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
         <v>16.5</v>
       </c>
       <c r="I19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>7.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
         <v>3.15</v>
@@ -2998,16 +2998,16 @@
         <v>1.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3019,52 +3019,52 @@
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK19" t="n">
         <v>16</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>340</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>230</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1000</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3103,13 +3103,13 @@
         <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I20" t="n">
         <v>2.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>3.9</v>
@@ -3118,31 +3118,31 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S20" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,46 +3151,46 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>60</v>
-      </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3199,10 +3199,10 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="G21" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3256,28 +3256,28 @@
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P21" t="n">
         <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R21" t="n">
         <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,58 +3286,58 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA21" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AB21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG21" t="n">
         <v>11.5</v>
       </c>
       <c r="AH21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK21" t="n">
         <v>25</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="G22" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J22" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3403,16 +3403,16 @@
         <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S22" t="n">
         <v>2.98</v>
       </c>
       <c r="T22" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z22" t="n">
-        <v>990</v>
+        <v>95</v>
       </c>
       <c r="AA22" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="AB22" t="n">
         <v>8.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="n">
         <v>8.199999999999999</v>
@@ -3451,13 +3451,13 @@
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK22" t="n">
         <v>15.5</v>
@@ -3466,10 +3466,10 @@
         <v>42</v>
       </c>
       <c r="AM22" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H23" t="n">
         <v>5.5</v>
@@ -3526,7 +3526,7 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3538,7 +3538,7 @@
         <v>2.36</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S23" t="n">
         <v>4.6</v>
@@ -3547,7 +3547,7 @@
         <v>2.16</v>
       </c>
       <c r="U23" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3577,10 +3577,10 @@
         <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
@@ -3598,16 +3598,16 @@
         <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>370</v>
+        <v>50</v>
       </c>
       <c r="AM23" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="G24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I24" t="n">
         <v>2.82</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.86</v>
-      </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
         <v>2.28</v>
@@ -3691,55 +3691,55 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
         <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA24" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="n">
         <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
         <v>28</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="G25" t="n">
         <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.91</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
         <v>6.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
         <v>1.86</v>
@@ -3910,10 +3910,10 @@
         <v>5.4</v>
       </c>
       <c r="G26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="I26" t="n">
         <v>1.74</v>
@@ -3922,7 +3922,7 @@
         <v>4.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3934,22 +3934,22 @@
         <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R26" t="n">
         <v>1.5</v>
       </c>
       <c r="S26" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="T26" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U26" t="n">
         <v>2.18</v>
@@ -4000,13 +4000,13 @@
         <v>150</v>
       </c>
       <c r="AK26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="n">
         <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
         <v>65</v>
@@ -4045,10 +4045,10 @@
         <v>1.25</v>
       </c>
       <c r="G27" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I27" t="n">
         <v>17.5</v>
@@ -4057,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="K27" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4081,13 +4081,13 @@
         <v>1.54</v>
       </c>
       <c r="S27" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T27" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U27" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4099,7 +4099,7 @@
         <v>25</v>
       </c>
       <c r="Y27" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="n">
         <v>200</v>
@@ -4117,10 +4117,10 @@
         <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG27" t="n">
         <v>13.5</v>
@@ -4135,16 +4135,16 @@
         <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
         <v>320</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="H28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I28" t="n">
         <v>5.2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.7</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -4201,28 +4201,28 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="T28" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U28" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4231,16 +4231,16 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA28" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
         <v>9</v>
@@ -4249,13 +4249,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
         <v>10</v>
@@ -4264,13 +4264,13 @@
         <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
@@ -4279,10 +4279,10 @@
         <v>130</v>
       </c>
       <c r="AN28" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G29" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H29" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="I29" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
         <v>3.7</v>
@@ -4336,16 +4336,16 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O29" t="n">
         <v>1.24</v>
       </c>
       <c r="P29" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R29" t="n">
         <v>1.49</v>
@@ -4354,7 +4354,7 @@
         <v>2.46</v>
       </c>
       <c r="T29" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U29" t="n">
         <v>2.44</v>
@@ -4366,10 +4366,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z29" t="n">
         <v>19.5</v>
@@ -4399,10 +4399,10 @@
         <v>15.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK29" t="n">
         <v>28</v>
@@ -4453,10 +4453,10 @@
         <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -4468,31 +4468,31 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
         <v>1.89</v>
       </c>
       <c r="R30" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S30" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T30" t="n">
         <v>1.74</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA30" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB30" t="n">
         <v>11</v>
@@ -4519,13 +4519,13 @@
         <v>8.6</v>
       </c>
       <c r="AD30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF30" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>16</v>
       </c>
       <c r="AG30" t="n">
         <v>12</v>
@@ -4534,10 +4534,10 @@
         <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK30" t="n">
         <v>25</v>
@@ -4549,10 +4549,10 @@
         <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>4.2</v>
       </c>
       <c r="G31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
         <v>2.02</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="G32" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="H32" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I32" t="n">
         <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q32" t="n">
         <v>2.36</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="G34" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,109 +676,109 @@
         <v>1.09</v>
       </c>
       <c r="I2" t="n">
-        <v>980</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.01</v>
       </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>1.37</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>1.54</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>8.6</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>1.26</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1.68</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>1.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.49</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>980</v>
       </c>
       <c r="H6" t="n">
-        <v>8.800000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>1.37</v>
       </c>
       <c r="J6" t="n">
         <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>1.66</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>2.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>85</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>430</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD6" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>FC Kosice</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.82</v>
+        <v>1.55</v>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>1.87</v>
       </c>
       <c r="H7" t="n">
-        <v>2.66</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.72</v>
+        <v>11.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>8.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.79</v>
+        <v>1.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="T7" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>KFC Komarno</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="G8" t="n">
         <v>6.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>1.03</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="R8" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="G9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.72</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.98</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>2.84</v>
       </c>
       <c r="K9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.5</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.65</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>1.48</v>
       </c>
       <c r="G10" t="n">
-        <v>13.5</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.28</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>1.29</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>6.8</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>2.78</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.78</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>1.98</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.75</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.3</v>
+        <v>1.66</v>
       </c>
       <c r="G11" t="n">
-        <v>2.46</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>6.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
       </c>
       <c r="K11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S11" t="n">
         <v>4.1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="G12" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>2.58</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>1.66</v>
-      </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>2.52</v>
       </c>
       <c r="J13" t="n">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,64 +2206,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.68</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>3.05</v>
+        <v>7.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.68</v>
+        <v>1.54</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>1.55</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,66 +2408,66 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.84</v>
+        <v>2.64</v>
       </c>
       <c r="G15" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.99</v>
       </c>
-      <c r="H15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,64 +2476,64 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.69</v>
+        <v>11.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1.79</v>
+        <v>13.5</v>
       </c>
       <c r="H16" t="n">
-        <v>5.4</v>
+        <v>1.27</v>
       </c>
       <c r="I16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J16" t="n">
         <v>7</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,42 +2678,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,42 +2813,42 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,64 +2881,64 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,66 +2948,66 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.18</v>
+        <v>1.66</v>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>16.5</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>5.9</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>9.6</v>
+        <v>5.9</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,64 +3016,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,66 +3083,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.94</v>
+        <v>1.38</v>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>2.38</v>
+        <v>1.38</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.6</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.06</v>
+        <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,66 +3218,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H21" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,64 +3286,64 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,66 +3353,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.4</v>
+        <v>2.56</v>
       </c>
       <c r="G22" t="n">
-        <v>1.41</v>
+        <v>2.86</v>
       </c>
       <c r="H22" t="n">
-        <v>9.6</v>
+        <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>10.5</v>
+        <v>3.2</v>
       </c>
       <c r="J22" t="n">
-        <v>5.3</v>
+        <v>2.94</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>1.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="R22" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,64 +3421,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,66 +3488,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="G23" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="H23" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,58 +3556,58 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3628,37 +3628,37 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.82</v>
+        <v>2.06</v>
       </c>
       <c r="G24" t="n">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="H24" t="n">
-        <v>2.58</v>
+        <v>3.65</v>
       </c>
       <c r="I24" t="n">
-        <v>2.82</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,64 +3691,64 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN24" t="n">
         <v>14</v>
       </c>
-      <c r="AC24" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>36</v>
-      </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,42 +3758,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Galway Utd</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.79</v>
+        <v>4.3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>1.92</v>
       </c>
       <c r="I25" t="n">
-        <v>6.4</v>
+        <v>1.96</v>
       </c>
       <c r="J25" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>5.1</v>
+        <v>3.85</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3814,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3826,64 +3826,64 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,36 +3893,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.4</v>
+        <v>2.92</v>
       </c>
       <c r="G26" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>1.72</v>
+        <v>2.44</v>
       </c>
       <c r="I26" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="J26" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3931,28 +3931,28 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="S26" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="T26" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3961,64 +3961,64 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO26" t="n">
         <v>22</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,66 +4028,66 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="G27" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="H27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I27" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>4.9</v>
+        <v>7.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="P27" t="n">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="R27" t="n">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="S27" t="n">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="T27" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4096,55 +4096,55 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="Z27" t="n">
+        <v>210</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
         <v>200</v>
       </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>270</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,66 +4163,66 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="G28" t="n">
-        <v>1.81</v>
+        <v>1.41</v>
       </c>
       <c r="H28" t="n">
-        <v>4.9</v>
+        <v>9.6</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="R28" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="S28" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="T28" t="n">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="U28" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4231,64 +4231,64 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Z28" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL28" t="n">
         <v>40</v>
       </c>
-      <c r="AA28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>36</v>
-      </c>
       <c r="AM28" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="n">
-        <v>11.5</v>
+        <v>6.2</v>
       </c>
       <c r="AO28" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,66 +4298,66 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.8</v>
+        <v>1.93</v>
       </c>
       <c r="G29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N29" t="n">
         <v>2.82</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.8</v>
-      </c>
       <c r="O29" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="P29" t="n">
-        <v>2.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>2.46</v>
+        <v>5.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.61</v>
+        <v>2.26</v>
       </c>
       <c r="U29" t="n">
-        <v>2.44</v>
+        <v>1.73</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,64 +4366,64 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="AA29" t="n">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="AB29" t="n">
-        <v>14.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH29" t="n">
         <v>26</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AI29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN29" t="n">
         <v>21</v>
       </c>
-      <c r="AG29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>20</v>
-      </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,33 +4433,33 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>1.86</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
         <v>3.65</v>
@@ -4468,31 +4468,31 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="R30" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.74</v>
+        <v>2.12</v>
       </c>
       <c r="U30" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,64 +4501,64 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y30" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y30" t="n">
-        <v>15</v>
-      </c>
       <c r="Z30" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG30" t="n">
         <v>11</v>
       </c>
-      <c r="AC30" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12</v>
-      </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ30" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AM30" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="AN30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,33 +4568,33 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.2</v>
+        <v>2.82</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>2.92</v>
       </c>
       <c r="H31" t="n">
-        <v>2.02</v>
+        <v>2.64</v>
       </c>
       <c r="I31" t="n">
-        <v>2.22</v>
+        <v>2.82</v>
       </c>
       <c r="J31" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
         <v>3.6</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4624,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -4636,64 +4636,64 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,36 +4703,36 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Galway Utd</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="G32" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="H32" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,66 +4838,66 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.65</v>
+        <v>5.4</v>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>1.76</v>
       </c>
       <c r="J33" t="n">
-        <v>1.91</v>
+        <v>4.1</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>1.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4906,192 +4906,1137 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17:05:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>410</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>17:05:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>17:05:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Paris FC</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>17:05:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>2025-10-29</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Ceara SC Fortaleza</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>20:10:00</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.2</v>
       </c>
-      <c r="I34" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="K41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q34" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
+      <c r="Q41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,7 +706,7 @@
         <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -826,28 +826,28 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="Q4" t="n">
         <v>1.01</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.88</v>
@@ -1114,10 +1114,10 @@
         <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.01</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.27</v>
@@ -1246,7 +1246,7 @@
         <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T6" t="n">
         <v>1.89</v>
@@ -1255,7 +1255,7 @@
         <v>1.44</v>
       </c>
       <c r="V6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="W6" t="n">
         <v>1.05</v>
@@ -1357,7 +1357,7 @@
         <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.18</v>
@@ -1378,16 +1378,16 @@
         <v>1.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S7" t="n">
         <v>2.22</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
         <v>1.1</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="G8" t="n">
         <v>6.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I8" t="n">
         <v>1.75</v>
@@ -1501,31 +1501,31 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.03</v>
+        <v>2.38</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S8" t="n">
         <v>2.22</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W8" t="n">
         <v>1.17</v>
@@ -1612,79 +1612,79 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
         <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O9" t="n">
         <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R9" t="n">
         <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
         <v>1.85</v>
       </c>
       <c r="V9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G10" t="n">
         <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.6</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1780,19 +1780,19 @@
         <v>1.93</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
         <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
         <v>1.12</v>
@@ -1831,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>150</v>
@@ -1849,7 +1849,7 @@
         <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO10" t="n">
         <v>260</v>
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.48</v>
+        <v>2.76</v>
       </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
         <v>18.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AN11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="U12" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="V12" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE12" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
@@ -2158,19 +2158,19 @@
         <v>3.1</v>
       </c>
       <c r="H13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.52</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2179,85 +2179,85 @@
         <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R13" t="n">
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z13" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>18</v>
-      </c>
       <c r="AA13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="n">
         <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
         <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
         <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="G14" t="n">
         <v>7.2</v>
@@ -2296,28 +2296,28 @@
         <v>1.54</v>
       </c>
       <c r="I14" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="J14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q14" t="n">
         <v>1.76</v>
@@ -2326,73 +2326,73 @@
         <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE14" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG14" t="n">
         <v>26</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
         <v>110</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>2.68</v>
       </c>
       <c r="H15" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
@@ -2440,7 +2440,7 @@
         <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2452,82 +2452,82 @@
         <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U15" t="n">
         <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="n">
         <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
         <v>13.5</v>
@@ -2569,97 +2569,97 @@
         <v>1.28</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R16" t="n">
         <v>1.68</v>
       </c>
       <c r="S16" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="T16" t="n">
         <v>1.92</v>
       </c>
       <c r="U16" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X16" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD16" t="n">
         <v>11</v>
       </c>
-      <c r="AB16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG16" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AH16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI16" t="n">
         <v>32</v>
       </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ16" t="n">
         <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="n">
         <v>3.85</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.93</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.42</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>2.32</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.52</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.66</v>
+        <v>2.56</v>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="I19" t="n">
-        <v>5.9</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>2.96</v>
       </c>
       <c r="K19" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>2.84</v>
+        <v>1.65</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.38</v>
+        <v>2.26</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
-        <v>1.38</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.22</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="G21" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>2.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.56</v>
+        <v>1.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.86</v>
+        <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>2.82</v>
+        <v>1.09</v>
       </c>
       <c r="I22" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>2.94</v>
+        <v>1.09</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P22" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="G23" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="H23" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
-        <v>2.18</v>
+        <v>2.82</v>
       </c>
       <c r="H24" t="n">
-        <v>3.65</v>
+        <v>2.84</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P24" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.67</v>
+        <v>1.03</v>
       </c>
       <c r="U24" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
-        <v>4.8</v>
+        <v>1.79</v>
       </c>
       <c r="H25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1.92</v>
       </c>
-      <c r="I25" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.81</v>
       </c>
-      <c r="U25" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X25" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
         <v>15</v>
       </c>
-      <c r="Y25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,67 +3898,67 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.92</v>
+        <v>2.06</v>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>2.18</v>
       </c>
       <c r="H26" t="n">
-        <v>2.44</v>
+        <v>3.65</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
         <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="S26" t="n">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="T26" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -3967,16 +3967,16 @@
         <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -3988,31 +3988,31 @@
         <v>1000</v>
       </c>
       <c r="AG26" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN26" t="n">
         <v>14</v>
       </c>
-      <c r="AH26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>30</v>
-      </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.19</v>
+        <v>4.2</v>
       </c>
       <c r="G27" t="n">
-        <v>1.22</v>
+        <v>4.8</v>
       </c>
       <c r="H27" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X27" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB27" t="n">
         <v>16</v>
       </c>
-      <c r="I27" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K27" t="n">
-        <v>10</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y27" t="n">
+      <c r="AC27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL27" t="n">
         <v>70</v>
       </c>
-      <c r="Z27" t="n">
-        <v>210</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM27" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.05</v>
+        <v>70</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.4</v>
+        <v>2.94</v>
       </c>
       <c r="G28" t="n">
-        <v>1.41</v>
+        <v>3.05</v>
       </c>
       <c r="H28" t="n">
-        <v>9.6</v>
+        <v>2.44</v>
       </c>
       <c r="I28" t="n">
-        <v>10.5</v>
+        <v>2.54</v>
       </c>
       <c r="J28" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="K28" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R28" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="T28" t="n">
-        <v>2.14</v>
+        <v>1.63</v>
       </c>
       <c r="U28" t="n">
-        <v>1.84</v>
+        <v>2.34</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO28" t="n">
         <v>21</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>450</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.93</v>
+        <v>1.2</v>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>1.21</v>
       </c>
       <c r="H29" t="n">
-        <v>5.1</v>
+        <v>16.5</v>
       </c>
       <c r="I29" t="n">
-        <v>5.3</v>
+        <v>21</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O29" t="n">
         <v>1.12</v>
       </c>
-      <c r="N29" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.51</v>
-      </c>
       <c r="P29" t="n">
-        <v>1.58</v>
+        <v>3.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.6</v>
+        <v>1.36</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.97</v>
       </c>
       <c r="S29" t="n">
-        <v>5.3</v>
+        <v>1.75</v>
       </c>
       <c r="T29" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="U29" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="X29" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>13.5</v>
+        <v>70</v>
       </c>
       <c r="Z29" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
         <v>200</v>
       </c>
-      <c r="AB29" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>140</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>3.05</v>
       </c>
       <c r="AO29" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.84</v>
+        <v>1.39</v>
       </c>
       <c r="G30" t="n">
-        <v>1.86</v>
+        <v>1.41</v>
       </c>
       <c r="H30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K30" t="n">
         <v>5.4</v>
       </c>
-      <c r="I30" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.1</v>
       </c>
-      <c r="N30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Z30" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AA30" t="n">
-        <v>210</v>
+        <v>390</v>
       </c>
       <c r="AB30" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AE30" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ30" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>6.2</v>
       </c>
       <c r="AO30" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N31" t="n">
         <v>2.82</v>
       </c>
-      <c r="G31" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P31" t="n">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.97</v>
+        <v>2.6</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.76</v>
+        <v>2.26</v>
       </c>
       <c r="U31" t="n">
-        <v>2.28</v>
+        <v>1.73</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X31" t="n">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>6.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>21</v>
       </c>
-      <c r="AG31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>48</v>
-      </c>
       <c r="AK31" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM31" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Galway Utd</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="G32" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="I32" t="n">
         <v>5.6</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5.4</v>
+        <v>2.82</v>
       </c>
       <c r="G33" t="n">
-        <v>5.6</v>
+        <v>2.96</v>
       </c>
       <c r="H33" t="n">
-        <v>1.74</v>
+        <v>2.66</v>
       </c>
       <c r="I33" t="n">
-        <v>1.76</v>
+        <v>2.84</v>
       </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.69</v>
+        <v>1.97</v>
       </c>
       <c r="R33" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="S33" t="n">
-        <v>2.66</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="U33" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
         <v>21</v>
       </c>
-      <c r="Y33" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>44</v>
-      </c>
       <c r="AG33" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN33" t="n">
         <v>32</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>65</v>
-      </c>
       <c r="AO33" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,123 +4973,123 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Galway Utd</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="G34" t="n">
-        <v>1.26</v>
+        <v>1.97</v>
       </c>
       <c r="H34" t="n">
-        <v>15.5</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>17.5</v>
+        <v>5.4</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>3.55</v>
       </c>
       <c r="K34" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>5.3</v>
+        <v>2.76</v>
       </c>
       <c r="O34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.22</v>
       </c>
-      <c r="P34" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X34" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y34" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AC34" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>410</v>
+        <v>100</v>
       </c>
       <c r="AF34" t="n">
-        <v>7.4</v>
+        <v>16</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AK34" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AL34" t="n">
         <v>55</v>
       </c>
       <c r="AM34" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="I35" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="J35" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K35" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="P35" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S35" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q35" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.62</v>
-      </c>
       <c r="T35" t="n">
-        <v>1.8</v>
+        <v>1.03</v>
       </c>
       <c r="U35" t="n">
-        <v>2.12</v>
+        <v>1.03</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X35" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.78</v>
+        <v>1.23</v>
       </c>
       <c r="G36" t="n">
-        <v>2.82</v>
+        <v>1.24</v>
       </c>
       <c r="H36" t="n">
-        <v>2.64</v>
+        <v>16</v>
       </c>
       <c r="I36" t="n">
-        <v>2.68</v>
+        <v>17.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3.65</v>
+        <v>7.4</v>
       </c>
       <c r="K36" t="n">
-        <v>3.75</v>
+        <v>7.6</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>1.99</v>
+        <v>2.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="R36" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="S36" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="T36" t="n">
-        <v>1.61</v>
+        <v>2.38</v>
       </c>
       <c r="U36" t="n">
-        <v>2.46</v>
+        <v>1.65</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Y36" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="Z36" t="n">
-        <v>19.5</v>
+        <v>180</v>
       </c>
       <c r="AA36" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>360</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AL36" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM36" t="n">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="AN36" t="n">
-        <v>21</v>
+        <v>4.3</v>
       </c>
       <c r="AO36" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.24</v>
+        <v>5.1</v>
       </c>
       <c r="G37" t="n">
-        <v>2.26</v>
+        <v>5.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.55</v>
+        <v>1.74</v>
       </c>
       <c r="I37" t="n">
-        <v>3.6</v>
+        <v>1.76</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="P37" t="n">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="R37" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="S37" t="n">
-        <v>3.4</v>
+        <v>2.68</v>
       </c>
       <c r="T37" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U37" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y37" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="AB37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD37" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC37" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AE37" t="n">
-        <v>44</v>
+        <v>16.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AH37" t="n">
         <v>18</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AJ37" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AK37" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AL37" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AN37" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AO37" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.3</v>
+        <v>1.78</v>
       </c>
       <c r="G38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H38" t="n">
         <v>5</v>
       </c>
-      <c r="H38" t="n">
-        <v>1.99</v>
-      </c>
       <c r="I38" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P38" t="n">
         <v>2.12</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.58</v>
-      </c>
       <c r="Q38" t="n">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.61</v>
+        <v>2.8</v>
       </c>
       <c r="G39" t="n">
-        <v>1.66</v>
+        <v>2.82</v>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>2.66</v>
       </c>
       <c r="I39" t="n">
-        <v>9.6</v>
+        <v>2.7</v>
       </c>
       <c r="J39" t="n">
         <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P39" t="n">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,126 +5783,126 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="G40" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="H40" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>7.6</v>
+        <v>3.65</v>
       </c>
       <c r="J40" t="n">
-        <v>2.52</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>5.2</v>
+        <v>3.65</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P40" t="n">
-        <v>1.64</v>
+        <v>1.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -5918,125 +5918,530 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Ceara SC Fortaleza</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>20:10:00</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="F44" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G44" t="n">
         <v>2.46</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H44" t="n">
         <v>3.05</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I44" t="n">
         <v>4.7</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J44" t="n">
         <v>3.2</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K44" t="n">
         <v>3.7</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L44" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M44" t="n">
         <v>0</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N44" t="n">
         <v>0</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O44" t="n">
         <v>0</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P44" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q44" t="n">
         <v>2.02</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R44" t="n">
         <v>0</v>
       </c>
-      <c r="S41" t="n">
+      <c r="S44" t="n">
         <v>0</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T44" t="n">
         <v>0</v>
       </c>
-      <c r="U41" t="n">
+      <c r="U44" t="n">
         <v>0</v>
       </c>
-      <c r="V41" t="n">
+      <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="n">
+      <c r="W44" t="n">
         <v>0</v>
       </c>
-      <c r="X41" t="n">
+      <c r="X44" t="n">
         <v>0</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Y44" t="n">
         <v>0</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="Z44" t="n">
         <v>0</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AA44" t="n">
         <v>0</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AB44" t="n">
         <v>0</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AC44" t="n">
         <v>0</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AD44" t="n">
         <v>0</v>
       </c>
-      <c r="AE41" t="n">
+      <c r="AE44" t="n">
         <v>0</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AF44" t="n">
         <v>0</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AG44" t="n">
         <v>0</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AH44" t="n">
         <v>0</v>
       </c>
-      <c r="AI41" t="n">
+      <c r="AI44" t="n">
         <v>0</v>
       </c>
-      <c r="AJ41" t="n">
+      <c r="AJ44" t="n">
         <v>0</v>
       </c>
-      <c r="AK41" t="n">
+      <c r="AK44" t="n">
         <v>0</v>
       </c>
-      <c r="AL41" t="n">
+      <c r="AL44" t="n">
         <v>0</v>
       </c>
-      <c r="AM41" t="n">
+      <c r="AM44" t="n">
         <v>0</v>
       </c>
-      <c r="AN41" t="n">
+      <c r="AN44" t="n">
         <v>0</v>
       </c>
-      <c r="AO41" t="n">
+      <c r="AO44" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" t="n">
         <v>1.01</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.09</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
         <v>1.29</v>
@@ -1237,37 +1237,37 @@
         <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>2.26</v>
       </c>
       <c r="U6" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="W6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
         <v>980</v>
@@ -1285,10 +1285,10 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
         <v>1.87</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1372,7 +1372,7 @@
         <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
         <v>1.18</v>
@@ -1381,7 +1381,7 @@
         <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.03</v>
@@ -1390,7 +1390,7 @@
         <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
         <v>2.14</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>6.8</v>
@@ -1486,10 +1486,10 @@
         <v>1.61</v>
       </c>
       <c r="I8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.38</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
         <v>1.17</v>
       </c>
       <c r="S8" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1525,7 +1525,7 @@
         <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W8" t="n">
         <v>1.17</v>
@@ -1615,19 +1615,19 @@
         <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.35</v>
@@ -1645,13 +1645,13 @@
         <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
         <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
         <v>1.83</v>
@@ -1660,19 +1660,19 @@
         <v>1.85</v>
       </c>
       <c r="V9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,10 +1681,10 @@
         <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G10" t="n">
         <v>1.5</v>
@@ -1756,13 +1756,13 @@
         <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.42</v>
@@ -1771,13 +1771,13 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
@@ -1786,7 +1786,7 @@
         <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
         <v>2.2</v>
@@ -1795,7 +1795,7 @@
         <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W10" t="n">
         <v>3</v>
@@ -1816,7 +1816,7 @@
         <v>7.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>34</v>
@@ -1834,7 +1834,7 @@
         <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
         <v>12.5</v>
@@ -1849,10 +1849,10 @@
         <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G11" t="n">
         <v>1.57</v>
@@ -1891,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
@@ -1903,7 +1903,7 @@
         <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
         <v>3.35</v>
@@ -1933,7 +1933,7 @@
         <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
@@ -1951,7 +1951,7 @@
         <v>6.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>32</v>
@@ -1972,7 +1972,7 @@
         <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK11" t="n">
         <v>18.5</v>
@@ -1984,7 +1984,7 @@
         <v>220</v>
       </c>
       <c r="AN11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
         <v>260</v>
@@ -2062,7 +2062,7 @@
         <v>2.22</v>
       </c>
       <c r="U12" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
         <v>1.16</v>
@@ -2101,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
         <v>130</v>
@@ -2191,13 +2191,13 @@
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
         <v>1.66</v>
@@ -2215,7 +2215,7 @@
         <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
         <v>14.5</v>
@@ -2317,7 +2317,7 @@
         <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q14" t="n">
         <v>1.76</v>
@@ -2326,7 +2326,7 @@
         <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
         <v>1.89</v>
@@ -2353,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
@@ -2377,13 +2377,13 @@
         <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AK14" t="n">
         <v>95</v>
       </c>
       <c r="AL14" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
         <v>120</v>
@@ -2392,7 +2392,7 @@
         <v>110</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="15">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G15" t="n">
         <v>2.68</v>
       </c>
       <c r="H15" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
@@ -2455,7 +2455,7 @@
         <v>1.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
         <v>1.36</v>
@@ -2470,7 +2470,7 @@
         <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
         <v>1.59</v>
@@ -2479,13 +2479,13 @@
         <v>13.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
         <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB15" t="n">
         <v>11</v>
@@ -2497,7 +2497,7 @@
         <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF15" t="n">
         <v>17</v>
@@ -2506,28 +2506,28 @@
         <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
         <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="n">
         <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
         <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2587,7 +2587,7 @@
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="Q16" t="n">
         <v>1.45</v>
@@ -2599,7 +2599,7 @@
         <v>2.12</v>
       </c>
       <c r="T16" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U16" t="n">
         <v>1.99</v>
@@ -2611,7 +2611,7 @@
         <v>1.08</v>
       </c>
       <c r="X16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
@@ -2620,10 +2620,10 @@
         <v>9.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC16" t="n">
         <v>16.5</v>
@@ -2647,7 +2647,7 @@
         <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>630</v>
       </c>
       <c r="AK16" t="n">
         <v>200</v>
@@ -2656,10 +2656,10 @@
         <v>140</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AO16" t="n">
         <v>3.85</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="G17" t="n">
         <v>7</v>
@@ -2704,10 +2704,10 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,19 +2725,19 @@
         <v>1.93</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="T17" t="n">
-        <v>1.52</v>
+        <v>1.03</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>1.03</v>
       </c>
       <c r="V17" t="n">
         <v>2.38</v>
@@ -2746,13 +2746,13 @@
         <v>1.17</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
@@ -2779,7 +2779,7 @@
         <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
@@ -2830,7 +2830,7 @@
         <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
         <v>2.24</v>
@@ -2842,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2857,22 +2857,22 @@
         <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.47</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.38</v>
-      </c>
       <c r="U18" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="V18" t="n">
         <v>1.01</v>
@@ -2881,7 +2881,7 @@
         <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="n">
         <v>980</v>
@@ -2893,31 +2893,31 @@
         <v>980</v>
       </c>
       <c r="AB18" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
         <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
         <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
         <v>980</v>
@@ -2929,10 +2929,10 @@
         <v>46</v>
       </c>
       <c r="AN18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="19">
@@ -2962,31 +2962,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J19" t="n">
         <v>2.96</v>
       </c>
       <c r="K19" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
@@ -3001,7 +3001,7 @@
         <v>1.16</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>1.94</v>
       </c>
       <c r="T19" t="n">
         <v>1.03</v>
@@ -3010,10 +3010,10 @@
         <v>1.03</v>
       </c>
       <c r="V19" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3109,7 +3109,7 @@
         <v>3.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
         <v>4.1</v>
@@ -3121,28 +3121,28 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>2.52</v>
+        <v>5.9</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="R20" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="S20" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T20" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.64</v>
       </c>
       <c r="V20" t="n">
         <v>1.45</v>
@@ -3154,19 +3154,19 @@
         <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
         <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AB20" t="n">
         <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
         <v>980</v>
@@ -3175,7 +3175,7 @@
         <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
         <v>980</v>
@@ -3184,10 +3184,10 @@
         <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK20" t="n">
         <v>980</v>
@@ -3196,13 +3196,13 @@
         <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G21" t="n">
         <v>1.79</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J21" t="n">
         <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,85 +3256,85 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="O21" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="Q21" t="n">
         <v>1.44</v>
       </c>
       <c r="R21" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="S21" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="T21" t="n">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="U21" t="n">
-        <v>2.46</v>
+        <v>1.03</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
         <v>2.26</v>
       </c>
       <c r="X21" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z21" t="n">
         <v>46</v>
       </c>
-      <c r="Y21" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>65</v>
-      </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
         <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3400,13 +3400,13 @@
         <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="T22" t="n">
         <v>1.03</v>
@@ -3502,37 +3502,37 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H23" t="n">
         <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="O23" t="n">
         <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q23" t="n">
         <v>2.1</v>
@@ -3550,13 +3550,13 @@
         <v>1.84</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W23" t="n">
         <v>2.02</v>
       </c>
       <c r="X23" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
         <v>16</v>
@@ -3574,7 +3574,7 @@
         <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
         <v>85</v>
@@ -3592,7 +3592,7 @@
         <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
         <v>980</v>
@@ -3637,31 +3637,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G24" t="n">
         <v>2.82</v>
       </c>
       <c r="H24" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J24" t="n">
         <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
         <v>1.34</v>
@@ -3670,61 +3670,61 @@
         <v>1.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R24" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>2.86</v>
       </c>
       <c r="T24" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W24" t="n">
         <v>1.54</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
         <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
         <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ24" t="n">
         <v>980</v>
@@ -3733,16 +3733,16 @@
         <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -3775,31 +3775,31 @@
         <v>1.7</v>
       </c>
       <c r="G25" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I25" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P25" t="n">
         <v>1.93</v>
@@ -3808,76 +3808,76 @@
         <v>1.92</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="S25" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="T25" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="V25" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W25" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN25" t="n">
         <v>12</v>
       </c>
-      <c r="AC25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -3910,13 +3910,13 @@
         <v>2.06</v>
       </c>
       <c r="G26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>3.7</v>
@@ -3925,16 +3925,16 @@
         <v>3.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P26" t="n">
         <v>2.12</v>
@@ -3943,10 +3943,10 @@
         <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="T26" t="n">
         <v>1.67</v>
@@ -3958,22 +3958,22 @@
         <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
         <v>9.199999999999999</v>
@@ -3985,31 +3985,31 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="G27" t="n">
-        <v>4.8</v>
+        <v>1.86</v>
       </c>
       <c r="H27" t="n">
-        <v>1.89</v>
+        <v>5.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.98</v>
+        <v>5.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.97</v>
+        <v>2.32</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.81</v>
       </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
       <c r="V27" t="n">
-        <v>2.02</v>
+        <v>1.21</v>
       </c>
       <c r="W27" t="n">
-        <v>1.27</v>
+        <v>2.16</v>
       </c>
       <c r="X27" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA27" t="n">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG27" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="n">
-        <v>110</v>
+        <v>19.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN27" t="n">
-        <v>70</v>
+        <v>16.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.94</v>
+        <v>1.92</v>
       </c>
       <c r="G28" t="n">
-        <v>3.05</v>
+        <v>1.93</v>
       </c>
       <c r="H28" t="n">
-        <v>2.44</v>
+        <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.54</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N28" t="n">
-        <v>4.3</v>
+        <v>2.82</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="P28" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>2.88</v>
+        <v>5.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.63</v>
+        <v>2.26</v>
       </c>
       <c r="U28" t="n">
-        <v>2.34</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="W28" t="n">
-        <v>1.5</v>
+        <v>2.06</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="n">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN28" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="G29" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="H29" t="n">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="I29" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="J29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="X29" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF29" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="K29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W29" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>210</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI29" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.05</v>
+        <v>6.2</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.39</v>
+        <v>2.82</v>
       </c>
       <c r="G30" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L30" t="n">
         <v>1.41</v>
       </c>
-      <c r="H30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="I30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.34</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.26</v>
-      </c>
       <c r="P30" t="n">
-        <v>2.22</v>
+        <v>1.86</v>
       </c>
       <c r="Q30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.77</v>
       </c>
-      <c r="R30" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.08</v>
-      </c>
       <c r="U30" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="V30" t="n">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="W30" t="n">
-        <v>3.45</v>
+        <v>1.51</v>
       </c>
       <c r="X30" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN30" t="n">
         <v>32</v>
       </c>
-      <c r="Z30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>390</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AO30" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.92</v>
+        <v>2.94</v>
       </c>
       <c r="G31" t="n">
-        <v>1.93</v>
+        <v>3.05</v>
       </c>
       <c r="H31" t="n">
-        <v>5.3</v>
+        <v>2.48</v>
       </c>
       <c r="I31" t="n">
-        <v>5.4</v>
+        <v>2.52</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>2.82</v>
+        <v>4.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>1.58</v>
+        <v>2.08</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.6</v>
+        <v>1.77</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="S31" t="n">
-        <v>5.3</v>
+        <v>2.88</v>
       </c>
       <c r="T31" t="n">
-        <v>2.26</v>
+        <v>1.63</v>
       </c>
       <c r="U31" t="n">
-        <v>1.73</v>
+        <v>2.34</v>
       </c>
       <c r="V31" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="W31" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="X31" t="n">
-        <v>8.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AA31" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>32</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI31" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P32" t="n">
         <v>1.85</v>
       </c>
-      <c r="G32" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.7</v>
-      </c>
       <c r="Q32" t="n">
-        <v>2.32</v>
+        <v>1.97</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S32" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="U32" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.21</v>
+        <v>2.04</v>
       </c>
       <c r="W32" t="n">
-        <v>2.16</v>
+        <v>1.26</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z32" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AA32" t="n">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="AB32" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.4</v>
+        <v>34</v>
       </c>
       <c r="AG32" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>110</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AK32" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AL32" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="AO32" t="n">
-        <v>150</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="33">
@@ -4843,118 +4843,118 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.82</v>
+        <v>1.19</v>
       </c>
       <c r="G33" t="n">
-        <v>2.96</v>
+        <v>1.21</v>
       </c>
       <c r="H33" t="n">
-        <v>2.66</v>
+        <v>16.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.84</v>
+        <v>20</v>
       </c>
       <c r="J33" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>210</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN33" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>32</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,67 +4978,67 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Galway Utd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="G34" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="I34" t="n">
-        <v>5.4</v>
+        <v>3.95</v>
       </c>
       <c r="J34" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>2.76</v>
+        <v>1.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="R34" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="S34" t="n">
-        <v>3.15</v>
+        <v>2.08</v>
       </c>
       <c r="T34" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="U34" t="n">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="V34" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="X34" t="n">
         <v>980</v>
@@ -5047,34 +5047,34 @@
         <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB34" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD34" t="n">
         <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AF34" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AG34" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AJ34" t="n">
         <v>980</v>
@@ -5083,22 +5083,22 @@
         <v>980</v>
       </c>
       <c r="AL34" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Galway Utd</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="G35" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.55</v>
       </c>
-      <c r="I35" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>1.1</v>
+        <v>3.05</v>
       </c>
       <c r="O35" t="n">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>2.58</v>
+        <v>1.85</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.44</v>
+        <v>1.97</v>
       </c>
       <c r="R35" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="S35" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.03</v>
+        <v>1.85</v>
       </c>
       <c r="U35" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V35" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W35" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -5284,16 +5284,16 @@
         <v>5.3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P36" t="n">
         <v>2.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R36" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S36" t="n">
         <v>2.6</v>
@@ -5302,7 +5302,7 @@
         <v>2.38</v>
       </c>
       <c r="U36" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V36" t="n">
         <v>1.06</v>
@@ -5311,13 +5311,13 @@
         <v>5.1</v>
       </c>
       <c r="X36" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y36" t="n">
         <v>46</v>
       </c>
       <c r="Z36" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
@@ -5329,13 +5329,13 @@
         <v>17</v>
       </c>
       <c r="AD36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE36" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="AF36" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG36" t="n">
         <v>12.5</v>
@@ -5344,19 +5344,19 @@
         <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AJ36" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AK36" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL36" t="n">
         <v>55</v>
       </c>
       <c r="AM36" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AN36" t="n">
         <v>4.3</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
         <v>5.4</v>
@@ -5407,7 +5407,7 @@
         <v>4.2</v>
       </c>
       <c r="K37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L37" t="n">
         <v>1.32</v>
@@ -5428,19 +5428,19 @@
         <v>1.71</v>
       </c>
       <c r="R37" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S37" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="T37" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U37" t="n">
         <v>2.22</v>
       </c>
       <c r="V37" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W37" t="n">
         <v>1.23</v>
@@ -5449,7 +5449,7 @@
         <v>20</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z37" t="n">
         <v>11.5</v>
@@ -5545,7 +5545,7 @@
         <v>4.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -5560,13 +5560,13 @@
         <v>2.12</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R38" t="n">
         <v>1.44</v>
       </c>
       <c r="S38" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T38" t="n">
         <v>1.79</v>
@@ -5590,7 +5590,7 @@
         <v>40</v>
       </c>
       <c r="AA38" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB38" t="n">
         <v>9.6</v>
@@ -5629,7 +5629,7 @@
         <v>100</v>
       </c>
       <c r="AN38" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO38" t="n">
         <v>65</v>
@@ -5665,13 +5665,13 @@
         <v>2.8</v>
       </c>
       <c r="G39" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H39" t="n">
         <v>2.66</v>
       </c>
       <c r="I39" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J39" t="n">
         <v>3.7</v>
@@ -5692,7 +5692,7 @@
         <v>1.24</v>
       </c>
       <c r="P39" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="Q39" t="n">
         <v>1.72</v>
@@ -5701,7 +5701,7 @@
         <v>1.48</v>
       </c>
       <c r="S39" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T39" t="n">
         <v>1.6</v>
@@ -5836,10 +5836,10 @@
         <v>1.38</v>
       </c>
       <c r="S40" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T40" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U40" t="n">
         <v>2.18</v>
@@ -5854,7 +5854,7 @@
         <v>14.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z40" t="n">
         <v>25</v>
@@ -5890,13 +5890,13 @@
         <v>30</v>
       </c>
       <c r="AK40" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL40" t="n">
         <v>38</v>
       </c>
       <c r="AM40" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN40" t="n">
         <v>17.5</v>
@@ -5935,7 +5935,7 @@
         <v>4.2</v>
       </c>
       <c r="G41" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="H41" t="n">
         <v>1.98</v>
@@ -5962,22 +5962,22 @@
         <v>1.02</v>
       </c>
       <c r="P41" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.16</v>
+        <v>1.49</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S41" t="n">
         <v>4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U41" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V41" t="n">
         <v>1.9</v>
@@ -5986,58 +5986,58 @@
         <v>1.25</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -6070,115 +6070,115 @@
         <v>1.61</v>
       </c>
       <c r="G42" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="I42" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K42" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>1.66</v>
+        <v>3.05</v>
       </c>
       <c r="O42" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P42" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R42" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S42" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V42" t="n">
         <v>1.13</v>
       </c>
       <c r="W42" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,126 +6188,126 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.75</v>
+        <v>1.09</v>
       </c>
       <c r="G43" t="n">
-        <v>2.12</v>
+        <v>110</v>
       </c>
       <c r="H43" t="n">
-        <v>4.3</v>
+        <v>1.09</v>
       </c>
       <c r="I43" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="J43" t="n">
-        <v>2.52</v>
+        <v>1.02</v>
       </c>
       <c r="K43" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P43" t="n">
-        <v>1.64</v>
+        <v>3.55</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.92</v>
+        <v>1.1</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -6328,121 +6328,256 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="F45" t="n">
         <v>2</v>
       </c>
-      <c r="G44" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="G45" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J45" t="n">
         <v>3.2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K45" t="n">
         <v>3.7</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="X45" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +679,7 @@
         <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
@@ -838,10 +838,10 @@
         <v>1.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q5" t="n">
         <v>2.88</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="G6" t="n">
         <v>18</v>
@@ -1219,7 +1219,7 @@
         <v>1.37</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
         <v>7</v>
@@ -1228,10 +1228,10 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
         <v>1.27</v>
@@ -1240,10 +1240,10 @@
         <v>1.89</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
         <v>2.68</v>
@@ -1264,7 +1264,7 @@
         <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="G7" t="n">
         <v>1.87</v>
@@ -1351,13 +1351,13 @@
         <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1372,7 +1372,7 @@
         <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
         <v>1.18</v>
@@ -1381,7 +1381,7 @@
         <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T7" t="n">
         <v>1.03</v>
@@ -1390,7 +1390,7 @@
         <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
         <v>2.14</v>
@@ -1480,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H8" t="n">
         <v>1.61</v>
@@ -1489,10 +1489,10 @@
         <v>1.74</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,70 +1501,70 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
         <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="R8" t="n">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
         <v>2.34</v>
       </c>
       <c r="W8" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="9">
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -1639,16 +1639,16 @@
         <v>2.86</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
         <v>3.35</v>
@@ -1663,13 +1663,13 @@
         <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>19</v>
@@ -1681,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>14.5</v>
@@ -1693,10 +1693,10 @@
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G10" t="n">
         <v>1.5</v>
@@ -1762,7 +1762,7 @@
         <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.42</v>
@@ -1783,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
         <v>3.6</v>
@@ -1810,7 +1810,7 @@
         <v>80</v>
       </c>
       <c r="AA10" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AB10" t="n">
         <v>7.2</v>
@@ -1828,13 +1828,13 @@
         <v>7.8</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
         <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="n">
         <v>12.5</v>
@@ -1885,13 +1885,13 @@
         <v>1.56</v>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H11" t="n">
         <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
@@ -1903,25 +1903,25 @@
         <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
         <v>3.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
         <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
         <v>2.3</v>
@@ -2101,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
         <v>130</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.46</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2176,10 +2176,10 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
         <v>2.18</v>
@@ -2188,22 +2188,22 @@
         <v>1.81</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
         <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="W13" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X13" t="n">
         <v>16</v>
@@ -2212,7 +2212,7 @@
         <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
         <v>34</v>
@@ -2221,13 +2221,13 @@
         <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
@@ -2242,22 +2242,22 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
         <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
         <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I14" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J14" t="n">
         <v>4.7</v>
@@ -2311,34 +2311,34 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T14" t="n">
         <v>1.89</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W14" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X14" t="n">
         <v>19</v>
@@ -2353,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="AB14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
@@ -2377,13 +2377,13 @@
         <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK14" t="n">
         <v>95</v>
       </c>
       <c r="AL14" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM14" t="n">
         <v>120</v>
@@ -2425,7 +2425,7 @@
         <v>2.62</v>
       </c>
       <c r="G15" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H15" t="n">
         <v>2.98</v>
@@ -2464,16 +2464,16 @@
         <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U15" t="n">
         <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W15" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X15" t="n">
         <v>13.5</v>
@@ -2482,7 +2482,7 @@
         <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
         <v>48</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G16" t="n">
         <v>13.5</v>
@@ -2572,7 +2572,7 @@
         <v>7.2</v>
       </c>
       <c r="K16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.24</v>
@@ -2581,28 +2581,28 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R16" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U16" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>4.5</v>
@@ -2617,16 +2617,16 @@
         <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD16" t="n">
         <v>11</v>
@@ -2659,10 +2659,10 @@
         <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AO16" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="I17" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
         <v>5.7</v>
@@ -2722,16 +2722,16 @@
         <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>1.93</v>
+        <v>2.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T17" t="n">
         <v>1.03</v>
@@ -2740,7 +2740,7 @@
         <v>1.03</v>
       </c>
       <c r="V17" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="W17" t="n">
         <v>1.17</v>
@@ -2851,19 +2851,19 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>2.84</v>
       </c>
       <c r="Q18" t="n">
         <v>1.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S18" t="n">
         <v>1.94</v>
@@ -2872,7 +2872,7 @@
         <v>1.47</v>
       </c>
       <c r="U18" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="V18" t="n">
         <v>1.01</v>
@@ -2881,10 +2881,10 @@
         <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
         <v>980</v>
@@ -2911,13 +2911,13 @@
         <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
         <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="n">
         <v>980</v>
@@ -2962,31 +2962,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I19" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
@@ -3001,7 +3001,7 @@
         <v>1.16</v>
       </c>
       <c r="S19" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T19" t="n">
         <v>1.03</v>
@@ -3010,10 +3010,10 @@
         <v>1.03</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="I20" t="n">
         <v>3.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,34 +3121,34 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R20" t="n">
         <v>1.65</v>
       </c>
       <c r="S20" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T20" t="n">
         <v>1.48</v>
       </c>
       <c r="U20" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V20" t="n">
         <v>1.45</v>
       </c>
       <c r="W20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,55 +3223,55 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="G21" t="n">
-        <v>1.79</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>1.09</v>
       </c>
       <c r="I21" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>1.09</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.02</v>
       </c>
-      <c r="N21" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.15</v>
-      </c>
       <c r="P21" t="n">
-        <v>2.78</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R21" t="n">
-        <v>1.74</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="T21" t="n">
         <v>1.03</v>
@@ -3280,61 +3280,61 @@
         <v>1.03</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W21" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="X21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,118 +3358,118 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
-        <v>1.09</v>
+        <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.09</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>1.26</v>
+        <v>6.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.24</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G23" t="n">
         <v>1.98</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
         <v>3.8</v>
@@ -3523,10 +3523,10 @@
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.39</v>
@@ -3535,19 +3535,19 @@
         <v>1.71</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R23" t="n">
         <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T23" t="n">
         <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V23" t="n">
         <v>1.22</v>
@@ -3562,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA23" t="n">
         <v>170</v>
@@ -3574,7 +3574,7 @@
         <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
         <v>85</v>
@@ -3586,25 +3586,25 @@
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
         <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>180</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.58</v>
+        <v>1.73</v>
       </c>
       <c r="G24" t="n">
-        <v>2.82</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>2.82</v>
+        <v>5.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.05</v>
+        <v>6.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
         <v>3.65</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3</v>
-      </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P24" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="R24" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="S24" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="W24" t="n">
-        <v>1.54</v>
+        <v>2.32</v>
       </c>
       <c r="X24" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Y24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN24" t="n">
         <v>12</v>
       </c>
-      <c r="Z24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM24" t="n">
+      <c r="AO24" t="n">
         <v>120</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.7</v>
+        <v>2.58</v>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>2.86</v>
       </c>
       <c r="H25" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>6.6</v>
+        <v>3.15</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.31</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S25" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="W25" t="n">
-        <v>2.32</v>
+        <v>1.53</v>
       </c>
       <c r="X25" t="n">
         <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA25" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="H26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.6</v>
       </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="P26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T26" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.67</v>
-      </c>
       <c r="U26" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="W26" t="n">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
       <c r="X26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD26" t="n">
         <v>22</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AE26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>32</v>
-      </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM26" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="G27" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I27" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="O27" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="T27" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="U27" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="X27" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB27" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF27" t="n">
         <v>9.4</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="AN27" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.92</v>
+        <v>1.4</v>
       </c>
       <c r="G28" t="n">
-        <v>1.93</v>
+        <v>1.41</v>
       </c>
       <c r="H28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K28" t="n">
         <v>5.3</v>
       </c>
-      <c r="I28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W28" t="n">
         <v>3.4</v>
       </c>
-      <c r="L28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.06</v>
-      </c>
       <c r="X28" t="n">
-        <v>8.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="Z28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL28" t="n">
         <v>38</v>
       </c>
-      <c r="AA28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>60</v>
-      </c>
       <c r="AM28" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>6.2</v>
       </c>
       <c r="AO28" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.39</v>
+        <v>2.82</v>
       </c>
       <c r="G29" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L29" t="n">
         <v>1.41</v>
       </c>
-      <c r="H29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O29" t="n">
         <v>1.34</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.26</v>
-      </c>
       <c r="P29" t="n">
-        <v>2.22</v>
+        <v>1.84</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.77</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.08</v>
-      </c>
       <c r="U29" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="V29" t="n">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="W29" t="n">
-        <v>3.45</v>
+        <v>1.5</v>
       </c>
       <c r="X29" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN29" t="n">
         <v>32</v>
       </c>
-      <c r="Z29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>390</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AO29" t="n">
-        <v>230</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -4438,103 +4438,103 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="G30" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="H30" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.82</v>
+        <v>2.52</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L30" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="P30" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.97</v>
+        <v>1.78</v>
       </c>
       <c r="R30" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="T30" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="U30" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V30" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="W30" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="X30" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ30" t="n">
         <v>1000</v>
@@ -4546,10 +4546,10 @@
         <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.94</v>
+        <v>4.3</v>
       </c>
       <c r="G31" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="H31" t="n">
-        <v>2.48</v>
+        <v>1.87</v>
       </c>
       <c r="I31" t="n">
-        <v>2.52</v>
+        <v>1.96</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K31" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.77</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="S31" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="U31" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="V31" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="X31" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="n">
         <v>23</v>
       </c>
-      <c r="Y31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC31" t="n">
-        <v>32</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>1.19</v>
       </c>
       <c r="G32" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1.88</v>
+        <v>16.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.96</v>
+        <v>21</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="K32" t="n">
-        <v>3.85</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="P32" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.97</v>
+        <v>1.37</v>
       </c>
       <c r="R32" t="n">
-        <v>1.33</v>
+        <v>1.98</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>1.89</v>
       </c>
       <c r="T32" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V32" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="W32" t="n">
-        <v>1.26</v>
+        <v>6</v>
       </c>
       <c r="X32" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.199999999999999</v>
+        <v>70</v>
       </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="AA32" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF32" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>34</v>
-      </c>
       <c r="AG32" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AJ32" t="n">
-        <v>110</v>
+        <v>10.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
         <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>70</v>
+        <v>3.05</v>
       </c>
       <c r="AO32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4843,118 +4843,118 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.19</v>
+        <v>2.06</v>
       </c>
       <c r="G33" t="n">
-        <v>1.21</v>
+        <v>2.18</v>
       </c>
       <c r="H33" t="n">
-        <v>16.5</v>
+        <v>3.55</v>
       </c>
       <c r="I33" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>3.25</v>
+        <v>2.12</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>2.02</v>
+        <v>1.43</v>
       </c>
       <c r="S33" t="n">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="T33" t="n">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="U33" t="n">
-        <v>1.79</v>
+        <v>2.4</v>
       </c>
       <c r="V33" t="n">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>5.7</v>
+        <v>1.84</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y33" t="n">
-        <v>80</v>
+        <v>19.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
         <v>17</v>
       </c>
-      <c r="AC33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AG33" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="AK33" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.3</v>
+        <v>16</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G34" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H34" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
         <v>3.95</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>4.6</v>
@@ -5011,34 +5011,34 @@
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="O34" t="n">
         <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="Q34" t="n">
         <v>1.44</v>
       </c>
       <c r="R34" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S34" t="n">
         <v>2.08</v>
       </c>
       <c r="T34" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="U34" t="n">
         <v>2.32</v>
       </c>
       <c r="V34" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W34" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="X34" t="n">
         <v>980</v>
@@ -5125,19 +5125,19 @@
         <v>1.8</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5155,13 +5155,13 @@
         <v>1.85</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R35" t="n">
         <v>1.32</v>
       </c>
       <c r="S35" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="T35" t="n">
         <v>1.85</v>
@@ -5188,10 +5188,10 @@
         <v>150</v>
       </c>
       <c r="AB35" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD35" t="n">
         <v>980</v>
@@ -5266,13 +5266,13 @@
         <v>16</v>
       </c>
       <c r="I36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="J36" t="n">
         <v>7.4</v>
       </c>
       <c r="K36" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L36" t="n">
         <v>1.3</v>
@@ -5287,28 +5287,28 @@
         <v>1.21</v>
       </c>
       <c r="P36" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="R36" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="S36" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="T36" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="U36" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W36" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X36" t="n">
         <v>32</v>
@@ -5317,49 +5317,49 @@
         <v>46</v>
       </c>
       <c r="Z36" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC36" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE36" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AF36" t="n">
         <v>7.6</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ36" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AK36" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM36" t="n">
         <v>300</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5395,7 +5395,7 @@
         <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H37" t="n">
         <v>1.74</v>
@@ -5404,7 +5404,7 @@
         <v>1.76</v>
       </c>
       <c r="J37" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K37" t="n">
         <v>4.4</v>
@@ -5422,7 +5422,7 @@
         <v>1.24</v>
       </c>
       <c r="P37" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q37" t="n">
         <v>1.71</v>
@@ -5431,7 +5431,7 @@
         <v>1.51</v>
       </c>
       <c r="S37" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T37" t="n">
         <v>1.74</v>
@@ -5440,7 +5440,7 @@
         <v>2.22</v>
       </c>
       <c r="V37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W37" t="n">
         <v>1.23</v>
@@ -5449,7 +5449,7 @@
         <v>20</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
         <v>11.5</v>
@@ -5530,7 +5530,7 @@
         <v>1.78</v>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H38" t="n">
         <v>5</v>
@@ -5539,7 +5539,7 @@
         <v>5.2</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K38" t="n">
         <v>4.2</v>
@@ -5551,10 +5551,10 @@
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P38" t="n">
         <v>2.12</v>
@@ -5563,28 +5563,28 @@
         <v>1.8</v>
       </c>
       <c r="R38" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S38" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T38" t="n">
         <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V38" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W38" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X38" t="n">
         <v>17</v>
       </c>
       <c r="Y38" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z38" t="n">
         <v>40</v>
@@ -5593,7 +5593,7 @@
         <v>120</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>9.199999999999999</v>
@@ -5701,13 +5701,13 @@
         <v>1.48</v>
       </c>
       <c r="S39" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="T39" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U39" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V39" t="n">
         <v>1.59</v>
@@ -5836,7 +5836,7 @@
         <v>1.38</v>
       </c>
       <c r="S40" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T40" t="n">
         <v>1.78</v>
@@ -5854,7 +5854,7 @@
         <v>14.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z40" t="n">
         <v>25</v>
@@ -5935,7 +5935,7 @@
         <v>4.2</v>
       </c>
       <c r="G41" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
         <v>1.98</v>
@@ -5944,7 +5944,7 @@
         <v>2.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
         <v>3.6</v>
@@ -5953,31 +5953,31 @@
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>1.1</v>
+        <v>2.72</v>
       </c>
       <c r="O41" t="n">
-        <v>1.02</v>
+        <v>1.46</v>
       </c>
       <c r="P41" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.49</v>
+        <v>2.18</v>
       </c>
       <c r="R41" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="U41" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="V41" t="n">
         <v>1.9</v>
@@ -5986,46 +5986,46 @@
         <v>1.25</v>
       </c>
       <c r="X41" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z41" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AB41" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AC41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD41" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF41" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AG41" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH41" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI41" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ41" t="n">
         <v>150</v>
       </c>
       <c r="AK41" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="n">
         <v>110</v>
@@ -6037,7 +6037,7 @@
         <v>140</v>
       </c>
       <c r="AO41" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -6079,7 +6079,7 @@
         <v>8.6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K42" t="n">
         <v>4.1</v>
@@ -6091,73 +6091,73 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O42" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P42" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q42" t="n">
         <v>2.26</v>
       </c>
       <c r="R42" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S42" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T42" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="U42" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V42" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W42" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X42" t="n">
         <v>14</v>
       </c>
       <c r="Y42" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z42" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AA42" t="n">
         <v>390</v>
       </c>
       <c r="AB42" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="n">
         <v>200</v>
       </c>
       <c r="AF42" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG42" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI42" t="n">
         <v>190</v>
       </c>
       <c r="AJ42" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AK42" t="n">
         <v>980</v>
@@ -6169,10 +6169,10 @@
         <v>280</v>
       </c>
       <c r="AN42" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AO42" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G43" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="H43" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I43" t="n">
         <v>1000</v>
@@ -6220,7 +6220,7 @@
         <v>1000</v>
       </c>
       <c r="L43" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M43" t="n">
         <v>1.01</v>
@@ -6229,19 +6229,19 @@
         <v>3.55</v>
       </c>
       <c r="O43" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P43" t="n">
         <v>3.55</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="R43" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S43" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="T43" t="n">
         <v>1.03</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G44" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="H44" t="n">
-        <v>1.09</v>
+        <v>4.8</v>
       </c>
       <c r="I44" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K44" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,22 +6361,22 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="O44" t="n">
         <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R44" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S44" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T44" t="n">
         <v>1.03</v>
@@ -6388,7 +6388,7 @@
         <v>1.25</v>
       </c>
       <c r="W44" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6475,19 +6475,19 @@
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I45" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J45" t="n">
         <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6499,31 +6499,31 @@
         <v>3</v>
       </c>
       <c r="O45" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P45" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S45" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="T45" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U45" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="V45" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W45" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="X45" t="n">
         <v>980</v>
@@ -6578,6 +6578,276 @@
       </c>
       <c r="AO45" t="n">
         <v>95</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X46" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Austin FC</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X47" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO47"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Hong Kong Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Eastern District SA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Kowloon City FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>1.09</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7</v>
+        <v>2.74</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.26</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.5</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.03</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>2.58</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -808,13 +808,13 @@
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>1.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -829,19 +829,19 @@
         <v>1.26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -850,10 +850,10 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -923,17 +923,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -961,16 +961,16 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R4" t="n">
         <v>1.13</v>
@@ -1058,17 +1058,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1084,7 +1084,7 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,100 +1198,100 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.4</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1.37</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>1.29</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.89</v>
+        <v>1.29</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="T6" t="n">
-        <v>2.26</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,100 +1333,100 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Kosice</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.52</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>1.87</v>
+        <v>15.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>1.31</v>
       </c>
       <c r="I7" t="n">
-        <v>12.5</v>
+        <v>1.37</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.18</v>
+        <v>1.79</v>
       </c>
       <c r="R7" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>2.26</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>3.65</v>
       </c>
       <c r="W7" t="n">
-        <v>2.14</v>
+        <v>1.06</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1438,7 +1438,7 @@
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8">
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>KFC Komarno</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>FC Kosice</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>1.52</v>
       </c>
       <c r="G8" t="n">
-        <v>6.6</v>
+        <v>1.87</v>
       </c>
       <c r="H8" t="n">
-        <v>1.61</v>
+        <v>4.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.74</v>
+        <v>14.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,70 +1501,70 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.49</v>
+        <v>1.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>2.34</v>
+        <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.2</v>
+        <v>2.14</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1582,13 +1582,13 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>KFC Komarno</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.42</v>
+        <v>1.67</v>
       </c>
       <c r="I9" t="n">
-        <v>2.66</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.86</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
-        <v>3.35</v>
+        <v>2.48</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>1.85</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.49</v>
+        <v>3.05</v>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>3.45</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
-        <v>9.4</v>
+        <v>2.68</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>2.86</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>1.41</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="G11" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W11" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF11" t="n">
         <v>7.8</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12">
@@ -2008,34 +2008,34 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2047,10 +2047,10 @@
         <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R12" t="n">
         <v>1.3</v>
@@ -2059,76 +2059,76 @@
         <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="V12" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK12" t="n">
         <v>18.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AN12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>1.66</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>1.67</v>
       </c>
       <c r="H13" t="n">
-        <v>2.42</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.46</v>
+        <v>7.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.81</v>
+        <v>2.26</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="U13" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>1.69</v>
+        <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>1.45</v>
+        <v>2.48</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AA13" t="n">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF13" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>22</v>
-      </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
-        <v>7.6</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>1.53</v>
+        <v>2.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.55</v>
+        <v>2.42</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="V14" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="W14" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.4</v>
+        <v>16.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK14" t="n">
         <v>32</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>95</v>
-      </c>
       <c r="AL14" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.62</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>2.66</v>
+        <v>7.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.98</v>
+        <v>1.54</v>
       </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>1.55</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.49</v>
+        <v>2.8</v>
       </c>
       <c r="W15" t="n">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA15" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AE15" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="AO15" t="n">
-        <v>32</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12.5</v>
+        <v>2.64</v>
       </c>
       <c r="G16" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X16" t="n">
         <v>13.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X16" t="n">
-        <v>36</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>10.5</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="n">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
         <v>46</v>
       </c>
-      <c r="AH16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO16" t="n">
         <v>32</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>630</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>180</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>3.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="G17" t="n">
-        <v>6.6</v>
+        <v>13</v>
       </c>
       <c r="H17" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="I17" t="n">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="K17" t="n">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P17" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="S17" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="T17" t="n">
-        <v>1.03</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>2.32</v>
+        <v>4.6</v>
       </c>
       <c r="W17" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="H18" t="n">
-        <v>2.24</v>
+        <v>1.62</v>
       </c>
       <c r="I18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.32</v>
       </c>
-      <c r="J18" t="n">
-        <v>4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.84</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>2.32</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.01</v>
       </c>
-      <c r="N19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="W19" t="n">
         <v>1.01</v>
       </c>
-      <c r="P19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.22</v>
+        <v>2.56</v>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J20" t="n">
         <v>2.94</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4</v>
-      </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>500</v>
       </c>
       <c r="L20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.01</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.03</v>
       </c>
-      <c r="N20" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.48</v>
-      </c>
       <c r="U20" t="n">
-        <v>2.62</v>
+        <v>1.03</v>
       </c>
       <c r="V20" t="n">
         <v>1.45</v>
       </c>
       <c r="W20" t="n">
-        <v>1.72</v>
+        <v>1.39</v>
       </c>
       <c r="X20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.4</v>
+        <v>2.24</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="H21" t="n">
-        <v>1.09</v>
+        <v>2.92</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.09</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>1.26</v>
+        <v>5.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>2.62</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.46</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.24</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,118 +3358,118 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3</v>
+        <v>1.09</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>1.09</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.02</v>
       </c>
-      <c r="N22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.15</v>
-      </c>
       <c r="P22" t="n">
-        <v>2.78</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.45</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.74</v>
       </c>
-      <c r="S22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.24</v>
-      </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="G23" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="O23" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="P23" t="n">
-        <v>1.71</v>
+        <v>2.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.14</v>
+        <v>1.44</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="S23" t="n">
-        <v>3.55</v>
+        <v>1.96</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="U23" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB23" t="n">
         <v>16</v>
       </c>
-      <c r="Z23" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>8</v>
-      </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG23" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AN23" t="n">
-        <v>19.5</v>
+        <v>6.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>1.99</v>
       </c>
       <c r="H24" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.65</v>
+        <v>2.86</v>
       </c>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U24" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="W24" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN24" t="n">
         <v>22</v>
       </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>12</v>
-      </c>
       <c r="AO24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.58</v>
+        <v>1.8</v>
       </c>
       <c r="G25" t="n">
-        <v>2.86</v>
+        <v>1.88</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.15</v>
+        <v>5.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="S25" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
         <v>12</v>
       </c>
-      <c r="Z25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF25" t="n">
+      <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
         <v>21</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN25" t="n">
         <v>13</v>
       </c>
-      <c r="AH25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="G26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P26" t="n">
         <v>1.86</v>
       </c>
-      <c r="H26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.7</v>
-      </c>
       <c r="Q26" t="n">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="R26" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S26" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="T26" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="W26" t="n">
-        <v>2.16</v>
+        <v>1.56</v>
       </c>
       <c r="X26" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AB26" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.4</v>
+        <v>18.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="G27" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="H27" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I27" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="U27" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="V27" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W27" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="X27" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA27" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF27" t="n">
         <v>9.4</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.4</v>
+        <v>1.91</v>
       </c>
       <c r="G28" t="n">
-        <v>1.41</v>
+        <v>1.92</v>
       </c>
       <c r="H28" t="n">
-        <v>9.6</v>
+        <v>5.4</v>
       </c>
       <c r="I28" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S28" t="n">
         <v>5.2</v>
       </c>
-      <c r="K28" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.94</v>
-      </c>
       <c r="T28" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W28" t="n">
         <v>2.08</v>
       </c>
-      <c r="U28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W28" t="n">
-        <v>3.4</v>
-      </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y28" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO28" t="n">
         <v>170</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>230</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.82</v>
+        <v>1.41</v>
       </c>
       <c r="G29" t="n">
-        <v>2.98</v>
+        <v>1.42</v>
       </c>
       <c r="H29" t="n">
-        <v>2.66</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>2.84</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="R29" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="S29" t="n">
-        <v>3.55</v>
+        <v>2.94</v>
       </c>
       <c r="T29" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="U29" t="n">
-        <v>2.28</v>
+        <v>1.86</v>
       </c>
       <c r="V29" t="n">
-        <v>1.54</v>
+        <v>1.11</v>
       </c>
       <c r="W29" t="n">
-        <v>1.5</v>
+        <v>3.35</v>
       </c>
       <c r="X29" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC29" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD29" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH29" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AI29" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN29" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="AO29" t="n">
-        <v>32</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
@@ -4438,103 +4438,103 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="G30" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H30" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="I30" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="J30" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.34</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.26</v>
-      </c>
       <c r="P30" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="S30" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="U30" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V30" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="W30" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="X30" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
         <v>1000</v>
@@ -4546,7 +4546,7 @@
         <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN30" t="n">
         <v>1000</v>
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="G31" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="H31" t="n">
-        <v>1.87</v>
+        <v>2.42</v>
       </c>
       <c r="I31" t="n">
-        <v>1.96</v>
+        <v>2.48</v>
       </c>
       <c r="J31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.8</v>
       </c>
-      <c r="K31" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="R31" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="V31" t="n">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="W31" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AA31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF31" t="n">
         <v>23</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AG31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH31" t="n">
         <v>16</v>
       </c>
-      <c r="AC31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF31" t="n">
+      <c r="AI31" t="n">
         <v>34</v>
       </c>
-      <c r="AG31" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>38</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AK31" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM31" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.19</v>
+        <v>4.5</v>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X32" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB32" t="n">
         <v>16.5</v>
       </c>
-      <c r="I32" t="n">
+      <c r="AC32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE32" t="n">
         <v>21</v>
       </c>
-      <c r="J32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N32" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W32" t="n">
-        <v>6</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>230</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>330</v>
-      </c>
       <c r="AF32" t="n">
-        <v>10.5</v>
+        <v>36</v>
       </c>
       <c r="AG32" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.05</v>
+        <v>75</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="33">
@@ -4843,118 +4843,118 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T33" t="n">
         <v>2.06</v>
       </c>
-      <c r="G33" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.66</v>
-      </c>
       <c r="U33" t="n">
-        <v>2.4</v>
+        <v>1.81</v>
       </c>
       <c r="V33" t="n">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="W33" t="n">
-        <v>1.84</v>
+        <v>6</v>
       </c>
       <c r="X33" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>230</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
         <v>22</v>
       </c>
-      <c r="Y33" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD33" t="n">
-        <v>19.5</v>
+        <v>70</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ33" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AK33" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>16</v>
+        <v>3.05</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="G34" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I34" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>5.7</v>
+        <v>3.55</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="P34" t="n">
-        <v>2.6</v>
+        <v>2.12</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="R34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.65</v>
       </c>
-      <c r="S34" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.44</v>
-      </c>
       <c r="U34" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="V34" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="X34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AG34" t="n">
         <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AN34" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,67 +5113,67 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Galway Utd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="G35" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="H35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.9</v>
       </c>
-      <c r="I35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>3.05</v>
+        <v>1.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.96</v>
+        <v>1.44</v>
       </c>
       <c r="R35" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="S35" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="T35" t="n">
-        <v>1.85</v>
+        <v>1.54</v>
       </c>
       <c r="U35" t="n">
-        <v>1.96</v>
+        <v>2.32</v>
       </c>
       <c r="V35" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W35" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="X35" t="n">
         <v>980</v>
@@ -5185,31 +5185,31 @@
         <v>980</v>
       </c>
       <c r="AA35" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD35" t="n">
         <v>980</v>
       </c>
       <c r="AE35" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AF35" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AJ35" t="n">
         <v>980</v>
@@ -5218,22 +5218,22 @@
         <v>980</v>
       </c>
       <c r="AL35" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM35" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AN35" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AO35" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,126 +5243,126 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Galway Utd</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.23</v>
+        <v>1.93</v>
       </c>
       <c r="G36" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="H36" t="n">
-        <v>16</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
-        <v>18</v>
+        <v>4.8</v>
       </c>
       <c r="J36" t="n">
-        <v>7.4</v>
+        <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>7.8</v>
+        <v>3.85</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>5.3</v>
+        <v>3.45</v>
       </c>
       <c r="O36" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="P36" t="n">
-        <v>2.52</v>
+        <v>1.84</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.59</v>
+        <v>2.02</v>
       </c>
       <c r="R36" t="n">
-        <v>1.61</v>
+        <v>1.32</v>
       </c>
       <c r="S36" t="n">
-        <v>2.52</v>
+        <v>3.6</v>
       </c>
       <c r="T36" t="n">
-        <v>2.34</v>
+        <v>1.89</v>
       </c>
       <c r="U36" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>5.2</v>
+        <v>1.99</v>
       </c>
       <c r="X36" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Y36" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="Z36" t="n">
-        <v>210</v>
+        <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB36" t="n">
         <v>9</v>
       </c>
       <c r="AC36" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AD36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI36" t="n">
         <v>70</v>
       </c>
-      <c r="AE36" t="n">
-        <v>400</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>280</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AK36" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AL36" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.1</v>
+        <v>970</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>1.23</v>
       </c>
       <c r="G37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N37" t="n">
         <v>5.2</v>
       </c>
-      <c r="H37" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="O37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W37" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>370</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN37" t="n">
         <v>4.3</v>
       </c>
-      <c r="K37" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X37" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>60</v>
-      </c>
       <c r="AO37" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.78</v>
+        <v>5.2</v>
       </c>
       <c r="G38" t="n">
-        <v>1.79</v>
+        <v>5.5</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>1.73</v>
       </c>
       <c r="I38" t="n">
-        <v>5.2</v>
+        <v>1.75</v>
       </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="O38" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P38" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R38" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="S38" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="T38" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="U38" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="V38" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="W38" t="n">
-        <v>2.26</v>
+        <v>1.22</v>
       </c>
       <c r="X38" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG38" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z38" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI38" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AJ38" t="n">
-        <v>18.5</v>
+        <v>130</v>
       </c>
       <c r="AK38" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AL38" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM38" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.800000000000001</v>
+        <v>60</v>
       </c>
       <c r="AO38" t="n">
-        <v>65</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.8</v>
+        <v>1.79</v>
       </c>
       <c r="G39" t="n">
-        <v>2.84</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
-        <v>2.66</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>2.68</v>
+        <v>5.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="O39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V39" t="n">
         <v>1.24</v>
       </c>
-      <c r="P39" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.59</v>
-      </c>
       <c r="W39" t="n">
-        <v>1.54</v>
+        <v>2.24</v>
       </c>
       <c r="X39" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y39" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH39" t="n">
         <v>19</v>
       </c>
-      <c r="AA39" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>15</v>
-      </c>
       <c r="AI39" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AK39" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AL39" t="n">
         <v>34</v>
       </c>
       <c r="AM39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO39" t="n">
         <v>65</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.22</v>
+        <v>2.8</v>
       </c>
       <c r="G40" t="n">
-        <v>2.26</v>
+        <v>2.82</v>
       </c>
       <c r="H40" t="n">
-        <v>3.55</v>
+        <v>2.66</v>
       </c>
       <c r="I40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J40" t="n">
         <v>3.65</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K40" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="R40" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="S40" t="n">
-        <v>3.45</v>
+        <v>2.84</v>
       </c>
       <c r="T40" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="U40" t="n">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="V40" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="W40" t="n">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="X40" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y40" t="n">
         <v>14</v>
       </c>
       <c r="Z40" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM40" t="n">
         <v>65</v>
       </c>
-      <c r="AB40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>90</v>
-      </c>
       <c r="AN40" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AO40" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.2</v>
+        <v>2.26</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>2.28</v>
       </c>
       <c r="H41" t="n">
-        <v>1.98</v>
+        <v>3.55</v>
       </c>
       <c r="I41" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="J41" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K41" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>2.72</v>
+        <v>4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="P41" t="n">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="S41" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="T41" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="U41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W41" t="n">
         <v>1.78</v>
       </c>
-      <c r="V41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.25</v>
-      </c>
       <c r="X41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB41" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y41" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>13</v>
-      </c>
       <c r="AC41" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD41" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AE41" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF41" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AG41" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AI41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ41" t="n">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="AK41" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AL41" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AN41" t="n">
-        <v>140</v>
+        <v>17.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.61</v>
+        <v>4.2</v>
       </c>
       <c r="G42" t="n">
-        <v>1.63</v>
+        <v>5.2</v>
       </c>
       <c r="H42" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y42" t="n">
         <v>7.6</v>
       </c>
-      <c r="I42" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W42" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X42" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>23</v>
-      </c>
       <c r="Z42" t="n">
-        <v>85</v>
+        <v>12.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>390</v>
+        <v>980</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="AC42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD42" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD42" t="n">
-        <v>38</v>
-      </c>
       <c r="AE42" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="AF42" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AH42" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AI42" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AJ42" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="AK42" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AM42" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="AN42" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="AO42" t="n">
-        <v>360</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="G43" t="n">
-        <v>600</v>
+        <v>1.59</v>
       </c>
       <c r="H43" t="n">
-        <v>1.04</v>
+        <v>8</v>
       </c>
       <c r="I43" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="J43" t="n">
-        <v>1.02</v>
+        <v>3.95</v>
       </c>
       <c r="K43" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="O43" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="P43" t="n">
-        <v>3.55</v>
+        <v>1.71</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.09</v>
+        <v>2.22</v>
       </c>
       <c r="R43" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="S43" t="n">
-        <v>1.11</v>
+        <v>4.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.03</v>
+        <v>2.3</v>
       </c>
       <c r="U43" t="n">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="V43" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W43" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,60 +6323,60 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="G44" t="n">
-        <v>1.97</v>
+        <v>1.34</v>
       </c>
       <c r="H44" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="I44" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="J44" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="K44" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.48</v>
+        <v>3.55</v>
       </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="P44" t="n">
-        <v>1.64</v>
+        <v>3.55</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.98</v>
+        <v>1.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="S44" t="n">
-        <v>3.1</v>
+        <v>1.12</v>
       </c>
       <c r="T44" t="n">
         <v>1.03</v>
@@ -6385,10 +6385,10 @@
         <v>1.03</v>
       </c>
       <c r="V44" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W44" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="G45" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="H45" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="I45" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K45" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O45" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="P45" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="R45" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S45" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T45" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U45" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="V45" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="W45" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="X45" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AA45" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB45" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AC45" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AE45" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF45" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AG45" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI45" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AK45" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL45" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN45" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>22:20:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="G46" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="I46" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="O46" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P46" t="n">
         <v>1.72</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="R46" t="n">
         <v>1.27</v>
       </c>
       <c r="S46" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="T46" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="U46" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="V46" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W46" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X46" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Z46" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA46" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AC46" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD46" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AE46" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF46" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AG46" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI46" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK46" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL46" t="n">
         <v>55</v>
       </c>
       <c r="AM46" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AO46" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,99 +6728,99 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="G47" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L47" t="n">
         <v>1.45</v>
       </c>
-      <c r="H47" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I47" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.3</v>
-      </c>
       <c r="M47" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="P47" t="n">
-        <v>2.42</v>
+        <v>1.72</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="R47" t="n">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="S47" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="T47" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U47" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="V47" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="W47" t="n">
-        <v>3.2</v>
+        <v>2.06</v>
       </c>
       <c r="X47" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA47" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF47" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="AG47" t="n">
         <v>11</v>
@@ -6829,24 +6829,159 @@
         <v>26</v>
       </c>
       <c r="AI47" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ47" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AK47" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AL47" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM47" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Austin FC</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE48" t="n">
         <v>160</v>
       </c>
-      <c r="AN47" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AO47" t="n">
+      <c r="AF48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO48" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO48"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>2.74</v>
+        <v>980</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.52</v>
+        <v>1.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>2.58</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>US Monastirienne</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Ben Guerdane</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -808,13 +808,13 @@
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,17 +923,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Avenir S Marsa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Etoile Sportive Sahel</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -961,28 +961,28 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,17 +1058,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1084,40 +1084,40 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.03</v>
       </c>
-      <c r="K5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.13</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
         <v>1.01</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1213,13 +1213,13 @@
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>2.88</v>
+        <v>1.51</v>
       </c>
       <c r="T6" t="n">
         <v>1.03</v>
@@ -1255,10 +1255,10 @@
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,105 +1328,105 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.31</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>1.37</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.05</v>
       </c>
-      <c r="N7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.72</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.26</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.65</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1438,7 +1438,7 @@
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1447,13 +1447,13 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Kosice</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.52</v>
+        <v>1.02</v>
       </c>
       <c r="G8" t="n">
-        <v>1.87</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4</v>
+        <v>1.02</v>
       </c>
       <c r="I8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
         <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
         <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>2.44</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1525,10 +1525,10 @@
         <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>KFC Komarno</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,94 +1636,94 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>4.9</v>
+        <v>1.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="S9" t="n">
-        <v>2.48</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.64</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>2.26</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,78 +1733,78 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.86</v>
+        <v>1.24</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.49</v>
+        <v>1.09</v>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>8.800000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>1.36</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>1.26</v>
       </c>
       <c r="R11" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1.12</v>
+        <v>3.75</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.55</v>
+        <v>1.02</v>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>980</v>
       </c>
       <c r="H12" t="n">
-        <v>8.199999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="I12" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>1.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>1.05</v>
       </c>
       <c r="T12" t="n">
-        <v>2.3</v>
+        <v>1.03</v>
       </c>
       <c r="U12" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>2.76</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>FC Kosice</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="G13" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
         <v>7.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>1.77</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>1.18</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>1.05</v>
       </c>
       <c r="T13" t="n">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="U13" t="n">
-        <v>1.78</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
         <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>KFC Komarno</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="I14" t="n">
-        <v>2.42</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.18</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="S14" t="n">
-        <v>2.98</v>
+        <v>1.81</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.03</v>
       </c>
       <c r="U14" t="n">
-        <v>2.42</v>
+        <v>1.03</v>
       </c>
       <c r="V14" t="n">
-        <v>1.7</v>
+        <v>2.24</v>
       </c>
       <c r="W14" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="G15" t="n">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.54</v>
+        <v>2.48</v>
       </c>
       <c r="I15" t="n">
-        <v>1.55</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.05</v>
       </c>
-      <c r="N15" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.88</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>2.8</v>
+        <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.64</v>
+        <v>1.66</v>
       </c>
       <c r="G16" t="n">
-        <v>2.68</v>
+        <v>1.67</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>7.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S16" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="V16" t="n">
-        <v>1.48</v>
+        <v>1.15</v>
       </c>
       <c r="W16" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN16" t="n">
         <v>12</v>
       </c>
-      <c r="Z16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>25</v>
-      </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12.5</v>
+        <v>1.56</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>1.27</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.28</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>7.4</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB17" t="n">
         <v>6.8</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AC17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD17" t="n">
         <v>32</v>
       </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AE17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AB17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AH17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN17" t="n">
         <v>11</v>
       </c>
-      <c r="AE17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>590</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>180</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>170</v>
-      </c>
       <c r="AO17" t="n">
-        <v>3.85</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.3</v>
+        <v>1.49</v>
       </c>
       <c r="G18" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.62</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.45</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>2.12</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="U18" t="n">
-        <v>2.32</v>
+        <v>1.78</v>
       </c>
       <c r="V18" t="n">
-        <v>2.32</v>
+        <v>1.12</v>
       </c>
       <c r="W18" t="n">
-        <v>1.18</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
         <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.84</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="S19" t="n">
-        <v>1.95</v>
+        <v>2.76</v>
       </c>
       <c r="T19" t="n">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
         <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.56</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.34</v>
+        <v>1.54</v>
       </c>
       <c r="I20" t="n">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="J20" t="n">
-        <v>2.94</v>
+        <v>4.7</v>
       </c>
       <c r="K20" t="n">
-        <v>500</v>
+        <v>4.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>2.52</v>
+        <v>4.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>1.66</v>
+        <v>2.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.16</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.39</v>
-      </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.24</v>
+        <v>2.62</v>
       </c>
       <c r="G21" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="H21" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>5.9</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>2.62</v>
+        <v>1.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.51</v>
+        <v>2.04</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="T21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.47</v>
       </c>
-      <c r="U21" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.46</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="X21" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB21" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="H22" t="n">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>1.29</v>
       </c>
       <c r="J22" t="n">
-        <v>1.09</v>
+        <v>7.2</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>1.26</v>
+        <v>6.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>2.94</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>1.74</v>
       </c>
       <c r="S22" t="n">
-        <v>1.45</v>
+        <v>2.16</v>
       </c>
       <c r="T22" t="n">
-        <v>1.03</v>
+        <v>1.88</v>
       </c>
       <c r="U22" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="V22" t="n">
-        <v>1.24</v>
+        <v>4.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.08</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I23" t="n">
+        <v>980</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.71</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.96</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.52</v>
+        <v>1.03</v>
       </c>
       <c r="U23" t="n">
-        <v>2.32</v>
+        <v>1.03</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W23" t="n">
-        <v>2.26</v>
+        <v>1.17</v>
       </c>
       <c r="X23" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
         <v>980</v>
       </c>
-      <c r="Z23" t="n">
-        <v>46</v>
-      </c>
       <c r="AA23" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
         <v>980</v>
       </c>
-      <c r="AE23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>46</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,123 +3623,123 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.95</v>
+        <v>3.15</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
-        <v>4.6</v>
+        <v>2.04</v>
       </c>
       <c r="I24" t="n">
-        <v>5.3</v>
+        <v>2.28</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
         <v>1.1</v>
       </c>
-      <c r="N24" t="n">
-        <v>2.86</v>
-      </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>1.05</v>
       </c>
       <c r="T24" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U24" t="n">
-        <v>1.83</v>
+        <v>2.52</v>
       </c>
       <c r="V24" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>1.88</v>
+        <v>980</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>5.2</v>
+        <v>3.05</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>1.49</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>3.6</v>
+        <v>1.32</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R25" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="S25" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="T25" t="n">
-        <v>1.86</v>
+        <v>1.03</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="V25" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="W25" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,115 +3898,115 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="G26" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="H26" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I26" t="n">
-        <v>3.05</v>
+        <v>85</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>1.21</v>
       </c>
       <c r="K26" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>3.4</v>
+        <v>1.67</v>
       </c>
       <c r="O26" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="P26" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.02</v>
+        <v>1.16</v>
       </c>
       <c r="R26" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>3.45</v>
+        <v>1.7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78</v>
+        <v>1.03</v>
       </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>1.03</v>
       </c>
       <c r="V26" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="G27" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="P27" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>1.38</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>1.98</v>
       </c>
       <c r="T27" t="n">
-        <v>2.12</v>
+        <v>1.03</v>
       </c>
       <c r="U27" t="n">
-        <v>1.82</v>
+        <v>1.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="X27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="G28" t="n">
-        <v>1.92</v>
+        <v>1000</v>
       </c>
       <c r="H28" t="n">
-        <v>5.4</v>
+        <v>1.09</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>3.35</v>
+        <v>1.09</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.84</v>
+        <v>1.26</v>
       </c>
       <c r="O28" t="n">
-        <v>1.52</v>
+        <v>1.02</v>
       </c>
       <c r="P28" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.58</v>
+        <v>1.46</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>5.2</v>
+        <v>1.45</v>
       </c>
       <c r="T28" t="n">
-        <v>2.28</v>
+        <v>1.03</v>
       </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>1.03</v>
       </c>
       <c r="V28" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="X28" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="G29" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>9.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="I29" t="n">
-        <v>9.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="J29" t="n">
-        <v>5.3</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>4.4</v>
+        <v>1.64</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="R29" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>2.94</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.06</v>
+        <v>1.03</v>
       </c>
       <c r="U29" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="W29" t="n">
-        <v>3.35</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,105 +4433,105 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="G30" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="H30" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="I30" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>3.45</v>
+        <v>1.76</v>
       </c>
       <c r="O30" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>2.08</v>
       </c>
       <c r="T30" t="n">
-        <v>1.77</v>
+        <v>1.03</v>
       </c>
       <c r="U30" t="n">
-        <v>2.28</v>
+        <v>1.03</v>
       </c>
       <c r="V30" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="W30" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="X30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4540,13 +4540,13 @@
         <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.05</v>
+        <v>1.8</v>
       </c>
       <c r="G31" t="n">
-        <v>3.15</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
-        <v>2.42</v>
+        <v>4.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.48</v>
+        <v>5.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>4.2</v>
+        <v>1.84</v>
       </c>
       <c r="O31" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="R31" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>1.87</v>
       </c>
       <c r="T31" t="n">
-        <v>1.66</v>
+        <v>1.03</v>
       </c>
       <c r="U31" t="n">
-        <v>2.32</v>
+        <v>1.03</v>
       </c>
       <c r="V31" t="n">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="W31" t="n">
-        <v>1.46</v>
+        <v>2.1</v>
       </c>
       <c r="X31" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AO31" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="G32" t="n">
-        <v>4.8</v>
+        <v>1.86</v>
       </c>
       <c r="H32" t="n">
-        <v>1.87</v>
+        <v>5.6</v>
       </c>
       <c r="I32" t="n">
-        <v>1.88</v>
+        <v>5.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="P32" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="R32" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="U32" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="V32" t="n">
-        <v>2.12</v>
+        <v>1.21</v>
       </c>
       <c r="W32" t="n">
-        <v>1.27</v>
+        <v>2.16</v>
       </c>
       <c r="X32" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA32" t="n">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="AB32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN32" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>75</v>
-      </c>
       <c r="AO32" t="n">
-        <v>14.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.18</v>
+        <v>1.91</v>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="H33" t="n">
-        <v>17.5</v>
+        <v>5.4</v>
       </c>
       <c r="I33" t="n">
-        <v>20</v>
+        <v>5.5</v>
       </c>
       <c r="J33" t="n">
-        <v>8.800000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="K33" t="n">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>2.84</v>
       </c>
       <c r="O33" t="n">
-        <v>1.12</v>
+        <v>1.52</v>
       </c>
       <c r="P33" t="n">
-        <v>3.35</v>
+        <v>1.59</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.36</v>
+        <v>2.58</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="T33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W33" t="n">
         <v>2.06</v>
       </c>
-      <c r="U33" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W33" t="n">
-        <v>6</v>
-      </c>
       <c r="X33" t="n">
-        <v>55</v>
+        <v>8.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="Z33" t="n">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>22</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AE33" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="AF33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG33" t="n">
         <v>11</v>
       </c>
-      <c r="AG33" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI33" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AJ33" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.05</v>
+        <v>21</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.06</v>
+        <v>1.41</v>
       </c>
       <c r="G34" t="n">
-        <v>2.16</v>
+        <v>1.42</v>
       </c>
       <c r="H34" t="n">
-        <v>3.65</v>
+        <v>9.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.1</v>
+        <v>10</v>
       </c>
       <c r="J34" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.26</v>
       </c>
       <c r="P34" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="R34" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S34" t="n">
         <v>2.88</v>
       </c>
       <c r="T34" t="n">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>2.4</v>
+        <v>1.81</v>
       </c>
       <c r="V34" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="W34" t="n">
-        <v>1.86</v>
+        <v>3.35</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AB34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC34" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC34" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK34" t="n">
         <v>15</v>
       </c>
-      <c r="AG34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AN34" t="n">
-        <v>13.5</v>
+        <v>6.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,39 +5108,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.96</v>
+        <v>2.82</v>
       </c>
       <c r="G35" t="n">
-        <v>2.06</v>
+        <v>2.88</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>2.76</v>
       </c>
       <c r="I35" t="n">
-        <v>3.85</v>
+        <v>2.86</v>
       </c>
       <c r="J35" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5149,91 +5149,91 @@
         <v>1.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>2.32</v>
+        <v>1.26</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="R35" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="S35" t="n">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
       <c r="T35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V35" t="n">
         <v>1.54</v>
       </c>
-      <c r="U35" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W35" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="X35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Galway Utd</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.93</v>
+        <v>3.05</v>
       </c>
       <c r="G36" t="n">
-        <v>2.02</v>
+        <v>3.15</v>
       </c>
       <c r="H36" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.8</v>
+        <v>2.44</v>
       </c>
       <c r="J36" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
         <v>3.85</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="R36" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="S36" t="n">
-        <v>3.6</v>
+        <v>2.22</v>
       </c>
       <c r="T36" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.69</v>
       </c>
       <c r="W36" t="n">
-        <v>1.99</v>
+        <v>1.46</v>
       </c>
       <c r="X36" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AA36" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AB36" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE36" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AF36" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AG36" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AI36" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.23</v>
+        <v>4.5</v>
       </c>
       <c r="G37" t="n">
-        <v>1.24</v>
+        <v>4.8</v>
       </c>
       <c r="H37" t="n">
-        <v>16.5</v>
+        <v>1.86</v>
       </c>
       <c r="I37" t="n">
-        <v>17.5</v>
+        <v>1.88</v>
       </c>
       <c r="J37" t="n">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>7.8</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>5.2</v>
+        <v>3.55</v>
       </c>
       <c r="O37" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>2.48</v>
+        <v>1.87</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="R37" t="n">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="S37" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="T37" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="U37" t="n">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="V37" t="n">
-        <v>1.06</v>
+        <v>2.12</v>
       </c>
       <c r="W37" t="n">
-        <v>5.1</v>
+        <v>1.26</v>
       </c>
       <c r="X37" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Y37" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="n">
-        <v>17</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>370</v>
+        <v>21</v>
       </c>
       <c r="AF37" t="n">
-        <v>7.6</v>
+        <v>36</v>
       </c>
       <c r="AG37" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="AK37" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AL37" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AM37" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.3</v>
+        <v>85</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5.2</v>
+        <v>1.18</v>
       </c>
       <c r="G38" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
-        <v>1.73</v>
+        <v>17.5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.75</v>
+        <v>21</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="K38" t="n">
-        <v>4.4</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="M38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V38" t="n">
         <v>1.05</v>
       </c>
-      <c r="N38" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.32</v>
-      </c>
       <c r="W38" t="n">
-        <v>1.22</v>
+        <v>6</v>
       </c>
       <c r="X38" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>9.800000000000001</v>
+        <v>70</v>
       </c>
       <c r="AE38" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
         <v>4.1</v>
       </c>
-      <c r="K39" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N39" t="n">
-        <v>4.3</v>
-      </c>
       <c r="O39" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P39" t="n">
         <v>2.14</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.81</v>
+        <v>1.27</v>
       </c>
       <c r="R39" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="S39" t="n">
-        <v>3.1</v>
+        <v>2.12</v>
       </c>
       <c r="T39" t="n">
-        <v>1.79</v>
+        <v>1.03</v>
       </c>
       <c r="U39" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="V39" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="W39" t="n">
-        <v>2.24</v>
+        <v>1.71</v>
       </c>
       <c r="X39" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.8</v>
+        <v>1.87</v>
       </c>
       <c r="G40" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="H40" t="n">
-        <v>2.66</v>
+        <v>1.29</v>
       </c>
       <c r="I40" t="n">
-        <v>2.7</v>
+        <v>870</v>
       </c>
       <c r="J40" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="O40" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R40" t="n">
         <v>1.24</v>
       </c>
-      <c r="P40" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.51</v>
-      </c>
       <c r="S40" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="T40" t="n">
-        <v>1.62</v>
+        <v>1.03</v>
       </c>
       <c r="U40" t="n">
-        <v>2.56</v>
+        <v>1.03</v>
       </c>
       <c r="V40" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="W40" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="X40" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="Y40" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Z40" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AA40" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AB40" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD40" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE40" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AF40" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ40" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AK40" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM40" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN40" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AO40" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Galway Utd</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="G41" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.55</v>
       </c>
-      <c r="I41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K41" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P41" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R41" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="S41" t="n">
-        <v>3.45</v>
+        <v>2.88</v>
       </c>
       <c r="T41" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="U41" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="V41" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4.2</v>
+        <v>1.23</v>
       </c>
       <c r="G42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N42" t="n">
         <v>5.2</v>
       </c>
-      <c r="H42" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.46</v>
-      </c>
       <c r="O42" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="P42" t="n">
-        <v>1.58</v>
+        <v>2.48</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.18</v>
+        <v>1.64</v>
       </c>
       <c r="R42" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="S42" t="n">
-        <v>3.45</v>
+        <v>2.64</v>
       </c>
       <c r="T42" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="U42" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="V42" t="n">
-        <v>1.91</v>
+        <v>1.06</v>
       </c>
       <c r="W42" t="n">
-        <v>1.25</v>
+        <v>5.1</v>
       </c>
       <c r="X42" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG42" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>20</v>
-      </c>
       <c r="AH42" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>150</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK42" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="AL42" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>140</v>
+        <v>4.3</v>
       </c>
       <c r="AO42" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.56</v>
+        <v>5.2</v>
       </c>
       <c r="G43" t="n">
-        <v>1.59</v>
+        <v>5.5</v>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>1.73</v>
       </c>
       <c r="I43" t="n">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="J43" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K43" t="n">
         <v>4.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="M43" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>3.05</v>
+        <v>5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>1.71</v>
+        <v>2.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.22</v>
+        <v>1.7</v>
       </c>
       <c r="R43" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="S43" t="n">
-        <v>4.2</v>
+        <v>2.76</v>
       </c>
       <c r="T43" t="n">
-        <v>2.3</v>
+        <v>1.68</v>
       </c>
       <c r="U43" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="V43" t="n">
-        <v>1.12</v>
+        <v>2.34</v>
       </c>
       <c r="W43" t="n">
-        <v>2.68</v>
+        <v>1.22</v>
       </c>
       <c r="X43" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Z43" t="n">
-        <v>75</v>
+        <v>11.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>430</v>
+        <v>18</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.4</v>
+        <v>23</v>
       </c>
       <c r="AC43" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE43" t="n">
-        <v>220</v>
+        <v>16.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI43" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="AJ43" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AK43" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL43" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM43" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="AN43" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AO43" t="n">
-        <v>410</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,132 +6323,132 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="G44" t="n">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="H44" t="n">
-        <v>1.04</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="K44" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L44" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="P44" t="n">
-        <v>3.55</v>
+        <v>2.14</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="R44" t="n">
-        <v>2.14</v>
+        <v>1.38</v>
       </c>
       <c r="S44" t="n">
-        <v>1.12</v>
+        <v>2.88</v>
       </c>
       <c r="T44" t="n">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="U44" t="n">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="V44" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W44" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.83</v>
+        <v>2.82</v>
       </c>
       <c r="G45" t="n">
-        <v>1.96</v>
+        <v>2.86</v>
       </c>
       <c r="H45" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N45" t="n">
         <v>4.8</v>
       </c>
-      <c r="I45" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3.25</v>
-      </c>
       <c r="O45" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="P45" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="R45" t="n">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="S45" t="n">
-        <v>3.85</v>
+        <v>2.76</v>
       </c>
       <c r="T45" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="U45" t="n">
-        <v>1.93</v>
+        <v>2.56</v>
       </c>
       <c r="V45" t="n">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="W45" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="X45" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB45" t="n">
         <v>15</v>
       </c>
-      <c r="Y45" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AC45" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD45" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AE45" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AF45" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AG45" t="n">
         <v>12.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AI45" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AJ45" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AK45" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL45" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AM45" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AN45" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO45" t="n">
-        <v>110</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,126 +6593,126 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="H46" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="I46" t="n">
-        <v>5.4</v>
+        <v>3.65</v>
       </c>
       <c r="J46" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L46" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="M46" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>2.74</v>
+        <v>4</v>
       </c>
       <c r="O46" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>1.72</v>
+        <v>1.99</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="R46" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="S46" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="T46" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="U46" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="V46" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="W46" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="X46" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA46" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AB46" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD46" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE46" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AF46" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AG46" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AJ46" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK46" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL46" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN46" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>22:20:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="G47" t="n">
-        <v>1.93</v>
+        <v>1000</v>
       </c>
       <c r="H47" t="n">
-        <v>4.4</v>
+        <v>1.27</v>
       </c>
       <c r="I47" t="n">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="J47" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="L47" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P47" t="n">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.94</v>
+        <v>1.49</v>
       </c>
       <c r="R47" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="S47" t="n">
-        <v>3.5</v>
+        <v>1.49</v>
       </c>
       <c r="T47" t="n">
-        <v>1.95</v>
+        <v>1.03</v>
       </c>
       <c r="U47" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="V47" t="n">
-        <v>1.19</v>
+        <v>1.9</v>
       </c>
       <c r="W47" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="X47" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,125 +6863,800 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F48" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O48" t="n">
         <v>1.42</v>
       </c>
-      <c r="G48" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H48" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N48" t="n">
-        <v>5</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.23</v>
-      </c>
       <c r="P48" t="n">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="R48" t="n">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="S48" t="n">
-        <v>2.74</v>
+        <v>1.05</v>
       </c>
       <c r="T48" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="U48" t="n">
-        <v>1.98</v>
+        <v>1.03</v>
       </c>
       <c r="V48" t="n">
         <v>1.12</v>
       </c>
       <c r="W48" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Bolivar</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K52" t="n">
+        <v>950</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Austin FC</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W53" t="n">
         <v>3.2</v>
       </c>
-      <c r="X48" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y48" t="n">
+      <c r="X53" t="n">
         <v>32</v>
       </c>
-      <c r="Z48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO48" t="n">
+      <c r="Y53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO53" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -667,28 +667,28 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>2.16</v>
       </c>
       <c r="I2" t="n">
-        <v>980</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>980</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
         <v>1.1</v>
@@ -697,16 +697,16 @@
         <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>1.15</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -715,10 +715,10 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -805,16 +805,16 @@
         <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
@@ -952,7 +952,7 @@
         <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,28 +961,28 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="Q4" t="n">
         <v>1.01</v>
       </c>
       <c r="R4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.03</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
@@ -1087,7 +1087,7 @@
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,28 +1096,28 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>
       </c>
       <c r="R5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.03</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.01</v>
@@ -1219,7 +1219,7 @@
         <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1342,100 +1342,100 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>2.18</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>1.05</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>1.68</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.02</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>1.76</v>
       </c>
       <c r="H8" t="n">
-        <v>1.02</v>
+        <v>5.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>1.26</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.2</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -1612,91 +1612,91 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>2.78</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>2.14</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1747,61 +1747,61 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>2.8</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>1.24</v>
+        <v>2.26</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S10" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1882,91 +1882,91 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.09</v>
       </c>
-      <c r="G11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="X11" t="n">
         <v>980</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1975,19 +1975,19 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.02</v>
+        <v>1.46</v>
       </c>
       <c r="G12" t="n">
-        <v>980</v>
+        <v>1.78</v>
       </c>
       <c r="H12" t="n">
         <v>5.3</v>
@@ -2029,10 +2029,10 @@
         <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,22 +2041,22 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.25</v>
+        <v>2.52</v>
       </c>
       <c r="O12" t="n">
         <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>1.05</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
         <v>1.03</v>
@@ -2065,10 +2065,10 @@
         <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="H13" t="n">
         <v>5.1</v>
@@ -2164,7 +2164,7 @@
         <v>7.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
@@ -2173,37 +2173,37 @@
         <v>1.26</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>1.05</v>
+        <v>2.32</v>
       </c>
       <c r="T13" t="n">
-        <v>1.03</v>
+        <v>1.68</v>
       </c>
       <c r="U13" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
         <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2230,10 +2230,10 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,94 +2287,94 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.26</v>
+        <v>4.6</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="S14" t="n">
-        <v>1.81</v>
+        <v>2.48</v>
       </c>
       <c r="T14" t="n">
-        <v>1.03</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>1.03</v>
+        <v>2.26</v>
       </c>
       <c r="V14" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
@@ -2383,16 +2383,16 @@
         <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -2422,91 +2422,91 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
         <v>2.48</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="J15" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.39</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>1.05</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="H16" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>1.47</v>
@@ -2584,13 +2584,13 @@
         <v>3.35</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R16" t="n">
         <v>1.29</v>
@@ -2599,16 +2599,16 @@
         <v>4.1</v>
       </c>
       <c r="T16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V16" t="n">
         <v>1.15</v>
       </c>
       <c r="W16" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X16" t="n">
         <v>11.5</v>
@@ -2617,22 +2617,22 @@
         <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA16" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="AB16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="n">
         <v>8.199999999999999</v>
@@ -2644,25 +2644,25 @@
         <v>27</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
@@ -2710,22 +2710,22 @@
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
         <v>1.41</v>
       </c>
       <c r="P17" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R17" t="n">
         <v>1.29</v>
@@ -2737,16 +2737,16 @@
         <v>2.3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V17" t="n">
         <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -2758,19 +2758,19 @@
         <v>320</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
         <v>32</v>
       </c>
       <c r="AE17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
@@ -2791,13 +2791,13 @@
         <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN17" t="n">
         <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
@@ -2842,34 +2842,34 @@
         <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T18" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="n">
         <v>1.78</v>
@@ -2911,7 +2911,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
         <v>150</v>
@@ -2929,7 +2929,7 @@
         <v>230</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO18" t="n">
         <v>250</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="I19" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2992,37 +2992,37 @@
         <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S19" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V19" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA19" t="n">
         <v>32</v>
@@ -3031,19 +3031,19 @@
         <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>15.5</v>
@@ -3064,10 +3064,10 @@
         <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="20">
@@ -3100,61 +3100,61 @@
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="I20" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K20" t="n">
         <v>4.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S20" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T20" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V20" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="W20" t="n">
         <v>1.16</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z20" t="n">
         <v>9.4</v>
@@ -3163,7 +3163,7 @@
         <v>14</v>
       </c>
       <c r="AB20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
         <v>10.5</v>
@@ -3181,13 +3181,13 @@
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>32</v>
       </c>
       <c r="AJ20" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK20" t="n">
         <v>90</v>
@@ -3232,67 +3232,67 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.62</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.64</v>
-      </c>
       <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.05</v>
       </c>
-      <c r="I21" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
         <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X21" t="n">
         <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
         <v>48</v>
@@ -3316,28 +3316,28 @@
         <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="n">
         <v>38</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="H22" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="I22" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="J22" t="n">
         <v>7.2</v>
@@ -3391,88 +3391,88 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
         <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q22" t="n">
         <v>1.45</v>
       </c>
       <c r="R22" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="S22" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T22" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="W22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X22" t="n">
         <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AA22" t="n">
         <v>10.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC22" t="n">
-        <v>120</v>
+        <v>16.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>12.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AG22" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI22" t="n">
         <v>32</v>
       </c>
       <c r="AJ22" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AL22" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AO22" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="23">
@@ -3502,67 +3502,67 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
+        <v>4.5</v>
       </c>
       <c r="G23" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="H23" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="I23" t="n">
-        <v>980</v>
+        <v>1.74</v>
       </c>
       <c r="J23" t="n">
-        <v>1.09</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O23" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
       <c r="T23" t="n">
-        <v>1.03</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>1.03</v>
+        <v>2.34</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="W23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X23" t="n">
         <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3571,10 +3571,10 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="I24" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J24" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -3664,25 +3664,25 @@
         <v>1.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P24" t="n">
         <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="S24" t="n">
-        <v>1.05</v>
+        <v>1.93</v>
       </c>
       <c r="T24" t="n">
-        <v>1.03</v>
+        <v>1.45</v>
       </c>
       <c r="U24" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>1.01</v>
@@ -3697,7 +3697,7 @@
         <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AA24" t="n">
         <v>980</v>
@@ -3706,43 +3706,43 @@
         <v>980</v>
       </c>
       <c r="AC24" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="n">
         <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="25">
@@ -3772,97 +3772,97 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>980</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="I25" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="J25" t="n">
-        <v>1.49</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>1.32</v>
+        <v>2.92</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>1.31</v>
+        <v>1.79</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="R25" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="S25" t="n">
-        <v>1.92</v>
+        <v>3.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF25" t="n">
         <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK25" t="n">
         <v>1000</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="G26" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="I26" t="n">
-        <v>85</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.21</v>
+        <v>3.95</v>
       </c>
       <c r="K26" t="n">
         <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>1.67</v>
+        <v>5.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.16</v>
+        <v>1.51</v>
       </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.03</v>
+        <v>2.66</v>
       </c>
       <c r="V26" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="W26" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -4042,52 +4042,52 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G27" t="n">
         <v>1.79</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I27" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J27" t="n">
         <v>4.1</v>
       </c>
       <c r="K27" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M27" t="n">
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>1.75</v>
+        <v>3.45</v>
       </c>
       <c r="O27" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="R27" t="n">
-        <v>1.31</v>
+        <v>1.73</v>
       </c>
       <c r="S27" t="n">
         <v>1.98</v>
       </c>
       <c r="T27" t="n">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="U27" t="n">
-        <v>1.03</v>
+        <v>2.52</v>
       </c>
       <c r="V27" t="n">
         <v>1.25</v>
@@ -4096,58 +4096,58 @@
         <v>2.26</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM27" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -4177,109 +4177,109 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.4</v>
+        <v>2.04</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>2.18</v>
       </c>
       <c r="H28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M28" t="n">
         <v>1.09</v>
       </c>
-      <c r="I28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.26</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.24</v>
-      </c>
       <c r="W28" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,109 +4312,109 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H29" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="J29" t="n">
         <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>1.64</v>
+        <v>2.86</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.45</v>
+        <v>2.38</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="T29" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="U29" t="n">
         <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4450,109 +4450,109 @@
         <v>2.62</v>
       </c>
       <c r="G30" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H30" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I30" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
         <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>1.76</v>
+        <v>3.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P30" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R30" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S30" t="n">
-        <v>2.08</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="U30" t="n">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="V30" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W30" t="n">
         <v>1.56</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN30" t="n">
         <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.84</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.03</v>
-      </c>
       <c r="U31" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="V31" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W31" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X31" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.85</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.86</v>
       </c>
       <c r="H32" t="n">
         <v>5.6</v>
       </c>
       <c r="I32" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J32" t="n">
         <v>3.55</v>
@@ -4735,34 +4735,34 @@
         <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P32" t="n">
         <v>1.72</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S32" t="n">
         <v>4.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V32" t="n">
         <v>1.21</v>
@@ -4783,7 +4783,7 @@
         <v>170</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC32" t="n">
         <v>8</v>
@@ -4801,7 +4801,7 @@
         <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
         <v>110</v>
@@ -4855,7 +4855,7 @@
         <v>1.91</v>
       </c>
       <c r="G33" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H33" t="n">
         <v>5.4</v>
@@ -4870,7 +4870,7 @@
         <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M33" t="n">
         <v>1.12</v>
@@ -4879,7 +4879,7 @@
         <v>2.84</v>
       </c>
       <c r="O33" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P33" t="n">
         <v>1.59</v>
@@ -4903,13 +4903,13 @@
         <v>1.22</v>
       </c>
       <c r="W33" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X33" t="n">
         <v>8.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z33" t="n">
         <v>38</v>
@@ -4936,10 +4936,10 @@
         <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ33" t="n">
         <v>21</v>
@@ -4951,7 +4951,7 @@
         <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN33" t="n">
         <v>21</v>
@@ -4987,70 +4987,70 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G34" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H34" t="n">
         <v>9.4</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K34" t="n">
         <v>5.2</v>
       </c>
-      <c r="K34" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L34" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
         <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S34" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U34" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V34" t="n">
         <v>1.11</v>
       </c>
       <c r="W34" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X34" t="n">
         <v>17.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z34" t="n">
         <v>85</v>
       </c>
       <c r="AA34" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AB34" t="n">
         <v>8.4</v>
@@ -5074,7 +5074,7 @@
         <v>27</v>
       </c>
       <c r="AI34" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ34" t="n">
         <v>11.5</v>
@@ -5122,52 +5122,52 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="G35" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H35" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I35" t="n">
         <v>2.86</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>1.1</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.26</v>
+        <v>1.79</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.34</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S35" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.03</v>
+        <v>1.79</v>
       </c>
       <c r="U35" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="V35" t="n">
         <v>1.54</v>
@@ -5176,43 +5176,43 @@
         <v>1.54</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="n">
         <v>1000</v>
@@ -5221,13 +5221,13 @@
         <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -5263,19 +5263,19 @@
         <v>3.15</v>
       </c>
       <c r="H36" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I36" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J36" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L36" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -5287,34 +5287,34 @@
         <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R36" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S36" t="n">
-        <v>2.22</v>
+        <v>2.86</v>
       </c>
       <c r="T36" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U36" t="n">
         <v>2.44</v>
       </c>
       <c r="V36" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W36" t="n">
         <v>1.46</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z36" t="n">
         <v>17</v>
@@ -5323,46 +5323,46 @@
         <v>34</v>
       </c>
       <c r="AB36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC36" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE36" t="n">
         <v>24</v>
       </c>
       <c r="AF36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG36" t="n">
         <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="37">
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G37" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H37" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I37" t="n">
         <v>1.86</v>
       </c>
-      <c r="I37" t="n">
-        <v>1.88</v>
-      </c>
       <c r="J37" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
         <v>4.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O37" t="n">
         <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="Q37" t="n">
         <v>1.98</v>
       </c>
       <c r="R37" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S37" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V37" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W37" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X37" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA37" t="n">
         <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
         <v>10.5</v>
       </c>
       <c r="AE37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH37" t="n">
         <v>21</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>23</v>
       </c>
       <c r="AI37" t="n">
         <v>38</v>
       </c>
       <c r="AJ37" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK37" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL37" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
         <v>120</v>
       </c>
       <c r="AN37" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -5539,37 +5539,37 @@
         <v>21</v>
       </c>
       <c r="J38" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K38" t="n">
         <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P38" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R38" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="S38" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T38" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="U38" t="n">
         <v>1.84</v>
@@ -5584,10 +5584,10 @@
         <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
@@ -5596,16 +5596,16 @@
         <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AD38" t="n">
         <v>70</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG38" t="n">
         <v>1000</v>
@@ -5614,22 +5614,22 @@
         <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G39" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I39" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
         <v>3.8</v>
@@ -5683,70 +5683,70 @@
         <v>1.35</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
         <v>4.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P39" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.27</v>
+        <v>1.66</v>
       </c>
       <c r="R39" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="S39" t="n">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="T39" t="n">
-        <v>1.03</v>
+        <v>1.55</v>
       </c>
       <c r="U39" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V39" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
@@ -5761,10 +5761,10 @@
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5800,22 +5800,22 @@
         <v>1.87</v>
       </c>
       <c r="G40" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H40" t="n">
-        <v>1.29</v>
+        <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>870</v>
+        <v>4.2</v>
       </c>
       <c r="J40" t="n">
         <v>4.3</v>
       </c>
       <c r="K40" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -5824,67 +5824,67 @@
         <v>1.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
-        <v>1.25</v>
+        <v>2.62</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="R40" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="S40" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="T40" t="n">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="U40" t="n">
-        <v>1.03</v>
+        <v>2.6</v>
       </c>
       <c r="V40" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W40" t="n">
         <v>1.01</v>
       </c>
       <c r="X40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y40" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Z40" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AA40" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB40" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD40" t="n">
         <v>17</v>
       </c>
       <c r="AE40" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF40" t="n">
         <v>15.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
         <v>15.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="n">
         <v>24</v>
@@ -5893,16 +5893,16 @@
         <v>17.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AM40" t="n">
         <v>60</v>
       </c>
       <c r="AN40" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -5932,28 +5932,28 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
         <v>3.4</v>
@@ -5962,22 +5962,22 @@
         <v>1.35</v>
       </c>
       <c r="P41" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R41" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S41" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="T41" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U41" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>1.27</v>
@@ -5986,58 +5986,58 @@
         <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G42" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H42" t="n">
+        <v>15</v>
+      </c>
+      <c r="I42" t="n">
         <v>16.5</v>
       </c>
-      <c r="I42" t="n">
-        <v>17.5</v>
-      </c>
       <c r="J42" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K42" t="n">
         <v>7.6</v>
@@ -6091,67 +6091,67 @@
         <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P42" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R42" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S42" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="T42" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="U42" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V42" t="n">
         <v>1.06</v>
       </c>
       <c r="W42" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X42" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AB42" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC42" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF42" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AG42" t="n">
         <v>11.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
@@ -6163,16 +6163,16 @@
         <v>15</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43">
@@ -6205,7 +6205,7 @@
         <v>5.2</v>
       </c>
       <c r="G43" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H43" t="n">
         <v>1.73</v>
@@ -6220,19 +6220,19 @@
         <v>4.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P43" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q43" t="n">
         <v>1.7</v>
@@ -6241,25 +6241,25 @@
         <v>1.53</v>
       </c>
       <c r="S43" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T43" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="U43" t="n">
         <v>2.34</v>
       </c>
       <c r="V43" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="W43" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X43" t="n">
         <v>20</v>
       </c>
       <c r="Y43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z43" t="n">
         <v>11.5</v>
@@ -6268,10 +6268,10 @@
         <v>18</v>
       </c>
       <c r="AB43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD43" t="n">
         <v>9.800000000000001</v>
@@ -6292,7 +6292,7 @@
         <v>30</v>
       </c>
       <c r="AJ43" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK43" t="n">
         <v>60</v>
@@ -6343,10 +6343,10 @@
         <v>1.77</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I44" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J44" t="n">
         <v>4.1</v>
@@ -6358,10 +6358,10 @@
         <v>1.37</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O44" t="n">
         <v>1.27</v>
@@ -6370,19 +6370,19 @@
         <v>2.14</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R44" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="T44" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="U44" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="V44" t="n">
         <v>1.23</v>
@@ -6394,7 +6394,7 @@
         <v>17</v>
       </c>
       <c r="Y44" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Z44" t="n">
         <v>40</v>
@@ -6403,7 +6403,7 @@
         <v>130</v>
       </c>
       <c r="AB44" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC44" t="n">
         <v>9.199999999999999</v>
@@ -6418,7 +6418,7 @@
         <v>11</v>
       </c>
       <c r="AG44" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH44" t="n">
         <v>19</v>
@@ -6427,7 +6427,7 @@
         <v>65</v>
       </c>
       <c r="AJ44" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK44" t="n">
         <v>18</v>
@@ -6439,7 +6439,7 @@
         <v>100</v>
       </c>
       <c r="AN44" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO44" t="n">
         <v>65</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="G45" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="H45" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I45" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K45" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L45" t="n">
         <v>1.34</v>
@@ -6496,22 +6496,22 @@
         <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P45" t="n">
         <v>2.28</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R45" t="n">
         <v>1.51</v>
       </c>
       <c r="S45" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="T45" t="n">
         <v>1.62</v>
@@ -6520,10 +6520,10 @@
         <v>2.56</v>
       </c>
       <c r="V45" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W45" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X45" t="n">
         <v>18.5</v>
@@ -6532,13 +6532,13 @@
         <v>14</v>
       </c>
       <c r="Z45" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB45" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC45" t="n">
         <v>8.4</v>
@@ -6574,7 +6574,7 @@
         <v>65</v>
       </c>
       <c r="AN45" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO45" t="n">
         <v>17.5</v>
@@ -6610,7 +6610,7 @@
         <v>2.22</v>
       </c>
       <c r="G46" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H46" t="n">
         <v>3.55</v>
@@ -6631,13 +6631,13 @@
         <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P46" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="Q46" t="n">
         <v>1.93</v>
@@ -6646,19 +6646,19 @@
         <v>1.38</v>
       </c>
       <c r="S46" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U46" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V46" t="n">
         <v>1.37</v>
       </c>
       <c r="W46" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X46" t="n">
         <v>14.5</v>
@@ -6676,7 +6676,7 @@
         <v>10.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD46" t="n">
         <v>15</v>
@@ -6691,7 +6691,7 @@
         <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI46" t="n">
         <v>50</v>
@@ -6703,16 +6703,16 @@
         <v>23</v>
       </c>
       <c r="AL46" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO46" t="n">
         <v>38</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -6742,112 +6742,112 @@
         </is>
       </c>
       <c r="F47" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.94</v>
       </c>
-      <c r="G47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.27</v>
-      </c>
       <c r="I47" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="J47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K47" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>1.25</v>
+        <v>2.48</v>
       </c>
       <c r="O47" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P47" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.49</v>
+        <v>2.16</v>
       </c>
       <c r="R47" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="S47" t="n">
-        <v>1.49</v>
+        <v>4.2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="U47" t="n">
-        <v>1.03</v>
+        <v>1.77</v>
       </c>
       <c r="V47" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W47" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G48" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H48" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="I48" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="J48" t="n">
         <v>4</v>
@@ -6895,94 +6895,94 @@
         <v>4.3</v>
       </c>
       <c r="L48" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>1.71</v>
+        <v>3.15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P48" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="R48" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S48" t="n">
-        <v>1.05</v>
+        <v>4.4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.03</v>
+        <v>2.36</v>
       </c>
       <c r="U48" t="n">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="V48" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W48" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z48" t="n">
         <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE48" t="n">
         <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL48" t="n">
         <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49">
@@ -7015,7 +7015,7 @@
         <v>1.04</v>
       </c>
       <c r="G49" t="n">
-        <v>1.34</v>
+        <v>1000</v>
       </c>
       <c r="H49" t="n">
         <v>1.04</v>
@@ -7024,13 +7024,13 @@
         <v>1000</v>
       </c>
       <c r="J49" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K49" t="n">
         <v>1000</v>
       </c>
       <c r="L49" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
@@ -7039,19 +7039,19 @@
         <v>3.55</v>
       </c>
       <c r="O49" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P49" t="n">
         <v>3.55</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="R49" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S49" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="T49" t="n">
         <v>1.03</v>
@@ -7147,112 +7147,112 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="G50" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="H50" t="n">
-        <v>1.09</v>
+        <v>4.8</v>
       </c>
       <c r="I50" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K50" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O50" t="n">
         <v>1.36</v>
       </c>
       <c r="P50" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.36</v>
+        <v>2.06</v>
       </c>
       <c r="R50" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="S50" t="n">
-        <v>1.37</v>
+        <v>3.75</v>
       </c>
       <c r="T50" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U50" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="V50" t="n">
         <v>1.21</v>
       </c>
       <c r="W50" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -7282,112 +7282,112 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="G51" t="n">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="H51" t="n">
-        <v>1.04</v>
+        <v>4.6</v>
       </c>
       <c r="I51" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="J51" t="n">
-        <v>1.09</v>
+        <v>3.4</v>
       </c>
       <c r="K51" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L51" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M51" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P51" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.02</v>
+        <v>1.97</v>
       </c>
       <c r="R51" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="S51" t="n">
-        <v>1.05</v>
+        <v>3.9</v>
       </c>
       <c r="T51" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="U51" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="V51" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W51" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
@@ -7420,109 +7420,109 @@
         <v>1.76</v>
       </c>
       <c r="G52" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H52" t="n">
-        <v>1.09</v>
+        <v>4.4</v>
       </c>
       <c r="I52" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K52" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>1.03</v>
+        <v>2.8</v>
       </c>
       <c r="O52" t="n">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
       <c r="P52" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.39</v>
+        <v>1.94</v>
       </c>
       <c r="R52" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="S52" t="n">
-        <v>1.39</v>
+        <v>3.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V52" t="n">
         <v>1.19</v>
       </c>
       <c r="W52" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53">
@@ -7561,10 +7561,10 @@
         <v>8.4</v>
       </c>
       <c r="I53" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K53" t="n">
         <v>5.5</v>
@@ -7576,28 +7576,28 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P53" t="n">
         <v>2.42</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R53" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S53" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="T53" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="U53" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V53" t="n">
         <v>1.12</v>
@@ -7606,55 +7606,55 @@
         <v>3.2</v>
       </c>
       <c r="X53" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y53" t="n">
         <v>32</v>
       </c>
-      <c r="Y53" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z53" t="n">
         <v>1000</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AB53" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF53" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG53" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI53" t="n">
         <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AK53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN53" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.34</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.16</v>
+        <v>1.86</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>1.97</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>980</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="S2" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>1.49</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>2.66</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>2.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -802,37 +802,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>2.84</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
@@ -850,10 +850,10 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
@@ -949,7 +949,7 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
@@ -958,16 +958,16 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="Q4" t="n">
         <v>1.01</v>
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>2.26</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.78</v>
       </c>
       <c r="H5" t="n">
-        <v>1.41</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>2.74</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>1.28</v>
+        <v>2.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P5" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S5" t="n">
         <v>1.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>1.68</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G7" t="n">
         <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
         <v>4.4</v>
@@ -1363,7 +1363,7 @@
         <v>1.51</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
         <v>2.18</v>
@@ -1375,7 +1375,7 @@
         <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
         <v>1.16</v>
@@ -1384,7 +1384,7 @@
         <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
         <v>1.68</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,7 +1423,7 @@
         <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>32</v>
@@ -1480,109 +1480,109 @@
         <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
         <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X8" t="n">
         <v>12.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>280</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK8" t="n">
         <v>21</v>
       </c>
-      <c r="Z8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>22</v>
-      </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AN8" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>200</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="K9" t="n">
         <v>3.25</v>
@@ -1633,25 +1633,25 @@
         <v>1.59</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O9" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="R9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S9" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="T9" t="n">
         <v>2.14</v>
@@ -1660,7 +1660,7 @@
         <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
         <v>1.31</v>
@@ -1669,13 +1669,13 @@
         <v>9.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB9" t="n">
         <v>11</v>
@@ -1684,10 +1684,10 @@
         <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
         <v>27</v>
@@ -1699,7 +1699,7 @@
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1750,16 +1750,16 @@
         <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
         <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="K10" t="n">
         <v>3.15</v>
@@ -1771,25 +1771,25 @@
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="O10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P10" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R10" t="n">
         <v>1.14</v>
       </c>
       <c r="S10" t="n">
-        <v>1.05</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="U10" t="n">
         <v>1.65</v>
@@ -1798,13 +1798,13 @@
         <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X10" t="n">
         <v>8.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>8.4</v>
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="H11" t="n">
         <v>1.38</v>
       </c>
       <c r="I11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
         <v>3.35</v>
@@ -1927,22 +1927,22 @@
         <v>2.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AA11" t="n">
         <v>980</v>
@@ -1951,13 +1951,13 @@
         <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
         <v>120</v>
@@ -1981,7 +1981,7 @@
         <v>190</v>
       </c>
       <c r="AM11" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
@@ -2032,31 +2032,31 @@
         <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P12" t="n">
         <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T12" t="n">
         <v>1.03</v>
@@ -2065,13 +2065,13 @@
         <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
         <v>2.28</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2155,7 +2155,7 @@
         <v>1.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="H13" t="n">
         <v>5.1</v>
@@ -2164,7 +2164,7 @@
         <v>7.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
@@ -2176,34 +2176,34 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T13" t="n">
-        <v>1.68</v>
+        <v>1.03</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
         <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2290,13 +2290,13 @@
         <v>4.6</v>
       </c>
       <c r="G14" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J14" t="n">
         <v>4.2</v>
@@ -2305,7 +2305,7 @@
         <v>4.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2326,7 +2326,7 @@
         <v>1.55</v>
       </c>
       <c r="S14" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
         <v>1.66</v>
@@ -2335,46 +2335,46 @@
         <v>2.26</v>
       </c>
       <c r="V14" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="W14" t="n">
         <v>1.22</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
@@ -2383,16 +2383,16 @@
         <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2425,25 +2425,25 @@
         <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
         <v>2.48</v>
       </c>
       <c r="I15" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
         <v>2.6</v>
@@ -2455,19 +2455,19 @@
         <v>1.65</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
         <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
         <v>1.58</v>
@@ -2569,10 +2569,10 @@
         <v>7.6</v>
       </c>
       <c r="J16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>1.47</v>
@@ -2581,16 +2581,16 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="n">
         <v>1.41</v>
       </c>
       <c r="P16" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R16" t="n">
         <v>1.29</v>
@@ -2611,13 +2611,13 @@
         <v>2.56</v>
       </c>
       <c r="X16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA16" t="n">
         <v>270</v>
@@ -2632,16 +2632,16 @@
         <v>28</v>
       </c>
       <c r="AE16" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
         <v>140</v>
@@ -2656,10 +2656,10 @@
         <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
         <v>220</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
@@ -2710,16 +2710,16 @@
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
         <v>1.79</v>
@@ -2743,10 +2743,10 @@
         <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -2758,7 +2758,7 @@
         <v>320</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC17" t="n">
         <v>9.4</v>
@@ -2767,16 +2767,16 @@
         <v>32</v>
       </c>
       <c r="AE17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="n">
         <v>7.6</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>160</v>
@@ -2791,13 +2791,13 @@
         <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="n">
         <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18">
@@ -2839,10 +2839,10 @@
         <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.42</v>
@@ -2851,16 +2851,16 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
         <v>1.35</v>
@@ -2872,7 +2872,7 @@
         <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V18" t="n">
         <v>1.12</v>
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
         <v>25</v>
@@ -2893,25 +2893,25 @@
         <v>340</v>
       </c>
       <c r="AB18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC18" t="n">
         <v>9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE18" t="n">
         <v>160</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
         <v>150</v>
@@ -2926,7 +2926,7 @@
         <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="n">
         <v>8.800000000000001</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G19" t="n">
         <v>3.35</v>
       </c>
-      <c r="G19" t="n">
-        <v>3.4</v>
-      </c>
       <c r="H19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
         <v>1.36</v>
@@ -2995,28 +2995,28 @@
         <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R19" t="n">
         <v>1.48</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W19" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
@@ -3028,7 +3028,7 @@
         <v>32</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>
@@ -3067,7 +3067,7 @@
         <v>27</v>
       </c>
       <c r="AO19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -3100,13 +3100,13 @@
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I20" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="J20" t="n">
         <v>4.8</v>
@@ -3127,10 +3127,10 @@
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
         <v>1.52</v>
@@ -3139,19 +3139,19 @@
         <v>2.84</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="n">
         <v>2.08</v>
       </c>
       <c r="V20" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="W20" t="n">
         <v>1.16</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9.6</v>
@@ -3187,16 +3187,16 @@
         <v>32</v>
       </c>
       <c r="AJ20" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AK20" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AL20" t="n">
         <v>85</v>
       </c>
       <c r="AM20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
         <v>100</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
         <v>2.62</v>
@@ -3244,7 +3244,7 @@
         <v>3.05</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
         <v>3.55</v>
@@ -3262,7 +3262,7 @@
         <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q21" t="n">
         <v>1.98</v>
@@ -3271,16 +3271,16 @@
         <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U21" t="n">
         <v>2.22</v>
       </c>
       <c r="V21" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W21" t="n">
         <v>1.61</v>
@@ -3289,7 +3289,7 @@
         <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
         <v>20</v>
@@ -3328,7 +3328,7 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
         <v>90</v>
@@ -3385,37 +3385,37 @@
         <v>7.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R22" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="S22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="W22" t="n">
         <v>1.07</v>
@@ -3424,7 +3424,7 @@
         <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
         <v>9</v>
@@ -3433,10 +3433,10 @@
         <v>10.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
@@ -3457,7 +3457,7 @@
         <v>32</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>670</v>
       </c>
       <c r="AK22" t="n">
         <v>200</v>
@@ -3472,7 +3472,7 @@
         <v>190</v>
       </c>
       <c r="AO22" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="23">
@@ -3502,67 +3502,67 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G23" t="n">
-        <v>6.6</v>
+        <v>600</v>
       </c>
       <c r="H23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="I23" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P23" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V23" t="n">
         <v>2.3</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.34</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3571,10 +3571,10 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3589,7 +3589,7 @@
         <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,52 +3637,52 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="I24" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
         <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>2.96</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R24" t="n">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="S24" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="T24" t="n">
         <v>1.45</v>
       </c>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="V24" t="n">
         <v>1.01</v>
@@ -3691,58 +3691,58 @@
         <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y24" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AB24" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG24" t="n">
         <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AM24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G25" t="n">
         <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I25" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -3805,7 +3805,7 @@
         <v>1.79</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
         <v>1.3</v>
@@ -3814,10 +3814,10 @@
         <v>3.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U25" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V25" t="n">
         <v>1.6</v>
@@ -3826,16 +3826,16 @@
         <v>1.41</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
         <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB25" t="n">
         <v>12</v>
@@ -3844,31 +3844,31 @@
         <v>7.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -3877,7 +3877,7 @@
         <v>48</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G26" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H26" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="R26" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="S26" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="T26" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="U26" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="V26" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W26" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO26" t="n">
         <v>23</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G27" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H27" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
         <v>5.1</v>
       </c>
       <c r="J27" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
         <v>1.02</v>
@@ -4072,16 +4072,16 @@
         <v>1.15</v>
       </c>
       <c r="P27" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T27" t="n">
         <v>1.54</v>
@@ -4093,10 +4093,10 @@
         <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X27" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="Y27" t="n">
         <v>34</v>
@@ -4114,37 +4114,37 @@
         <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AF27" t="n">
         <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AO27" t="n">
         <v>40</v>
@@ -4177,40 +4177,40 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G28" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H28" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="K28" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O28" t="n">
         <v>1.46</v>
       </c>
       <c r="P28" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="R28" t="n">
         <v>1.23</v>
@@ -4219,37 +4219,37 @@
         <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U28" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V28" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4261,13 +4261,13 @@
         <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK28" t="n">
         <v>34</v>
@@ -4276,10 +4276,10 @@
         <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="G29" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>2.86</v>
+        <v>3.85</v>
       </c>
       <c r="O29" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.63</v>
+        <v>1.99</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="R29" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="S29" t="n">
         <v>3.45</v>
       </c>
       <c r="T29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U29" t="n">
         <v>2.04</v>
       </c>
-      <c r="U29" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W29" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Y29" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
         <v>160</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM29" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AN29" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.62</v>
+        <v>1.96</v>
       </c>
       <c r="G30" t="n">
-        <v>2.78</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>2.82</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K30" t="n">
         <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.4</v>
+        <v>2.86</v>
       </c>
       <c r="O30" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="P30" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="R30" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T30" t="n">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="U30" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V30" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="AB30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF30" t="n">
         <v>13</v>
       </c>
-      <c r="AC30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ30" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.82</v>
+        <v>2.7</v>
       </c>
       <c r="G31" t="n">
-        <v>1.89</v>
+        <v>2.82</v>
       </c>
       <c r="H31" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S31" t="n">
         <v>3.8</v>
       </c>
-      <c r="K31" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="U31" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="V31" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="W31" t="n">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="X31" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA31" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ31" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H32" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J32" t="n">
         <v>3.55</v>
@@ -4741,19 +4741,19 @@
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
         <v>1.43</v>
       </c>
       <c r="P32" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S32" t="n">
         <v>4.4</v>
@@ -4765,16 +4765,16 @@
         <v>1.83</v>
       </c>
       <c r="V32" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W32" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X32" t="n">
         <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z32" t="n">
         <v>42</v>
@@ -4783,7 +4783,7 @@
         <v>170</v>
       </c>
       <c r="AB32" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC32" t="n">
         <v>8</v>
@@ -4795,16 +4795,16 @@
         <v>95</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG32" t="n">
         <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="n">
         <v>19.5</v>
@@ -4822,7 +4822,7 @@
         <v>16.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G33" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H33" t="n">
         <v>5.4</v>
@@ -4870,19 +4870,19 @@
         <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M33" t="n">
         <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O33" t="n">
         <v>1.53</v>
       </c>
       <c r="P33" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q33" t="n">
         <v>2.58</v>
@@ -4903,10 +4903,10 @@
         <v>1.22</v>
       </c>
       <c r="W33" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X33" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
         <v>13.5</v>
@@ -4939,7 +4939,7 @@
         <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ33" t="n">
         <v>21</v>
@@ -4951,7 +4951,7 @@
         <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN33" t="n">
         <v>21</v>
@@ -4993,16 +4993,16 @@
         <v>1.43</v>
       </c>
       <c r="H34" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K34" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L34" t="n">
         <v>1.35</v>
@@ -5011,7 +5011,7 @@
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.27</v>
@@ -5020,19 +5020,19 @@
         <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R34" t="n">
         <v>1.45</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T34" t="n">
         <v>2.08</v>
       </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
         <v>1.11</v>
@@ -5041,7 +5041,7 @@
         <v>3.3</v>
       </c>
       <c r="X34" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y34" t="n">
         <v>30</v>
@@ -5065,10 +5065,10 @@
         <v>150</v>
       </c>
       <c r="AF34" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH34" t="n">
         <v>27</v>
@@ -5092,7 +5092,7 @@
         <v>6.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35">
@@ -5122,88 +5122,88 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I35" t="n">
         <v>2.84</v>
       </c>
-      <c r="H35" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.86</v>
-      </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="n">
         <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R35" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S35" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U35" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
         <v>1.54</v>
       </c>
       <c r="W35" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X35" t="n">
         <v>16</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA35" t="n">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF35" t="n">
         <v>23</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH35" t="n">
         <v>22</v>
@@ -5215,19 +5215,19 @@
         <v>55</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO35" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H36" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I36" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J36" t="n">
         <v>3.8</v>
@@ -5290,40 +5290,40 @@
         <v>2.24</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R36" t="n">
         <v>1.48</v>
       </c>
       <c r="S36" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T36" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U36" t="n">
         <v>2.44</v>
       </c>
       <c r="V36" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W36" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X36" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB36" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>16</v>
       </c>
       <c r="AC36" t="n">
         <v>8.800000000000001</v>
@@ -5347,22 +5347,22 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL36" t="n">
         <v>38</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO36" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G37" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I37" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K37" t="n">
         <v>4.1</v>
@@ -5422,19 +5422,19 @@
         <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R37" t="n">
         <v>1.35</v>
       </c>
       <c r="S37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T37" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U37" t="n">
         <v>2.02</v>
@@ -5443,10 +5443,10 @@
         <v>2.16</v>
       </c>
       <c r="W37" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y37" t="n">
         <v>8.800000000000001</v>
@@ -5455,10 +5455,10 @@
         <v>11</v>
       </c>
       <c r="AA37" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
         <v>9</v>
@@ -5467,13 +5467,13 @@
         <v>10.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF37" t="n">
         <v>38</v>
       </c>
       <c r="AG37" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH37" t="n">
         <v>21</v>
@@ -5485,16 +5485,16 @@
         <v>130</v>
       </c>
       <c r="AK37" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="n">
         <v>120</v>
       </c>
       <c r="AN37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO37" t="n">
         <v>13</v>
@@ -5533,46 +5533,46 @@
         <v>1.2</v>
       </c>
       <c r="H38" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="I38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J38" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L38" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M38" t="n">
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O38" t="n">
         <v>1.12</v>
       </c>
       <c r="P38" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q38" t="n">
         <v>1.36</v>
       </c>
       <c r="R38" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S38" t="n">
         <v>1.9</v>
       </c>
       <c r="T38" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="U38" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V38" t="n">
         <v>1.05</v>
@@ -5581,55 +5581,55 @@
         <v>6</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y38" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Z38" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE38" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH38" t="n">
         <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AJ38" t="n">
         <v>10.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>95</v>
+        <v>14.5</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN38" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,67 +5662,67 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G39" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H39" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I39" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J39" t="n">
         <v>3.5</v>
       </c>
-      <c r="J39" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K39" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L39" t="n">
         <v>1.35</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="O39" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P39" t="n">
         <v>2.16</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="R39" t="n">
         <v>1.42</v>
       </c>
       <c r="S39" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="T39" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="U39" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V39" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W39" t="n">
         <v>1.72</v>
       </c>
       <c r="X39" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Z39" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
@@ -5731,7 +5731,7 @@
         <v>12.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD39" t="n">
         <v>15</v>
@@ -5746,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
@@ -5761,19 +5761,19 @@
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN39" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Galway Utd</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G40" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="I40" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="J40" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L40" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="P40" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.52</v>
+        <v>2.08</v>
       </c>
       <c r="R40" t="n">
-        <v>1.67</v>
+        <v>1.32</v>
       </c>
       <c r="S40" t="n">
-        <v>2.06</v>
+        <v>3.65</v>
       </c>
       <c r="T40" t="n">
-        <v>1.54</v>
+        <v>1.91</v>
       </c>
       <c r="U40" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="W40" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="X40" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AA40" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AB40" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AC40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG40" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>11</v>
-      </c>
       <c r="AH40" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="n">
         <v>24</v>
       </c>
       <c r="AK40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN40" t="n">
         <v>17.5</v>
       </c>
-      <c r="AL40" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AO40" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Galway Utd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="H41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J41" t="n">
         <v>4.1</v>
       </c>
-      <c r="I41" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K41" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W41" t="n">
         <v>1.01</v>
       </c>
-      <c r="M41" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W41" t="n">
-        <v>2</v>
-      </c>
       <c r="X41" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF41" t="n">
         <v>16</v>
       </c>
-      <c r="Y41" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z41" t="n">
+      <c r="AG41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI41" t="n">
         <v>980</v>
       </c>
-      <c r="AA41" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>80</v>
-      </c>
       <c r="AJ41" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AK41" t="n">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AM41" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AN41" t="n">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.24</v>
+        <v>2.18</v>
       </c>
       <c r="G42" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y42" t="n">
         <v>15</v>
       </c>
-      <c r="I42" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W42" t="n">
-        <v>5</v>
-      </c>
-      <c r="X42" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>130</v>
-      </c>
       <c r="Z42" t="n">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="AA42" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN42" t="n">
         <v>16</v>
       </c>
-      <c r="AD42" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>4.6</v>
-      </c>
       <c r="AO42" t="n">
-        <v>550</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="G43" t="n">
-        <v>5.3</v>
+        <v>2.72</v>
       </c>
       <c r="H43" t="n">
-        <v>1.73</v>
+        <v>2.76</v>
       </c>
       <c r="I43" t="n">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="J43" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="L43" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P43" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S43" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T43" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="U43" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="V43" t="n">
-        <v>2.32</v>
+        <v>1.55</v>
       </c>
       <c r="W43" t="n">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="X43" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z43" t="n">
         <v>20</v>
       </c>
-      <c r="Y43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AA43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN43" t="n">
         <v>18</v>
       </c>
-      <c r="AB43" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>60</v>
-      </c>
       <c r="AO43" t="n">
-        <v>8.4</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="44">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="G44" t="n">
-        <v>1.77</v>
+        <v>1.26</v>
       </c>
       <c r="H44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>16</v>
+      </c>
+      <c r="J44" t="n">
+        <v>7</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N44" t="n">
         <v>5.2</v>
       </c>
-      <c r="I44" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V44" t="n">
         <v>1.06</v>
       </c>
-      <c r="N44" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W44" t="n">
-        <v>2.28</v>
+        <v>4.8</v>
       </c>
       <c r="X44" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="Z44" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>930</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH44" t="n">
         <v>40</v>
       </c>
-      <c r="AA44" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>19</v>
-      </c>
       <c r="AI44" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AJ44" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL44" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AM44" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AN44" t="n">
-        <v>9.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>65</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45">
@@ -6463,34 +6463,34 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.74</v>
+        <v>5.4</v>
       </c>
       <c r="G45" t="n">
-        <v>2.78</v>
+        <v>5.5</v>
       </c>
       <c r="H45" t="n">
-        <v>2.68</v>
+        <v>1.71</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7</v>
+        <v>1.73</v>
       </c>
       <c r="J45" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K45" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
@@ -6499,85 +6499,85 @@
         <v>4.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P45" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R45" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S45" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T45" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="U45" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="V45" t="n">
-        <v>1.58</v>
+        <v>2.36</v>
       </c>
       <c r="W45" t="n">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="X45" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>19.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AB45" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AC45" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO45" t="n">
         <v>8.4</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="46">
@@ -6598,121 +6598,121 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="G46" t="n">
-        <v>2.24</v>
+        <v>1.76</v>
       </c>
       <c r="H46" t="n">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3.65</v>
+        <v>5.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K46" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L46" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P46" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="R46" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S46" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T46" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="U46" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="V46" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="W46" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="X46" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AA46" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI46" t="n">
         <v>70</v>
       </c>
-      <c r="AB46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH46" t="n">
+      <c r="AJ46" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK46" t="n">
         <v>17</v>
       </c>
-      <c r="AI46" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>23</v>
-      </c>
       <c r="AL46" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN46" t="n">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO46" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
@@ -6742,94 +6742,94 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G47" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="H47" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="I47" t="n">
         <v>1.99</v>
       </c>
       <c r="J47" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K47" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L47" t="n">
         <v>1.53</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N47" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="P47" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="R47" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S47" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T47" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="U47" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V47" t="n">
         <v>2</v>
       </c>
       <c r="W47" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="X47" t="n">
         <v>10.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z47" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB47" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD47" t="n">
         <v>11.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF47" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AG47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH47" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI47" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ47" t="n">
         <v>150</v>
@@ -6838,16 +6838,16 @@
         <v>95</v>
       </c>
       <c r="AL47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM47" t="n">
         <v>210</v>
       </c>
       <c r="AN47" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AO47" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G48" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I48" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J48" t="n">
         <v>4</v>
@@ -6919,70 +6919,70 @@
         <v>4.4</v>
       </c>
       <c r="T48" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U48" t="n">
         <v>1.67</v>
       </c>
       <c r="V48" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W48" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="X48" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y48" t="n">
         <v>19.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA48" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="AB48" t="n">
         <v>6.4</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD48" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AE48" t="n">
         <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG48" t="n">
         <v>11</v>
       </c>
       <c r="AH48" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AI48" t="n">
         <v>190</v>
       </c>
       <c r="AJ48" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AM48" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN48" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO48" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49">
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="G49" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H49" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
         <v>1000</v>
       </c>
       <c r="J49" t="n">
-        <v>1.09</v>
+        <v>4.2</v>
       </c>
       <c r="K49" t="n">
         <v>1000</v>
@@ -7060,7 +7060,7 @@
         <v>1.03</v>
       </c>
       <c r="V49" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W49" t="n">
         <v>1.01</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera C</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,126 +7133,126 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>20:05:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>CA Ituzaingo</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Deportivo Espanol</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.82</v>
+        <v>1.02</v>
       </c>
       <c r="G50" t="n">
-        <v>1.92</v>
+        <v>1000</v>
       </c>
       <c r="H50" t="n">
-        <v>4.8</v>
+        <v>1.02</v>
       </c>
       <c r="I50" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="J50" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="K50" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="L50" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.79</v>
+        <v>1.08</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R50" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="S50" t="n">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="T50" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="U50" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
       <c r="V50" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W50" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="X50" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
@@ -7273,76 +7273,76 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="G51" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="H51" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I51" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="J51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K51" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L51" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O51" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P51" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="R51" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S51" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T51" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U51" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V51" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W51" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X51" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA51" t="n">
         <v>160</v>
@@ -7351,43 +7351,43 @@
         <v>9.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD51" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AE51" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF51" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG51" t="n">
         <v>12.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI51" t="n">
         <v>100</v>
       </c>
       <c r="AJ51" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK51" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL51" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM51" t="n">
         <v>160</v>
       </c>
       <c r="AN51" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AO51" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52">
@@ -7403,260 +7403,395 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>22:20:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="G52" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="H52" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I52" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="J52" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L52" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
         <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O52" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P52" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="R52" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S52" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="T52" t="n">
         <v>1.94</v>
       </c>
       <c r="U52" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="V52" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="W52" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y52" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AA52" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB52" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD52" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AE52" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AF52" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AI52" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AK52" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL52" t="n">
         <v>55</v>
       </c>
       <c r="AM52" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN52" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AO52" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X53" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>US MLS</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>2025-10-29</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>23:30:00</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Los Angeles FC</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Austin FC</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="F54" t="n">
         <v>1.41</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G54" t="n">
         <v>1.45</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H54" t="n">
         <v>8.4</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I54" t="n">
         <v>9.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J54" t="n">
         <v>5.1</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K54" t="n">
         <v>5.5</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L54" t="n">
         <v>1.31</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M54" t="n">
         <v>1.04</v>
       </c>
-      <c r="N53" t="n">
-        <v>5</v>
-      </c>
-      <c r="O53" t="n">
+      <c r="N54" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O54" t="n">
         <v>1.23</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P54" t="n">
         <v>2.42</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q54" t="n">
         <v>1.69</v>
       </c>
-      <c r="R53" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S53" t="n">
+      <c r="R54" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S54" t="n">
         <v>2.72</v>
       </c>
-      <c r="T53" t="n">
+      <c r="T54" t="n">
         <v>1.96</v>
       </c>
-      <c r="U53" t="n">
+      <c r="U54" t="n">
         <v>1.97</v>
       </c>
-      <c r="V53" t="n">
+      <c r="V54" t="n">
         <v>1.12</v>
       </c>
-      <c r="W53" t="n">
+      <c r="W54" t="n">
         <v>3.2</v>
       </c>
-      <c r="X53" t="n">
+      <c r="X54" t="n">
         <v>23</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Y54" t="n">
         <v>32</v>
       </c>
-      <c r="Z53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA53" t="n">
+      <c r="Z54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA54" t="n">
         <v>360</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AB54" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC53" t="n">
+      <c r="AC54" t="n">
         <v>12</v>
       </c>
-      <c r="AD53" t="n">
+      <c r="AD54" t="n">
         <v>34</v>
       </c>
-      <c r="AE53" t="n">
+      <c r="AE54" t="n">
         <v>160</v>
       </c>
-      <c r="AF53" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG53" t="n">
+      <c r="AF54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG54" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AH54" t="n">
         <v>26</v>
       </c>
-      <c r="AI53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ53" t="n">
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
         <v>12</v>
       </c>
-      <c r="AK53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL53" t="n">
+      <c r="AK54" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL54" t="n">
         <v>38</v>
       </c>
-      <c r="AM53" t="n">
+      <c r="AM54" t="n">
         <v>160</v>
       </c>
-      <c r="AN53" t="n">
+      <c r="AN54" t="n">
         <v>5.8</v>
       </c>
-      <c r="AO53" t="n">
+      <c r="AO54" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I2" t="n">
         <v>1.97</v>
@@ -682,37 +682,37 @@
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="R2" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="U2" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="V2" t="n">
         <v>2.02</v>
@@ -721,58 +721,58 @@
         <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>30</v>
       </c>
       <c r="AJ2" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="3">
@@ -805,28 +805,28 @@
         <v>1.46</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -835,13 +835,13 @@
         <v>1.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
         <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -853,58 +853,58 @@
         <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.38</v>
+        <v>2.68</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>2.68</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>2.22</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S4" t="n">
         <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G5" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.74</v>
+        <v>2.52</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.24</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.04</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
         <v>980</v>
@@ -1135,19 +1135,19 @@
         <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB5" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AF5" t="n">
         <v>980</v>
@@ -1159,16 +1159,16 @@
         <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
         <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>420</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
@@ -1240,13 +1240,13 @@
         <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.51</v>
+        <v>1.05</v>
       </c>
       <c r="T6" t="n">
         <v>1.03</v>
@@ -1255,7 +1255,7 @@
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="W6" t="n">
         <v>1.1</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
         <v>3.75</v>
@@ -1360,7 +1360,7 @@
         <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="M7" t="n">
         <v>1.13</v>
@@ -1369,13 +1369,13 @@
         <v>2.18</v>
       </c>
       <c r="O7" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P7" t="n">
         <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R7" t="n">
         <v>1.16</v>
@@ -1390,7 +1390,7 @@
         <v>1.68</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W7" t="n">
         <v>1.66</v>
@@ -1399,43 +1399,43 @@
         <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1486,10 +1486,10 @@
         <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1498,7 +1498,7 @@
         <v>1.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>3.05</v>
@@ -1525,34 +1525,34 @@
         <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
         <v>2.28</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="AB8" t="n">
         <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>27</v>
       </c>
       <c r="AE8" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AF8" t="n">
         <v>9.6</v>
@@ -1561,10 +1561,10 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AJ8" t="n">
         <v>18</v>
@@ -1573,16 +1573,16 @@
         <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
         <v>14.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>510</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1615,10 @@
         <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I9" t="n">
         <v>2.6</v>
@@ -1651,61 +1651,61 @@
         <v>1.17</v>
       </c>
       <c r="S9" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="T9" t="n">
         <v>2.14</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
         <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X9" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,55 +1747,55 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.24</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.64</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R10" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U10" t="n">
         <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
         <v>1.58</v>
@@ -1825,10 +1825,10 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="G11" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="I11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
         <v>5.5</v>
@@ -1906,46 +1906,46 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="O11" t="n">
         <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="R11" t="n">
         <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T11" t="n">
         <v>2.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y11" t="n">
         <v>7.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.6</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>980</v>
@@ -1954,16 +1954,16 @@
         <v>42</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
@@ -1975,13 +1975,13 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AL11" t="n">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="AM11" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
@@ -2029,31 +2029,31 @@
         <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L12" t="n">
         <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>2.54</v>
+        <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P12" t="n">
         <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
         <v>2.38</v>
@@ -2071,58 +2071,58 @@
         <v>2.28</v>
       </c>
       <c r="X12" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
         <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="G13" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="H13" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.26</v>
@@ -2179,19 +2179,19 @@
         <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
         <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R13" t="n">
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T13" t="n">
         <v>1.03</v>
@@ -2203,13 +2203,13 @@
         <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
         <v>13</v>
@@ -2233,19 +2233,19 @@
         <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2308,7 +2308,7 @@
         <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
         <v>5</v>
@@ -2380,13 +2380,13 @@
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>1000</v>
@@ -2425,22 +2425,22 @@
         <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I15" t="n">
         <v>2.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -2467,7 +2467,7 @@
         <v>1.93</v>
       </c>
       <c r="U15" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
         <v>1.58</v>
@@ -2476,37 +2476,37 @@
         <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>70</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>17.5</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2584,7 +2584,7 @@
         <v>3.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
         <v>1.77</v>
@@ -2599,10 +2599,10 @@
         <v>4.1</v>
       </c>
       <c r="T16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V16" t="n">
         <v>1.15</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G17" t="n">
         <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
@@ -2713,7 +2713,7 @@
         <v>1.46</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
         <v>3.35</v>
@@ -2722,10 +2722,10 @@
         <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
         <v>1.29</v>
@@ -2743,13 +2743,13 @@
         <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
         <v>70</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.49</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.5</v>
       </c>
       <c r="H18" t="n">
         <v>8.800000000000001</v>
@@ -2839,22 +2839,22 @@
         <v>9</v>
       </c>
       <c r="J18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.6</v>
       </c>
-      <c r="K18" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
         <v>1.94</v>
@@ -2869,10 +2869,10 @@
         <v>3.65</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U18" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
         <v>1.12</v>
@@ -2896,7 +2896,7 @@
         <v>7.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
         <v>32</v>
@@ -2917,7 +2917,7 @@
         <v>150</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>16.5</v>
@@ -2929,10 +2929,10 @@
         <v>190</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.34</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.38</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
@@ -2980,43 +2980,43 @@
         <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O19" t="n">
         <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
         <v>1.48</v>
       </c>
       <c r="S19" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V19" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W19" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
@@ -3025,7 +3025,7 @@
         <v>16</v>
       </c>
       <c r="AA19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB19" t="n">
         <v>15.5</v>
@@ -3034,7 +3034,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H20" t="n">
         <v>1.53</v>
@@ -3121,16 +3121,16 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O20" t="n">
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
         <v>1.52</v>
@@ -3139,19 +3139,19 @@
         <v>2.84</v>
       </c>
       <c r="T20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
         <v>2.08</v>
       </c>
       <c r="V20" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="W20" t="n">
         <v>1.16</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
         <v>9.6</v>
@@ -3163,10 +3163,10 @@
         <v>14</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
         <v>9.6</v>
@@ -3175,7 +3175,7 @@
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG20" t="n">
         <v>26</v>
@@ -3187,7 +3187,7 @@
         <v>32</v>
       </c>
       <c r="AJ20" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK20" t="n">
         <v>95</v>
@@ -3202,7 +3202,7 @@
         <v>100</v>
       </c>
       <c r="AO20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G21" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -3250,34 +3250,34 @@
         <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V21" t="n">
         <v>1.49</v>
@@ -3286,10 +3286,10 @@
         <v>1.61</v>
       </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z21" t="n">
         <v>20</v>
@@ -3298,10 +3298,10 @@
         <v>48</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
         <v>13</v>
@@ -3316,28 +3316,28 @@
         <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
         <v>38</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -3379,10 +3379,10 @@
         <v>1.26</v>
       </c>
       <c r="J22" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.25</v>
@@ -3391,7 +3391,7 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.14</v>
@@ -3403,16 +3403,16 @@
         <v>1.44</v>
       </c>
       <c r="R22" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="n">
         <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
         <v>4.8</v>
@@ -3424,10 +3424,10 @@
         <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA22" t="n">
         <v>10.5</v>
@@ -3466,13 +3466,13 @@
         <v>150</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
         <v>190</v>
       </c>
       <c r="AO22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G23" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="I23" t="n">
         <v>1.76</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>5.8</v>
@@ -3526,22 +3526,22 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.16</v>
       </c>
       <c r="P23" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T23" t="n">
         <v>1.03</v>
@@ -3553,16 +3553,16 @@
         <v>2.3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3589,7 +3589,7 @@
         <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H24" t="n">
         <v>2.04</v>
       </c>
       <c r="I24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -3667,7 +3667,7 @@
         <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="Q24" t="n">
         <v>1.44</v>
@@ -3676,7 +3676,7 @@
         <v>1.81</v>
       </c>
       <c r="S24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="n">
         <v>1.45</v>
@@ -3694,19 +3694,19 @@
         <v>32</v>
       </c>
       <c r="Y24" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
         <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
         <v>11.5</v>
@@ -3715,7 +3715,7 @@
         <v>18</v>
       </c>
       <c r="AF24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="n">
         <v>15.5</v>
@@ -3730,19 +3730,19 @@
         <v>70</v>
       </c>
       <c r="AK24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL24" t="n">
         <v>34</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>42</v>
       </c>
       <c r="AM24" t="n">
         <v>50</v>
       </c>
       <c r="AN24" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3772,34 +3772,34 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H25" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I25" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P25" t="n">
         <v>1.79</v>
@@ -3814,55 +3814,55 @@
         <v>3.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U25" t="n">
         <v>2.06</v>
       </c>
       <c r="V25" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
         <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AF25" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="n">
         <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AK25" t="n">
         <v>48</v>
@@ -3871,7 +3871,7 @@
         <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
         <v>48</v>
@@ -3907,46 +3907,46 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
         <v>2.42</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I26" t="n">
         <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="R26" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S26" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T26" t="n">
         <v>1.59</v>
@@ -3958,25 +3958,25 @@
         <v>1.45</v>
       </c>
       <c r="W26" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X26" t="n">
         <v>23</v>
       </c>
       <c r="Y26" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA26" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD26" t="n">
         <v>14.5</v>
@@ -3985,13 +3985,13 @@
         <v>85</v>
       </c>
       <c r="AF26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
         <v>100</v>
@@ -4000,10 +4000,10 @@
         <v>85</v>
       </c>
       <c r="AK26" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM26" t="n">
         <v>200</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="G27" t="n">
         <v>1.78</v>
@@ -4051,16 +4051,16 @@
         <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K27" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
         <v>1.02</v>
@@ -4072,16 +4072,16 @@
         <v>1.15</v>
       </c>
       <c r="P27" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="Q27" t="n">
         <v>1.47</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S27" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="T27" t="n">
         <v>1.54</v>
@@ -4099,13 +4099,13 @@
         <v>85</v>
       </c>
       <c r="Y27" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AA27" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="AB27" t="n">
         <v>16</v>
@@ -4114,13 +4114,13 @@
         <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AE27" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
         <v>11.5</v>
@@ -4129,25 +4129,25 @@
         <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="n">
         <v>16.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G28" t="n">
         <v>2.16</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J28" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>3.3</v>
@@ -4225,13 +4225,13 @@
         <v>1.84</v>
       </c>
       <c r="V28" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
         <v>1.86</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>90</v>
       </c>
       <c r="Y28" t="n">
         <v>1000</v>
@@ -4243,10 +4243,10 @@
         <v>150</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
         <v>1000</v>
@@ -4255,10 +4255,10 @@
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
         <v>1000</v>
@@ -4267,10 +4267,10 @@
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4279,7 +4279,7 @@
         <v>190</v>
       </c>
       <c r="AN28" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4324,37 +4324,37 @@
         <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
         <v>3.85</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
         <v>1.99</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U29" t="n">
         <v>2.04</v>
@@ -4369,34 +4369,34 @@
         <v>16</v>
       </c>
       <c r="Y29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA29" t="n">
         <v>160</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4408,16 +4408,16 @@
         <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
@@ -4447,109 +4447,109 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
         <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.51</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.45</v>
-      </c>
       <c r="P30" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="R30" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S30" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="T30" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="U30" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V30" t="n">
         <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG30" t="n">
         <v>11</v>
       </c>
-      <c r="Y30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
         <v>120</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AM30" t="n">
         <v>210</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,25 +4582,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G31" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H31" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4609,10 +4609,10 @@
         <v>3.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q31" t="n">
         <v>2.08</v>
@@ -4621,7 +4621,7 @@
         <v>1.33</v>
       </c>
       <c r="S31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T31" t="n">
         <v>1.79</v>
@@ -4633,7 +4633,7 @@
         <v>1.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X31" t="n">
         <v>13</v>
@@ -4642,10 +4642,10 @@
         <v>12</v>
       </c>
       <c r="Z31" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="AB31" t="n">
         <v>11.5</v>
@@ -4657,37 +4657,37 @@
         <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AF31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG31" t="n">
         <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="AI31" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="AJ31" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AK31" t="n">
         <v>34</v>
       </c>
       <c r="AL31" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM31" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -4729,10 +4729,10 @@
         <v>5.5</v>
       </c>
       <c r="J32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.5</v>
@@ -4741,58 +4741,58 @@
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P32" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R32" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S32" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T32" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U32" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V32" t="n">
         <v>1.22</v>
       </c>
       <c r="W32" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="n">
         <v>9.6</v>
@@ -4801,28 +4801,28 @@
         <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="n">
         <v>19.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM32" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN32" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -4858,10 +4858,10 @@
         <v>1.93</v>
       </c>
       <c r="H33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I33" t="n">
         <v>5.4</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.5</v>
       </c>
       <c r="J33" t="n">
         <v>3.35</v>
@@ -4879,7 +4879,7 @@
         <v>2.82</v>
       </c>
       <c r="O33" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P33" t="n">
         <v>1.6</v>
@@ -4888,16 +4888,16 @@
         <v>2.58</v>
       </c>
       <c r="R33" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S33" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T33" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U33" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V33" t="n">
         <v>1.22</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G34" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H34" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K34" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5.3</v>
       </c>
       <c r="L34" t="n">
         <v>1.35</v>
@@ -5014,58 +5014,58 @@
         <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P34" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R34" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
         <v>2.98</v>
       </c>
       <c r="T34" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V34" t="n">
         <v>1.11</v>
       </c>
       <c r="W34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z34" t="n">
         <v>85</v>
       </c>
       <c r="AA34" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC34" t="n">
         <v>11.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE34" t="n">
         <v>150</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG34" t="n">
         <v>9.6</v>
@@ -5080,7 +5080,7 @@
         <v>11.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL34" t="n">
         <v>38</v>
@@ -5092,7 +5092,7 @@
         <v>6.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -5125,22 +5125,22 @@
         <v>2.76</v>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H35" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I35" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J35" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
@@ -5161,73 +5161,73 @@
         <v>1.32</v>
       </c>
       <c r="S35" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U35" t="n">
         <v>2.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W35" t="n">
         <v>1.52</v>
       </c>
       <c r="X35" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y35" t="n">
         <v>11.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="AB35" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE35" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AF35" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AJ35" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL35" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AM35" t="n">
         <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO35" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -5260,7 +5260,7 @@
         <v>3.1</v>
       </c>
       <c r="G36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
         <v>2.32</v>
@@ -5269,10 +5269,10 @@
         <v>2.4</v>
       </c>
       <c r="J36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.9</v>
       </c>
       <c r="L36" t="n">
         <v>1.35</v>
@@ -5287,19 +5287,19 @@
         <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R36" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S36" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T36" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U36" t="n">
         <v>2.44</v>
@@ -5308,13 +5308,13 @@
         <v>1.71</v>
       </c>
       <c r="W36" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z36" t="n">
         <v>16.5</v>
@@ -5323,7 +5323,7 @@
         <v>32</v>
       </c>
       <c r="AB36" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AC36" t="n">
         <v>8.800000000000001</v>
@@ -5338,13 +5338,13 @@
         <v>24</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH36" t="n">
         <v>15</v>
       </c>
       <c r="AI36" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ36" t="n">
         <v>55</v>
@@ -5359,10 +5359,10 @@
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO36" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H37" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="I37" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J37" t="n">
         <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L37" t="n">
         <v>1.41</v>
@@ -5425,7 +5425,7 @@
         <v>1.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R37" t="n">
         <v>1.35</v>
@@ -5440,13 +5440,13 @@
         <v>2.02</v>
       </c>
       <c r="V37" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W37" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X37" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y37" t="n">
         <v>8.800000000000001</v>
@@ -5473,7 +5473,7 @@
         <v>38</v>
       </c>
       <c r="AG37" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AH37" t="n">
         <v>21</v>
@@ -5482,10 +5482,10 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK37" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL37" t="n">
         <v>80</v>
@@ -5497,7 +5497,7 @@
         <v>75</v>
       </c>
       <c r="AO37" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="38">
@@ -5533,7 +5533,7 @@
         <v>1.2</v>
       </c>
       <c r="H38" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="I38" t="n">
         <v>19</v>
@@ -5551,7 +5551,7 @@
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O38" t="n">
         <v>1.12</v>
@@ -5563,16 +5563,16 @@
         <v>1.36</v>
       </c>
       <c r="R38" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
         <v>1.9</v>
       </c>
       <c r="T38" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U38" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V38" t="n">
         <v>1.05</v>
@@ -5581,55 +5581,55 @@
         <v>6</v>
       </c>
       <c r="X38" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
         <v>85</v>
       </c>
       <c r="Z38" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC38" t="n">
         <v>24</v>
       </c>
       <c r="AD38" t="n">
-        <v>65</v>
+        <v>360</v>
       </c>
       <c r="AE38" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AG38" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH38" t="n">
         <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AJ38" t="n">
         <v>10.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5665,7 +5665,7 @@
         <v>2.32</v>
       </c>
       <c r="G39" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>3.25</v>
@@ -5674,40 +5674,40 @@
         <v>3.45</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K39" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="O39" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="R39" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S39" t="n">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="U39" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="V39" t="n">
         <v>1.41</v>
@@ -5716,58 +5716,58 @@
         <v>1.72</v>
       </c>
       <c r="X39" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y39" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB39" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG39" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH39" t="n">
         <v>16.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM39" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN39" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AO39" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -5797,61 +5797,61 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G40" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H40" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J40" t="n">
         <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M40" t="n">
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O40" t="n">
         <v>1.35</v>
       </c>
       <c r="P40" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q40" t="n">
         <v>2.08</v>
       </c>
       <c r="R40" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S40" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="T40" t="n">
         <v>1.91</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V40" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W40" t="n">
         <v>2.08</v>
       </c>
       <c r="X40" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y40" t="n">
         <v>17.5</v>
@@ -5860,49 +5860,49 @@
         <v>36</v>
       </c>
       <c r="AA40" t="n">
-        <v>120</v>
+        <v>530</v>
       </c>
       <c r="AB40" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC40" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE40" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="AF40" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG40" t="n">
         <v>10.5</v>
       </c>
       <c r="AH40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ40" t="n">
         <v>22</v>
       </c>
-      <c r="AI40" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>24</v>
-      </c>
       <c r="AK40" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL40" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AM40" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AO40" t="n">
-        <v>85</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
@@ -5932,25 +5932,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G41" t="n">
         <v>2.12</v>
       </c>
       <c r="H41" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J41" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>4.3</v>
       </c>
       <c r="L41" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
@@ -5974,43 +5974,43 @@
         <v>2.34</v>
       </c>
       <c r="T41" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U41" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V41" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W41" t="n">
         <v>1.01</v>
       </c>
       <c r="X41" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y41" t="n">
         <v>21</v>
       </c>
       <c r="Z41" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AA41" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="n">
         <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD41" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE41" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AG41" t="n">
         <v>11</v>
@@ -6019,13 +6019,13 @@
         <v>15</v>
       </c>
       <c r="AI41" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ41" t="n">
         <v>27</v>
       </c>
       <c r="AK41" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="n">
         <v>26</v>
@@ -6037,7 +6037,7 @@
         <v>9.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G42" t="n">
         <v>2.18</v>
       </c>
-      <c r="G42" t="n">
-        <v>2.2</v>
-      </c>
       <c r="H42" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I42" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J42" t="n">
         <v>3.65</v>
@@ -6100,13 +6100,13 @@
         <v>2.04</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R42" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S42" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T42" t="n">
         <v>1.76</v>
@@ -6115,16 +6115,16 @@
         <v>2.22</v>
       </c>
       <c r="V42" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W42" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X42" t="n">
         <v>14.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z42" t="n">
         <v>26</v>
@@ -6160,7 +6160,7 @@
         <v>27</v>
       </c>
       <c r="AK42" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL42" t="n">
         <v>36</v>
@@ -6169,7 +6169,7 @@
         <v>90</v>
       </c>
       <c r="AN42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO42" t="n">
         <v>38</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G43" t="n">
         <v>2.7</v>
       </c>
-      <c r="G43" t="n">
-        <v>2.72</v>
-      </c>
       <c r="H43" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I43" t="n">
         <v>2.8</v>
       </c>
       <c r="J43" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K43" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L43" t="n">
         <v>1.34</v>
@@ -6238,10 +6238,10 @@
         <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S43" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T43" t="n">
         <v>1.62</v>
@@ -6256,7 +6256,7 @@
         <v>1.58</v>
       </c>
       <c r="X43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y43" t="n">
         <v>14.5</v>
@@ -6277,7 +6277,7 @@
         <v>12</v>
       </c>
       <c r="AE43" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF43" t="n">
         <v>19.5</v>
@@ -6295,7 +6295,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL43" t="n">
         <v>34</v>
@@ -6307,7 +6307,7 @@
         <v>18</v>
       </c>
       <c r="AO43" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -6337,94 +6337,94 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G44" t="n">
         <v>1.25</v>
       </c>
-      <c r="G44" t="n">
-        <v>1.26</v>
-      </c>
       <c r="H44" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I44" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J44" t="n">
         <v>7</v>
       </c>
       <c r="K44" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P44" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="Q44" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U44" t="n">
         <v>1.65</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.68</v>
       </c>
       <c r="V44" t="n">
         <v>1.06</v>
       </c>
       <c r="W44" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X44" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y44" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z44" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AA44" t="n">
-        <v>930</v>
+        <v>990</v>
       </c>
       <c r="AB44" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD44" t="n">
         <v>60</v>
       </c>
       <c r="AE44" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="AF44" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AG44" t="n">
         <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
         <v>8.800000000000001</v>
@@ -6433,16 +6433,16 @@
         <v>15</v>
       </c>
       <c r="AL44" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM44" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AO44" t="n">
-        <v>450</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45">
@@ -6475,10 +6475,10 @@
         <v>5.4</v>
       </c>
       <c r="G45" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H45" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I45" t="n">
         <v>1.73</v>
@@ -6490,19 +6490,19 @@
         <v>4.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O45" t="n">
         <v>1.23</v>
       </c>
       <c r="P45" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q45" t="n">
         <v>1.7</v>
@@ -6511,7 +6511,7 @@
         <v>1.53</v>
       </c>
       <c r="S45" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T45" t="n">
         <v>1.72</v>
@@ -6571,7 +6571,7 @@
         <v>60</v>
       </c>
       <c r="AM45" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN45" t="n">
         <v>60</v>
@@ -6607,25 +6607,25 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="G46" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="H46" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I46" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="n">
         <v>4.1</v>
       </c>
-      <c r="K46" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L46" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
@@ -6637,28 +6637,28 @@
         <v>1.28</v>
       </c>
       <c r="P46" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R46" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S46" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T46" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U46" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V46" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W46" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="X46" t="n">
         <v>16.5</v>
@@ -6667,22 +6667,22 @@
         <v>19.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA46" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC46" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD46" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF46" t="n">
         <v>11</v>
@@ -6694,25 +6694,25 @@
         <v>19</v>
       </c>
       <c r="AI46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK46" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL46" t="n">
         <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN46" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47">
@@ -6766,10 +6766,10 @@
         <v>1.11</v>
       </c>
       <c r="N47" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O47" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P47" t="n">
         <v>1.6</v>
@@ -6787,7 +6787,7 @@
         <v>2.18</v>
       </c>
       <c r="U47" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V47" t="n">
         <v>2</v>
@@ -6817,37 +6817,37 @@
         <v>11.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF47" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AG47" t="n">
         <v>22</v>
       </c>
       <c r="AH47" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AI47" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AJ47" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="AK47" t="n">
-        <v>95</v>
+        <v>530</v>
       </c>
       <c r="AL47" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="AM47" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="AO47" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
@@ -6892,7 +6892,7 @@
         <v>4</v>
       </c>
       <c r="K48" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L48" t="n">
         <v>1.48</v>
@@ -6901,28 +6901,28 @@
         <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O48" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R48" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S48" t="n">
         <v>4.4</v>
       </c>
       <c r="T48" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U48" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V48" t="n">
         <v>1.13</v>
@@ -6931,58 +6931,58 @@
         <v>2.66</v>
       </c>
       <c r="X48" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y48" t="n">
         <v>19.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA48" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AB48" t="n">
         <v>6.4</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD48" t="n">
         <v>32</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF48" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG48" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH48" t="n">
         <v>32</v>
       </c>
       <c r="AI48" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ48" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK48" t="n">
         <v>21</v>
       </c>
       <c r="AL48" t="n">
-        <v>510</v>
+        <v>55</v>
       </c>
       <c r="AM48" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="AN48" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49">
@@ -7015,16 +7015,16 @@
         <v>1.23</v>
       </c>
       <c r="G49" t="n">
-        <v>600</v>
+        <v>1.45</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
         <v>1000</v>
       </c>
       <c r="J49" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K49" t="n">
         <v>1000</v>
@@ -7036,22 +7036,22 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="O49" t="n">
         <v>1.08</v>
       </c>
       <c r="P49" t="n">
-        <v>3.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q49" t="n">
         <v>1.08</v>
       </c>
       <c r="R49" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S49" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="T49" t="n">
         <v>1.03</v>
@@ -7063,61 +7063,61 @@
         <v>1.09</v>
       </c>
       <c r="W49" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
@@ -7177,13 +7177,13 @@
         <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Q50" t="n">
         <v>1.01</v>
       </c>
       <c r="R50" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S50" t="n">
         <v>1.05</v>
@@ -7282,25 +7282,25 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G51" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="H51" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I51" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J51" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K51" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L51" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -7312,10 +7312,10 @@
         <v>1.36</v>
       </c>
       <c r="P51" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R51" t="n">
         <v>1.3</v>
@@ -7327,13 +7327,13 @@
         <v>1.92</v>
       </c>
       <c r="U51" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V51" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X51" t="n">
         <v>15.5</v>
@@ -7345,7 +7345,7 @@
         <v>48</v>
       </c>
       <c r="AA51" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB51" t="n">
         <v>9.4</v>
@@ -7357,7 +7357,7 @@
         <v>25</v>
       </c>
       <c r="AE51" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AF51" t="n">
         <v>13</v>
@@ -7369,7 +7369,7 @@
         <v>26</v>
       </c>
       <c r="AI51" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AJ51" t="n">
         <v>25</v>
@@ -7381,7 +7381,7 @@
         <v>50</v>
       </c>
       <c r="AM51" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN51" t="n">
         <v>18</v>
@@ -7426,7 +7426,7 @@
         <v>4.6</v>
       </c>
       <c r="I52" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J52" t="n">
         <v>3.45</v>
@@ -7450,7 +7450,7 @@
         <v>1.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R52" t="n">
         <v>1.28</v>
@@ -7459,10 +7459,10 @@
         <v>3.9</v>
       </c>
       <c r="T52" t="n">
-        <v>1.94</v>
+        <v>1.03</v>
       </c>
       <c r="U52" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="V52" t="n">
         <v>1.23</v>
@@ -7471,10 +7471,10 @@
         <v>2.04</v>
       </c>
       <c r="X52" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="Y52" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Z52" t="n">
         <v>980</v>
@@ -7483,28 +7483,28 @@
         <v>160</v>
       </c>
       <c r="AB52" t="n">
-        <v>9.4</v>
+        <v>16.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AD52" t="n">
         <v>980</v>
       </c>
       <c r="AE52" t="n">
-        <v>90</v>
+        <v>440</v>
       </c>
       <c r="AF52" t="n">
-        <v>13.5</v>
+        <v>65</v>
       </c>
       <c r="AG52" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AH52" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI52" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="AJ52" t="n">
         <v>980</v>
@@ -7513,16 +7513,16 @@
         <v>980</v>
       </c>
       <c r="AL52" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AM52" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO52" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53">
@@ -7564,10 +7564,10 @@
         <v>6.4</v>
       </c>
       <c r="J53" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L53" t="n">
         <v>1.45</v>
@@ -7576,7 +7576,7 @@
         <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="O53" t="n">
         <v>1.37</v>
@@ -7585,13 +7585,13 @@
         <v>1.73</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R53" t="n">
         <v>1.27</v>
       </c>
       <c r="S53" t="n">
-        <v>3.1</v>
+        <v>1.05</v>
       </c>
       <c r="T53" t="n">
         <v>1.94</v>
@@ -7606,58 +7606,58 @@
         <v>2.08</v>
       </c>
       <c r="X53" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z53" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH53" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI53" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
@@ -7687,13 +7687,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G54" t="n">
         <v>1.45</v>
       </c>
       <c r="H54" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I54" t="n">
         <v>9.4</v>
@@ -7702,7 +7702,7 @@
         <v>5.1</v>
       </c>
       <c r="K54" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L54" t="n">
         <v>1.31</v>
@@ -7711,7 +7711,7 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O54" t="n">
         <v>1.23</v>
@@ -7720,7 +7720,7 @@
         <v>2.42</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R54" t="n">
         <v>1.55</v>
@@ -7732,7 +7732,7 @@
         <v>1.96</v>
       </c>
       <c r="U54" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
         <v>1.12</v>
@@ -7747,7 +7747,7 @@
         <v>32</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AA54" t="n">
         <v>360</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.95</v>
+        <v>8.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="I2" t="n">
-        <v>1.97</v>
+        <v>1.48</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.3</v>
+        <v>14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="P2" t="n">
-        <v>2.42</v>
+        <v>3.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="R2" t="n">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="S2" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="V2" t="n">
-        <v>2.02</v>
+        <v>3.05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL2" t="n">
         <v>42</v>
       </c>
-      <c r="Y2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AM2" t="n">
         <v>60</v>
       </c>
-      <c r="AG2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>75</v>
-      </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>7.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>8.800000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>2.74</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>2.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.56</v>
       </c>
       <c r="V3" t="n">
         <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>2.62</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD3" t="n">
         <v>980</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>110</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>360</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,7 +895,7 @@
         <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
         <v>540</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="G4" t="n">
         <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="J4" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.64</v>
       </c>
       <c r="M4" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="O4" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="Q4" t="n">
         <v>2.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>5.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1012,7 +1012,7 @@
         <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AF4" t="n">
         <v>980</v>
@@ -1027,7 +1027,7 @@
         <v>290</v>
       </c>
       <c r="AJ4" t="n">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="AK4" t="n">
         <v>170</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="G5" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
         <v>2.52</v>
       </c>
       <c r="K5" t="n">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="L5" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="N5" t="n">
         <v>2.22</v>
       </c>
       <c r="O5" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="P5" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="R5" t="n">
         <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
         <v>18.5</v>
@@ -1141,7 +1141,7 @@
         <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
@@ -1219,7 +1219,7 @@
         <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1354,34 +1354,34 @@
         <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K7" t="n">
         <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="M7" t="n">
         <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="O7" t="n">
         <v>1.59</v>
       </c>
       <c r="P7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="R7" t="n">
         <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>5.8</v>
       </c>
       <c r="T7" t="n">
         <v>2.2</v>
@@ -1390,7 +1390,7 @@
         <v>1.68</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
         <v>1.66</v>
@@ -1402,7 +1402,7 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1480,52 +1480,52 @@
         <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H8" t="n">
         <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
         <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
         <v>2.28</v>
@@ -1534,25 +1534,25 @@
         <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB8" t="n">
         <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="n">
         <v>9.6</v>
@@ -1561,7 +1561,7 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>290</v>
@@ -1573,16 +1573,16 @@
         <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
@@ -1615,28 +1615,28 @@
         <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J9" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="O9" t="n">
         <v>1.57</v>
@@ -1645,31 +1645,31 @@
         <v>1.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R9" t="n">
         <v>1.17</v>
       </c>
       <c r="S9" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="T9" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W9" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
@@ -1678,22 +1678,22 @@
         <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
         <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH9" t="n">
         <v>90</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,46 +1747,46 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="G10" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>2.32</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.65</v>
       </c>
       <c r="P10" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
         <v>2.28</v>
@@ -1795,16 +1795,16 @@
         <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
         <v>1.58</v>
       </c>
       <c r="X10" t="n">
-        <v>8.6</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1825,10 +1825,10 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="G11" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L11" t="n">
         <v>1.41</v>
       </c>
-      <c r="I11" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.34</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="V11" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="W11" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
-        <v>90</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>510</v>
+        <v>70</v>
       </c>
       <c r="AG11" t="n">
         <v>100</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AK11" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="n">
         <v>470</v>
       </c>
       <c r="AM11" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="12">
@@ -2017,76 +2017,76 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.32</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.05</v>
-      </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="n">
-        <v>2.38</v>
+        <v>3.35</v>
       </c>
       <c r="T12" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="V12" t="n">
         <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>2.28</v>
+        <v>2.8</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
         <v>120</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AB12" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>65</v>
@@ -2095,10 +2095,10 @@
         <v>440</v>
       </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
         <v>75</v>
@@ -2107,19 +2107,19 @@
         <v>430</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
         <v>200</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO12" t="n">
         <v>330</v>
@@ -2152,64 +2152,64 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="G13" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I13" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="T13" t="n">
-        <v>1.03</v>
+        <v>1.68</v>
       </c>
       <c r="U13" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="X13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
         <v>13</v>
@@ -2233,19 +2233,19 @@
         <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J14" t="n">
         <v>4.6</v>
       </c>
-      <c r="G14" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.2</v>
-      </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
         <v>5</v>
@@ -2317,28 +2317,28 @@
         <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T14" t="n">
         <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X14" t="n">
         <v>55</v>
@@ -2350,7 +2350,7 @@
         <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.5</v>
+        <v>50</v>
       </c>
       <c r="AB14" t="n">
         <v>44</v>
@@ -2371,7 +2371,7 @@
         <v>38</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>65</v>
@@ -2380,7 +2380,7 @@
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H15" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J15" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
         <v>3.35</v>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="n">
         <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
         <v>22</v>
@@ -2482,7 +2482,7 @@
         <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2506,7 +2506,7 @@
         <v>80</v>
       </c>
       <c r="AH15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I16" t="n">
         <v>7.4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.6</v>
       </c>
       <c r="J16" t="n">
         <v>3.9</v>
@@ -2575,16 +2575,16 @@
         <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
         <v>1.77</v>
@@ -2596,52 +2596,52 @@
         <v>1.29</v>
       </c>
       <c r="S16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V16" t="n">
         <v>1.15</v>
       </c>
       <c r="W16" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
         <v>55</v>
       </c>
       <c r="AA16" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB16" t="n">
         <v>6.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>130</v>
       </c>
       <c r="AF16" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI16" t="n">
         <v>140</v>
@@ -2662,7 +2662,7 @@
         <v>12</v>
       </c>
       <c r="AO16" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.55</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.57</v>
       </c>
       <c r="H17" t="n">
         <v>8.199999999999999</v>
@@ -2710,49 +2710,49 @@
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="T17" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="V17" t="n">
         <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="n">
         <v>320</v>
@@ -2770,34 +2770,34 @@
         <v>150</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK17" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
         <v>8.800000000000001</v>
@@ -2839,25 +2839,25 @@
         <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q18" t="n">
         <v>2</v>
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>25</v>
@@ -2890,7 +2890,7 @@
         <v>80</v>
       </c>
       <c r="AA18" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB18" t="n">
         <v>7.2</v>
@@ -2902,19 +2902,19 @@
         <v>32</v>
       </c>
       <c r="AE18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG18" t="n">
         <v>9.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H19" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I19" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
@@ -2986,34 +2986,34 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.78</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.74</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -3022,16 +3022,16 @@
         <v>12</v>
       </c>
       <c r="Z19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB19" t="n">
         <v>16</v>
       </c>
-      <c r="AA19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
         <v>11</v>
@@ -3040,34 +3040,34 @@
         <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
         <v>15.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -3103,61 +3103,61 @@
         <v>7.4</v>
       </c>
       <c r="H20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.53</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.54</v>
       </c>
       <c r="J20" t="n">
         <v>4.8</v>
       </c>
       <c r="K20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
         <v>4.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="S20" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
         <v>2.88</v>
       </c>
       <c r="W20" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA20" t="n">
         <v>14</v>
@@ -3172,37 +3172,37 @@
         <v>9.6</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG20" t="n">
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ20" t="n">
         <v>210</v>
       </c>
       <c r="AK20" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL20" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO20" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="21">
@@ -3232,61 +3232,61 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.62</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.64</v>
-      </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.5</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U21" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W21" t="n">
         <v>1.61</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
         <v>12.5</v>
@@ -3298,10 +3298,10 @@
         <v>48</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
         <v>13</v>
@@ -3316,13 +3316,13 @@
         <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
@@ -3331,13 +3331,13 @@
         <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
         <v>22</v>
       </c>
       <c r="AO21" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="G22" t="n">
         <v>14.5</v>
@@ -3379,40 +3379,40 @@
         <v>1.26</v>
       </c>
       <c r="J22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K22" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R22" t="n">
         <v>1.85</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
         <v>4.8</v>
@@ -3421,7 +3421,7 @@
         <v>1.07</v>
       </c>
       <c r="X22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="n">
         <v>12.5</v>
@@ -3430,10 +3430,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AA22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC22" t="n">
         <v>17</v>
@@ -3445,7 +3445,7 @@
         <v>12.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="n">
         <v>48</v>
@@ -3457,13 +3457,13 @@
         <v>32</v>
       </c>
       <c r="AJ22" t="n">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="AK22" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AL22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM22" t="n">
         <v>140</v>
@@ -3502,67 +3502,67 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="H23" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="I23" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="S23" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="T23" t="n">
-        <v>1.03</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>1.03</v>
+        <v>2.38</v>
       </c>
       <c r="V23" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X23" t="n">
         <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3571,13 +3571,13 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
         <v>1000</v>
@@ -3586,7 +3586,7 @@
         <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AI23" t="n">
         <v>980</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -3637,46 +3637,46 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G24" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="I24" t="n">
         <v>2.1</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
         <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R24" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T24" t="n">
         <v>1.45</v>
@@ -3694,22 +3694,22 @@
         <v>32</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z24" t="n">
         <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
@@ -3730,19 +3730,19 @@
         <v>70</v>
       </c>
       <c r="AK24" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
         <v>50</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G25" t="n">
         <v>3.45</v>
@@ -3781,37 +3781,37 @@
         <v>2.44</v>
       </c>
       <c r="I25" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R25" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S25" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="T25" t="n">
         <v>1.82</v>
@@ -3820,7 +3820,7 @@
         <v>2.06</v>
       </c>
       <c r="V25" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W25" t="n">
         <v>1.4</v>
@@ -3838,7 +3838,7 @@
         <v>46</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
         <v>7.6</v>
@@ -3850,7 +3850,7 @@
         <v>85</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AG25" t="n">
         <v>14</v>
@@ -3862,7 +3862,7 @@
         <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="AK25" t="n">
         <v>48</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G26" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="H26" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
         <v>3.8</v>
@@ -3925,49 +3925,49 @@
         <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="S26" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="T26" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="U26" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="V26" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W26" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AA26" t="n">
         <v>300</v>
@@ -3985,31 +3985,31 @@
         <v>85</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AK26" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
         <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
         <v>23</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G27" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K27" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.25</v>
@@ -4066,43 +4066,43 @@
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P27" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R27" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="S27" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="T27" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="U27" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="V27" t="n">
         <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X27" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="Y27" t="n">
         <v>85</v>
       </c>
       <c r="Z27" t="n">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AA27" t="n">
         <v>340</v>
@@ -4111,43 +4111,43 @@
         <v>16</v>
       </c>
       <c r="AC27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="AF27" t="n">
         <v>15</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AJ27" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AK27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM27" t="n">
-        <v>580</v>
+        <v>55</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -4177,88 +4177,88 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.04</v>
+        <v>1.41</v>
       </c>
       <c r="G28" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="I28" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K28" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.52</v>
+        <v>1.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.16</v>
+        <v>1.31</v>
       </c>
       <c r="R28" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>3.45</v>
+        <v>1.31</v>
       </c>
       <c r="T28" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U28" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="X28" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH28" t="n">
         <v>1000</v>
@@ -4276,7 +4276,7 @@
         <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
         <v>1000</v>
@@ -4318,7 +4318,7 @@
         <v>1.82</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I29" t="n">
         <v>5.5</v>
@@ -4342,22 +4342,22 @@
         <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R29" t="n">
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U29" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V29" t="n">
         <v>1.22</v>
@@ -4366,13 +4366,13 @@
         <v>2.2</v>
       </c>
       <c r="X29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AA29" t="n">
         <v>160</v>
@@ -4381,7 +4381,7 @@
         <v>9</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD29" t="n">
         <v>22</v>
@@ -4390,7 +4390,7 @@
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
         <v>9.800000000000001</v>
@@ -4405,10 +4405,10 @@
         <v>20</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="AM29" t="n">
         <v>580</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H30" t="n">
         <v>4.8</v>
@@ -4459,49 +4459,49 @@
         <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L30" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="M30" t="n">
         <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="O30" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="P30" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="R30" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U30" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W30" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X30" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y30" t="n">
         <v>13</v>
@@ -4513,7 +4513,7 @@
         <v>140</v>
       </c>
       <c r="AB30" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC30" t="n">
         <v>7.8</v>
@@ -4543,13 +4543,13 @@
         <v>28</v>
       </c>
       <c r="AL30" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,37 +4582,37 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="G31" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="I31" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
         <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="Q31" t="n">
         <v>2.08</v>
@@ -4627,13 +4627,13 @@
         <v>1.79</v>
       </c>
       <c r="U31" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V31" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W31" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X31" t="n">
         <v>13</v>
@@ -4669,10 +4669,10 @@
         <v>18</v>
       </c>
       <c r="AI31" t="n">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="AJ31" t="n">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="n">
         <v>34</v>
@@ -4681,7 +4681,7 @@
         <v>48</v>
       </c>
       <c r="AM31" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="n">
         <v>32</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.5</v>
@@ -4744,43 +4744,43 @@
         <v>3.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P32" t="n">
         <v>1.76</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T32" t="n">
         <v>2.06</v>
       </c>
       <c r="U32" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V32" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W32" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X32" t="n">
         <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z32" t="n">
         <v>38</v>
       </c>
       <c r="AA32" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB32" t="n">
         <v>7.6</v>
@@ -4792,37 +4792,37 @@
         <v>21</v>
       </c>
       <c r="AE32" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG32" t="n">
         <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ32" t="n">
         <v>19.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL32" t="n">
         <v>46</v>
       </c>
       <c r="AM32" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO32" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -4864,10 +4864,10 @@
         <v>5.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L33" t="n">
         <v>1.57</v>
@@ -4885,7 +4885,7 @@
         <v>1.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R33" t="n">
         <v>1.21</v>
@@ -4894,7 +4894,7 @@
         <v>5.3</v>
       </c>
       <c r="T33" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U33" t="n">
         <v>1.74</v>
@@ -4993,10 +4993,10 @@
         <v>1.44</v>
       </c>
       <c r="H34" t="n">
+        <v>9</v>
+      </c>
+      <c r="I34" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9.4</v>
       </c>
       <c r="J34" t="n">
         <v>5.1</v>
@@ -5005,37 +5005,37 @@
         <v>5.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
         <v>1.26</v>
       </c>
       <c r="P34" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R34" t="n">
         <v>1.47</v>
       </c>
       <c r="S34" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
         <v>2.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V34" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W34" t="n">
         <v>3.25</v>
@@ -5044,16 +5044,16 @@
         <v>19</v>
       </c>
       <c r="Y34" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z34" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC34" t="n">
         <v>11.5</v>
@@ -5062,7 +5062,7 @@
         <v>32</v>
       </c>
       <c r="AE34" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF34" t="n">
         <v>8.4</v>
@@ -5074,7 +5074,7 @@
         <v>27</v>
       </c>
       <c r="AI34" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ34" t="n">
         <v>11.5</v>
@@ -5086,7 +5086,7 @@
         <v>38</v>
       </c>
       <c r="AM34" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN34" t="n">
         <v>6.6</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="G35" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H35" t="n">
         <v>2.74</v>
       </c>
       <c r="I35" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
@@ -5140,7 +5140,7 @@
         <v>3.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
@@ -5152,40 +5152,40 @@
         <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R35" t="n">
         <v>1.32</v>
       </c>
       <c r="S35" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U35" t="n">
         <v>2.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="W35" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X35" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
         <v>18.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB35" t="n">
         <v>11.5</v>
@@ -5209,10 +5209,10 @@
         <v>18</v>
       </c>
       <c r="AI35" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AJ35" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AK35" t="n">
         <v>34</v>
@@ -5257,67 +5257,67 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H36" t="n">
         <v>2.32</v>
       </c>
       <c r="I36" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.75</v>
       </c>
-      <c r="K36" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S36" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="T36" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U36" t="n">
         <v>2.44</v>
       </c>
       <c r="V36" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="W36" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X36" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>13</v>
       </c>
       <c r="Z36" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA36" t="n">
         <v>32</v>
@@ -5329,7 +5329,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE36" t="n">
         <v>24</v>
@@ -5353,16 +5353,16 @@
         <v>32</v>
       </c>
       <c r="AL36" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AM36" t="n">
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO36" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -5395,76 +5395,76 @@
         <v>4.8</v>
       </c>
       <c r="G37" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I37" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J37" t="n">
         <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O37" t="n">
         <v>1.32</v>
       </c>
       <c r="P37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q37" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q37" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R37" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S37" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T37" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V37" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W37" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X37" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z37" t="n">
         <v>11</v>
       </c>
       <c r="AA37" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE37" t="n">
         <v>19.5</v>
@@ -5473,7 +5473,7 @@
         <v>38</v>
       </c>
       <c r="AG37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH37" t="n">
         <v>21</v>
@@ -5482,19 +5482,19 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
         <v>70</v>
       </c>
       <c r="AL37" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
         <v>120</v>
       </c>
       <c r="AN37" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="n">
         <v>12.5</v>
@@ -5533,16 +5533,16 @@
         <v>1.2</v>
       </c>
       <c r="H38" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="I38" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="J38" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="K38" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="L38" t="n">
         <v>1.21</v>
@@ -5551,28 +5551,28 @@
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O38" t="n">
         <v>1.12</v>
       </c>
       <c r="P38" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S38" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T38" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U38" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V38" t="n">
         <v>1.05</v>
@@ -5581,7 +5581,7 @@
         <v>6</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="Y38" t="n">
         <v>85</v>
@@ -5593,19 +5593,19 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD38" t="n">
         <v>360</v>
       </c>
       <c r="AE38" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG38" t="n">
         <v>13</v>
@@ -5614,7 +5614,7 @@
         <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ38" t="n">
         <v>10.5</v>
@@ -5626,10 +5626,10 @@
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G39" t="n">
         <v>2.4</v>
@@ -5671,73 +5671,73 @@
         <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J39" t="n">
         <v>3.55</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L39" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="R39" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S39" t="n">
         <v>3.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U39" t="n">
         <v>2.26</v>
       </c>
       <c r="V39" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W39" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
         <v>14.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA39" t="n">
         <v>60</v>
       </c>
       <c r="AB39" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC39" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD39" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AE39" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AF39" t="n">
         <v>16</v>
@@ -5755,19 +5755,19 @@
         <v>34</v>
       </c>
       <c r="AK39" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL39" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM39" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN39" t="n">
         <v>18</v>
       </c>
       <c r="AO39" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -5797,52 +5797,52 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G40" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H40" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I40" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J40" t="n">
         <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L40" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="M40" t="n">
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P40" t="n">
         <v>1.85</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R40" t="n">
         <v>1.31</v>
       </c>
       <c r="S40" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T40" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U40" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V40" t="n">
         <v>1.24</v>
@@ -5854,16 +5854,16 @@
         <v>13</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z40" t="n">
         <v>36</v>
       </c>
       <c r="AA40" t="n">
-        <v>530</v>
+        <v>120</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC40" t="n">
         <v>8.199999999999999</v>
@@ -5872,7 +5872,7 @@
         <v>22</v>
       </c>
       <c r="AE40" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="AF40" t="n">
         <v>11</v>
@@ -5881,10 +5881,10 @@
         <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="n">
         <v>22</v>
@@ -5893,16 +5893,16 @@
         <v>21</v>
       </c>
       <c r="AL40" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AM40" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN40" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AO40" t="n">
-        <v>270</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G41" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -5956,28 +5956,28 @@
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O41" t="n">
         <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R41" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="S41" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T41" t="n">
         <v>1.53</v>
       </c>
       <c r="U41" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="V41" t="n">
         <v>1.2</v>
@@ -5986,7 +5986,7 @@
         <v>1.01</v>
       </c>
       <c r="X41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
         <v>21</v>
@@ -6001,7 +6001,7 @@
         <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD41" t="n">
         <v>15</v>
@@ -6010,7 +6010,7 @@
         <v>34</v>
       </c>
       <c r="AF41" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG41" t="n">
         <v>11</v>
@@ -6025,7 +6025,7 @@
         <v>27</v>
       </c>
       <c r="AK41" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL41" t="n">
         <v>26</v>
@@ -6034,7 +6034,7 @@
         <v>200</v>
       </c>
       <c r="AN41" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO41" t="n">
         <v>22</v>
@@ -6067,112 +6067,112 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="G42" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="I42" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.65</v>
       </c>
-      <c r="K42" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L42" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S42" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="T42" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W42" t="n">
         <v>1.76</v>
       </c>
-      <c r="U42" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.84</v>
-      </c>
       <c r="X42" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
         <v>26</v>
       </c>
       <c r="AA42" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB42" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC42" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF42" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ42" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AK42" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL42" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM42" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN42" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -6208,7 +6208,7 @@
         <v>2.7</v>
       </c>
       <c r="H43" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I43" t="n">
         <v>2.8</v>
@@ -6220,34 +6220,34 @@
         <v>3.75</v>
       </c>
       <c r="L43" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R43" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="S43" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="T43" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U43" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="V43" t="n">
         <v>1.55</v>
@@ -6256,19 +6256,19 @@
         <v>1.58</v>
       </c>
       <c r="X43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z43" t="n">
         <v>20</v>
       </c>
       <c r="AA43" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB43" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC43" t="n">
         <v>8.4</v>
@@ -6295,19 +6295,19 @@
         <v>40</v>
       </c>
       <c r="AK43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL43" t="n">
         <v>34</v>
       </c>
       <c r="AM43" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN43" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="44">
@@ -6337,112 +6337,112 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G44" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="J44" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K44" t="n">
         <v>7.4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="R44" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="S44" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="T44" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="U44" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="V44" t="n">
         <v>1.06</v>
       </c>
       <c r="W44" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X44" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y44" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z44" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AA44" t="n">
-        <v>990</v>
+        <v>750</v>
       </c>
       <c r="AB44" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC44" t="n">
         <v>16</v>
       </c>
       <c r="AD44" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE44" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="AF44" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG44" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AK44" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM44" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="AO44" t="n">
-        <v>630</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45">
@@ -6472,46 +6472,46 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="H45" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="I45" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="J45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K45" t="n">
         <v>4.2</v>
       </c>
-      <c r="K45" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L45" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P45" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S45" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="T45" t="n">
         <v>1.72</v>
@@ -6520,13 +6520,13 @@
         <v>2.3</v>
       </c>
       <c r="V45" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="W45" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X45" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y45" t="n">
         <v>10.5</v>
@@ -6535,37 +6535,37 @@
         <v>11.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD45" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF45" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AG45" t="n">
         <v>20</v>
       </c>
       <c r="AH45" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI45" t="n">
         <v>30</v>
       </c>
       <c r="AJ45" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK45" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL45" t="n">
         <v>60</v>
@@ -6577,7 +6577,7 @@
         <v>60</v>
       </c>
       <c r="AO45" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G46" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H46" t="n">
         <v>4.9</v>
       </c>
       <c r="I46" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
         <v>4</v>
@@ -6640,31 +6640,31 @@
         <v>2.12</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R46" t="n">
         <v>1.43</v>
       </c>
       <c r="S46" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T46" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U46" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V46" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W46" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X46" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="n">
         <v>38</v>
@@ -6673,10 +6673,10 @@
         <v>120</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD46" t="n">
         <v>19</v>
@@ -6712,7 +6712,7 @@
         <v>10.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G47" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="H47" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="I47" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="J47" t="n">
         <v>3.45</v>
@@ -6763,16 +6763,16 @@
         <v>1.53</v>
       </c>
       <c r="M47" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O47" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P47" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q47" t="n">
         <v>2.46</v>
@@ -6781,31 +6781,31 @@
         <v>1.22</v>
       </c>
       <c r="S47" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T47" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U47" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W47" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="X47" t="n">
         <v>10.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z47" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AB47" t="n">
         <v>14.5</v>
@@ -6814,16 +6814,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD47" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE47" t="n">
         <v>48</v>
       </c>
       <c r="AF47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH47" t="n">
         <v>65</v>
@@ -6847,7 +6847,7 @@
         <v>270</v>
       </c>
       <c r="AO47" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H48" t="n">
         <v>7.4</v>
       </c>
       <c r="I48" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J48" t="n">
         <v>4</v>
@@ -6895,52 +6895,52 @@
         <v>4.2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M48" t="n">
         <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O48" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P48" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R48" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S48" t="n">
         <v>4.4</v>
       </c>
       <c r="T48" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U48" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V48" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W48" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="X48" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="n">
         <v>65</v>
       </c>
       <c r="AA48" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="AB48" t="n">
         <v>6.4</v>
@@ -6952,7 +6952,7 @@
         <v>32</v>
       </c>
       <c r="AE48" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF48" t="n">
         <v>7.8</v>
@@ -6967,10 +6967,10 @@
         <v>180</v>
       </c>
       <c r="AJ48" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL48" t="n">
         <v>55</v>
@@ -6982,7 +6982,7 @@
         <v>12.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G49" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I49" t="n">
         <v>1000</v>
       </c>
       <c r="J49" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="K49" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L49" t="n">
         <v>1.17</v>
@@ -7042,16 +7042,16 @@
         <v>1.08</v>
       </c>
       <c r="P49" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="R49" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>1.18</v>
+        <v>1.88</v>
       </c>
       <c r="T49" t="n">
         <v>1.03</v>
@@ -7060,10 +7060,10 @@
         <v>1.03</v>
       </c>
       <c r="V49" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W49" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="X49" t="n">
         <v>250</v>
@@ -7078,7 +7078,7 @@
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AC49" t="n">
         <v>980</v>
@@ -7114,7 +7114,7 @@
         <v>160</v>
       </c>
       <c r="AN49" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AO49" t="n">
         <v>110</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G51" t="n">
         <v>1.81</v>
       </c>
-      <c r="G51" t="n">
-        <v>1.97</v>
-      </c>
       <c r="H51" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="I51" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="J51" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K51" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L51" t="n">
         <v>1.44</v>
@@ -7306,34 +7306,34 @@
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="O51" t="n">
         <v>1.36</v>
       </c>
       <c r="P51" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R51" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S51" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="T51" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U51" t="n">
         <v>1.92</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.94</v>
       </c>
       <c r="V51" t="n">
         <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="X51" t="n">
         <v>15.5</v>
@@ -7348,10 +7348,10 @@
         <v>150</v>
       </c>
       <c r="AB51" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC51" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD51" t="n">
         <v>25</v>
@@ -7360,10 +7360,10 @@
         <v>240</v>
       </c>
       <c r="AF51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG51" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH51" t="n">
         <v>26</v>
@@ -7384,7 +7384,7 @@
         <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AO51" t="n">
         <v>300</v>
@@ -7420,58 +7420,58 @@
         <v>1.87</v>
       </c>
       <c r="G52" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H52" t="n">
         <v>4.6</v>
       </c>
       <c r="I52" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K52" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M52" t="n">
         <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P52" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R52" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S52" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T52" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="U52" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="V52" t="n">
         <v>1.23</v>
       </c>
       <c r="W52" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X52" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="Y52" t="n">
         <v>980</v>
@@ -7480,7 +7480,7 @@
         <v>980</v>
       </c>
       <c r="AA52" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB52" t="n">
         <v>16.5</v>
@@ -7495,7 +7495,7 @@
         <v>440</v>
       </c>
       <c r="AF52" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AG52" t="n">
         <v>40</v>
@@ -7552,112 +7552,112 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G53" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H53" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="I53" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="J53" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K53" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L53" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M53" t="n">
         <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="O53" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P53" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="R53" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S53" t="n">
-        <v>1.05</v>
+        <v>4</v>
       </c>
       <c r="T53" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U53" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V53" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W53" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G54" t="n">
         <v>1.45</v>
@@ -7696,16 +7696,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J54" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L54" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M54" t="n">
         <v>1.04</v>
@@ -7717,34 +7717,34 @@
         <v>1.23</v>
       </c>
       <c r="P54" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R54" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S54" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T54" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V54" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W54" t="n">
         <v>3.2</v>
       </c>
       <c r="X54" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y54" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z54" t="n">
         <v>990</v>
@@ -7753,7 +7753,7 @@
         <v>360</v>
       </c>
       <c r="AB54" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC54" t="n">
         <v>12</v>
@@ -7762,10 +7762,10 @@
         <v>34</v>
       </c>
       <c r="AE54" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG54" t="n">
         <v>10.5</v>
@@ -7786,7 +7786,7 @@
         <v>38</v>
       </c>
       <c r="AM54" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
         <v>5.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hong Kong Premier League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Eastern District SA</t>
+          <t>US Monastirienne</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kowloon City FC</t>
+          <t>Ben Guerdane</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7.4</v>
+        <v>1.53</v>
       </c>
       <c r="G2" t="n">
-        <v>8.4</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.44</v>
+        <v>7.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.48</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X2" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC2" t="n">
         <v>14</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AD2" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="n">
-        <v>13.5</v>
+        <v>100</v>
       </c>
       <c r="AI2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>540</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>790</v>
       </c>
       <c r="AN2" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -793,67 +793,67 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>US Monastirienne</t>
+          <t>Avenir S Marsa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ben Guerdane</t>
+          <t>Etoile Sportive Sahel</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.56</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
-        <v>1.61</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2</v>
+        <v>2.86</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>2.72</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>2.84</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N3" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.44</v>
+        <v>2.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="W3" t="n">
-        <v>2.62</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -862,52 +862,52 @@
         <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>26</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF3" t="n">
         <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="n">
         <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="AK3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>260</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO3" t="n">
         <v>980</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>540</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Avenir S Marsa</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Etoile Sportive Sahel</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.25</v>
+        <v>2.32</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>2.42</v>
       </c>
       <c r="H4" t="n">
-        <v>2.64</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.82</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="O4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.6</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.7</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.39</v>
-      </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>290</v>
+        <v>540</v>
       </c>
       <c r="AJ4" t="n">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.46</v>
+        <v>1.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.62</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>1.42</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>1.62</v>
       </c>
       <c r="J5" t="n">
-        <v>2.52</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.19</v>
       </c>
-      <c r="N5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.13</v>
-      </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
-        <v>2.3</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.63</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>2.6</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.1</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,78 +1193,78 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.49</v>
+        <v>2.82</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>1.05</v>
+        <v>6.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>2.24</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>2.42</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.1</v>
+        <v>1.93</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,22 +1273,22 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1297,10 +1297,10 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>1.63</v>
       </c>
       <c r="G7" t="n">
-        <v>2.52</v>
+        <v>1.68</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.84</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.25</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W7" t="n">
         <v>2.44</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.66</v>
-      </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB7" t="n">
         <v>7.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN7" t="n">
         <v>13</v>
       </c>
-      <c r="AH7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:10:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1.76</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>5.9</v>
+        <v>2.44</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>2.82</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.59</v>
       </c>
       <c r="W8" t="n">
-        <v>2.28</v>
+        <v>1.35</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>7.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.6</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="AL8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1598,105 +1598,105 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>2.58</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="P9" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.66</v>
+        <v>2.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="S9" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="V9" t="n">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.66</v>
       </c>
       <c r="X9" t="n">
-        <v>8.4</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.4</v>
+        <v>24</v>
       </c>
       <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
         <v>15</v>
       </c>
-      <c r="AA9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>10</v>
-      </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1705,7 +1705,7 @@
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1717,13 +1717,13 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.42</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>2.72</v>
+        <v>9.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>1.49</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>1.52</v>
       </c>
       <c r="J10" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.32</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.65</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.94</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>2.92</v>
       </c>
       <c r="W10" t="n">
-        <v>1.58</v>
+        <v>1.12</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>24</v>
+        <v>7.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.8</v>
+        <v>1.56</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>1.52</v>
+        <v>6.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.57</v>
+        <v>7.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>2.72</v>
+        <v>1.15</v>
       </c>
       <c r="W11" t="n">
-        <v>1.14</v>
+        <v>2.58</v>
       </c>
       <c r="X11" t="n">
         <v>14.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.6</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.5</v>
+        <v>240</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>440</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AH11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>260</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>130</v>
-      </c>
       <c r="AL11" t="n">
-        <v>470</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
         <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>170</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.6</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>FC Kosice</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="H12" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="I12" t="n">
-        <v>9.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>1.95</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.96</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>3.35</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG12" t="n">
         <v>11</v>
       </c>
-      <c r="AD12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>440</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="AL12" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,28 +2143,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>KFC Komarno</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Kosice</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.63</v>
+        <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>5.3</v>
+        <v>1.69</v>
       </c>
       <c r="I13" t="n">
-        <v>6.2</v>
+        <v>1.76</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
         <v>4.8</v>
@@ -2173,70 +2173,70 @@
         <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="T13" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>2.32</v>
       </c>
       <c r="W13" t="n">
-        <v>2.42</v>
+        <v>1.25</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2254,16 +2254,16 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>KFC Komarno</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S14" t="n">
         <v>4.5</v>
       </c>
-      <c r="G14" t="n">
-        <v>5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.56</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="U14" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="V14" t="n">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="W14" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="X14" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG14" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.25</v>
+        <v>1.63</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>1.64</v>
       </c>
       <c r="H15" t="n">
-        <v>2.42</v>
+        <v>7.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S15" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>2.56</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB15" t="n">
-        <v>70</v>
+        <v>6.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG15" t="n">
-        <v>80</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="I16" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V16" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="AB16" t="n">
         <v>6.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE16" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17">
@@ -2683,94 +2683,94 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="H17" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="T17" t="n">
         <v>2.24</v>
       </c>
       <c r="U17" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Z17" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AA17" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE17" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
@@ -2779,13 +2779,13 @@
         <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL17" t="n">
         <v>46</v>
@@ -2794,16 +2794,16 @@
         <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.49</v>
+        <v>3.5</v>
       </c>
       <c r="G18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S18" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>2.18</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="V18" t="n">
-        <v>1.12</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>1.39</v>
       </c>
       <c r="X18" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="n">
         <v>15</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AA18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF18" t="n">
         <v>25</v>
       </c>
-      <c r="Z18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AG18" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.6</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>240</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>3.55</v>
+        <v>7.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.26</v>
+        <v>1.53</v>
       </c>
       <c r="I19" t="n">
-        <v>2.28</v>
+        <v>1.54</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.82</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.66</v>
-      </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
-        <v>1.78</v>
+        <v>2.84</v>
       </c>
       <c r="W19" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AF19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG19" t="n">
         <v>25</v>
       </c>
-      <c r="AG19" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AK19" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AL19" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7.2</v>
+        <v>2.62</v>
       </c>
       <c r="G20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
         <v>7.4</v>
       </c>
-      <c r="H20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X20" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11</v>
-      </c>
       <c r="AD20" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="n">
         <v>90</v>
       </c>
-      <c r="AL20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>100</v>
-      </c>
       <c r="AN20" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>6.6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>13.5</v>
       </c>
       <c r="G21" t="n">
-        <v>2.62</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>1.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>1.26</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>7.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.07</v>
       </c>
-      <c r="N21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.61</v>
-      </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="Y21" t="n">
         <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AA21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG21" t="n">
         <v>48</v>
       </c>
-      <c r="AB21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12</v>
-      </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AI21" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AJ21" t="n">
-        <v>36</v>
+        <v>540</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="AO21" t="n">
-        <v>32</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>13.5</v>
+        <v>5.2</v>
       </c>
       <c r="G22" t="n">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.26</v>
+        <v>1.66</v>
       </c>
       <c r="J22" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="S22" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="T22" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="U22" t="n">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="V22" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="X22" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y22" t="n">
         <v>36</v>
       </c>
-      <c r="Y22" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Z22" t="n">
-        <v>9.199999999999999</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AB22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
         <v>17</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AF22" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ22" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="G23" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
-        <v>1.64</v>
+        <v>1.96</v>
       </c>
       <c r="I23" t="n">
-        <v>1.73</v>
+        <v>1.99</v>
       </c>
       <c r="J23" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="R23" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="S23" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="U23" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="V23" t="n">
-        <v>2.36</v>
+        <v>1.79</v>
       </c>
       <c r="W23" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
         <v>36</v>
       </c>
-      <c r="Z23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AG23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK23" t="n">
         <v>34</v>
       </c>
-      <c r="AF23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
-        <v>2.08</v>
+        <v>2.56</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2.72</v>
       </c>
       <c r="J24" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>7.2</v>
+        <v>3.45</v>
       </c>
       <c r="O24" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.45</v>
+        <v>2.12</v>
       </c>
       <c r="R24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.83</v>
       </c>
-      <c r="S24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.45</v>
-      </c>
       <c r="U24" t="n">
-        <v>3.15</v>
+        <v>2.06</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO24" t="n">
         <v>32</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>3.45</v>
+        <v>2.48</v>
       </c>
       <c r="H25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S25" t="n">
         <v>2.44</v>
       </c>
-      <c r="I25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.85</v>
-      </c>
       <c r="T25" t="n">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="U25" t="n">
-        <v>2.06</v>
+        <v>2.74</v>
       </c>
       <c r="V25" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="X25" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AA25" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
-        <v>70</v>
+        <v>19.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="AK25" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.26</v>
+        <v>1.55</v>
       </c>
       <c r="G26" t="n">
-        <v>2.34</v>
+        <v>1.58</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P26" t="n">
-        <v>2.52</v>
+        <v>3.15</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="S26" t="n">
-        <v>2.56</v>
+        <v>2.08</v>
       </c>
       <c r="T26" t="n">
         <v>1.55</v>
       </c>
       <c r="U26" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="V26" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="W26" t="n">
-        <v>1.75</v>
+        <v>2.72</v>
       </c>
       <c r="X26" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL26" t="n">
         <v>24</v>
       </c>
-      <c r="Y26" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>55</v>
-      </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="G27" t="n">
-        <v>1.76</v>
+        <v>2.28</v>
       </c>
       <c r="H27" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
         <v>4.9</v>
       </c>
       <c r="J27" t="n">
-        <v>4.6</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.25</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.05</v>
-      </c>
       <c r="Q27" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="R27" t="n">
-        <v>1.84</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>2.12</v>
+        <v>1.32</v>
       </c>
       <c r="T27" t="n">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="U27" t="n">
-        <v>2.6</v>
+        <v>1.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="X27" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
         <v>32</v>
       </c>
-      <c r="Y27" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>6</v>
-      </c>
       <c r="AO27" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>1.79</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.31</v>
+        <v>2.18</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S28" t="n">
-        <v>1.31</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="U28" t="n">
-        <v>1.03</v>
+        <v>1.85</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.76</v>
+        <v>2.26</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK28" t="n">
         <v>20</v>
       </c>
-      <c r="Z28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="G29" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="H29" t="n">
         <v>5.3</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N29" t="n">
-        <v>3.85</v>
+        <v>2.72</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="P29" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.96</v>
+        <v>2.72</v>
       </c>
       <c r="R29" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="S29" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.86</v>
+        <v>2.18</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="V29" t="n">
         <v>1.22</v>
       </c>
       <c r="W29" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="X29" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="n">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB29" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
         <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG29" t="n">
         <v>11</v>
       </c>
-      <c r="AG29" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH29" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AL29" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="AN29" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>2.72</v>
       </c>
       <c r="G30" t="n">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>2.94</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>3.05</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L30" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="M30" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="O30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.55</v>
       </c>
-      <c r="P30" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.94</v>
-      </c>
       <c r="X30" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE30" t="n">
         <v>34</v>
       </c>
-      <c r="AA30" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>90</v>
-      </c>
       <c r="AF30" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AK30" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,126 +4568,126 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.7</v>
+        <v>1.89</v>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
-        <v>2.94</v>
+        <v>5.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.05</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N31" t="n">
         <v>3.3</v>
       </c>
-      <c r="L31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.6</v>
-      </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="P31" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R31" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="U31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W31" t="n">
         <v>2.1</v>
       </c>
-      <c r="V31" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.55</v>
-      </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD31" t="n">
         <v>21</v>
       </c>
-      <c r="AA31" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>13</v>
-      </c>
       <c r="AE31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
         <v>85</v>
       </c>
-      <c r="AF31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>50</v>
-      </c>
       <c r="AJ31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL31" t="n">
         <v>44</v>
       </c>
-      <c r="AK31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>48</v>
-      </c>
       <c r="AM31" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="H32" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I32" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>3.3</v>
+        <v>2.78</v>
       </c>
       <c r="O32" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="P32" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="U32" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="V32" t="n">
         <v>1.23</v>
       </c>
       <c r="W32" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y32" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z32" t="n">
         <v>38</v>
       </c>
       <c r="AA32" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC32" t="n">
         <v>7.8</v>
       </c>
       <c r="AD32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>21</v>
       </c>
-      <c r="AE32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH32" t="n">
+      <c r="AK32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN32" t="n">
         <v>21</v>
       </c>
-      <c r="AI32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>16</v>
-      </c>
       <c r="AO32" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.92</v>
+        <v>1.43</v>
       </c>
       <c r="G33" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="H33" t="n">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>5.4</v>
+        <v>9.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="M33" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>2.82</v>
+        <v>4.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="P33" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.6</v>
+        <v>1.81</v>
       </c>
       <c r="R33" t="n">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="S33" t="n">
-        <v>5.3</v>
+        <v>3.05</v>
       </c>
       <c r="T33" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="U33" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="V33" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>2.06</v>
+        <v>3.25</v>
       </c>
       <c r="X33" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="Z33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL33" t="n">
         <v>38</v>
       </c>
-      <c r="AA33" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="AM33" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN33" t="n">
         <v>6.6</v>
       </c>
-      <c r="AC33" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>21</v>
-      </c>
       <c r="AO33" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.43</v>
+        <v>2.76</v>
       </c>
       <c r="G34" t="n">
-        <v>1.44</v>
+        <v>2.88</v>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>2.74</v>
       </c>
       <c r="I34" t="n">
-        <v>9.199999999999999</v>
+        <v>2.84</v>
       </c>
       <c r="J34" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="L34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.37</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.26</v>
-      </c>
       <c r="P34" t="n">
-        <v>2.22</v>
+        <v>1.87</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="T34" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="U34" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V34" t="n">
-        <v>1.12</v>
+        <v>1.54</v>
       </c>
       <c r="W34" t="n">
-        <v>3.25</v>
+        <v>1.53</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
-        <v>80</v>
+        <v>18.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AC34" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE34" t="n">
         <v>32</v>
       </c>
-      <c r="AE34" t="n">
-        <v>140</v>
-      </c>
       <c r="AF34" t="n">
-        <v>8.4</v>
+        <v>18.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11.5</v>
+        <v>46</v>
       </c>
       <c r="AK34" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AL34" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM34" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>6.6</v>
+        <v>30</v>
       </c>
       <c r="AO34" t="n">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="G35" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.74</v>
+        <v>2.32</v>
       </c>
       <c r="I35" t="n">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K35" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>1.86</v>
+        <v>2.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>3.75</v>
+        <v>2.92</v>
       </c>
       <c r="T35" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="U35" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="V35" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="W35" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="X35" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y35" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Z35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD35" t="n">
         <v>11</v>
       </c>
-      <c r="Z35" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>13</v>
-      </c>
       <c r="AE35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI35" t="n">
         <v>32</v>
       </c>
-      <c r="AF35" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>46</v>
-      </c>
       <c r="AJ35" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL35" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="n">
         <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO35" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="G36" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
-        <v>2.32</v>
+        <v>1.88</v>
       </c>
       <c r="I36" t="n">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="J36" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K36" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R36" t="n">
         <v>1.36</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S36" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="T36" t="n">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="U36" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="W36" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="X36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG36" t="n">
         <v>19</v>
       </c>
-      <c r="Y36" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>14</v>
-      </c>
       <c r="AH36" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI36" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AL36" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AM36" t="n">
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AO36" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.8</v>
+        <v>1.24</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="H37" t="n">
-        <v>1.83</v>
+        <v>13</v>
       </c>
       <c r="I37" t="n">
-        <v>1.85</v>
+        <v>14</v>
       </c>
       <c r="J37" t="n">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>3.85</v>
+        <v>8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="P37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S37" t="n">
         <v>1.98</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.55</v>
       </c>
       <c r="T37" t="n">
         <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V37" t="n">
-        <v>2.16</v>
+        <v>1.07</v>
       </c>
       <c r="W37" t="n">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.6</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="n">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="AA37" t="n">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="AB37" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="AD37" t="n">
-        <v>9.6</v>
+        <v>60</v>
       </c>
       <c r="AE37" t="n">
-        <v>19.5</v>
+        <v>210</v>
       </c>
       <c r="AF37" t="n">
-        <v>38</v>
+        <v>10.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI37" t="n">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM37" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>80</v>
+        <v>3.35</v>
       </c>
       <c r="AO37" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.18</v>
+        <v>2.08</v>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>2.12</v>
       </c>
       <c r="H38" t="n">
-        <v>18.5</v>
+        <v>3.65</v>
       </c>
       <c r="I38" t="n">
-        <v>19.5</v>
+        <v>3.85</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="K38" t="n">
-        <v>9.6</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O38" t="n">
         <v>1.21</v>
       </c>
-      <c r="M38" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N38" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.12</v>
-      </c>
       <c r="P38" t="n">
-        <v>3.6</v>
+        <v>2.48</v>
       </c>
       <c r="Q38" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V38" t="n">
         <v>1.35</v>
       </c>
-      <c r="R38" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.05</v>
-      </c>
       <c r="W38" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="X38" t="n">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="n">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH38" t="n">
         <v>15</v>
       </c>
-      <c r="AC38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>360</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI38" t="n">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="AJ38" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AK38" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM38" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="AN38" t="n">
-        <v>2.92</v>
+        <v>12</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Galway Utd</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="G39" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="I39" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P39" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="R39" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="S39" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="T39" t="n">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="U39" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="V39" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="X39" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AA39" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AB39" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AC39" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD39" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE39" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AF39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN39" t="n">
         <v>16</v>
       </c>
-      <c r="AG39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM39" t="n">
+      <c r="AO39" t="n">
         <v>85</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Galway Utd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="G40" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="H40" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="O40" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>1.85</v>
+        <v>2.64</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="R40" t="n">
-        <v>1.31</v>
+        <v>1.66</v>
       </c>
       <c r="S40" t="n">
-        <v>3.9</v>
+        <v>2.44</v>
       </c>
       <c r="T40" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="U40" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="V40" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="W40" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="X40" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Y40" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF40" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z40" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD40" t="n">
+      <c r="AG40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AO40" t="n">
         <v>22</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,126 +5918,126 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S41" t="n">
         <v>3.5</v>
       </c>
-      <c r="I41" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N41" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T41" t="n">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="U41" t="n">
-        <v>2.7</v>
+        <v>2.22</v>
       </c>
       <c r="V41" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="W41" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="X41" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z41" t="n">
         <v>25</v>
       </c>
-      <c r="Y41" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>50</v>
-      </c>
       <c r="AA41" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB41" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD41" t="n">
         <v>15</v>
       </c>
       <c r="AE41" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AF41" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AG41" t="n">
         <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AJ41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK41" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AL41" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AN41" t="n">
-        <v>9.4</v>
+        <v>16.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.28</v>
+        <v>2.66</v>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.45</v>
+        <v>2.76</v>
       </c>
       <c r="I42" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K42" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L42" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="O42" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P42" t="n">
-        <v>1.97</v>
+        <v>2.26</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="R42" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="S42" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="T42" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="U42" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="V42" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="W42" t="n">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="X42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y42" t="n">
         <v>14</v>
       </c>
-      <c r="Y42" t="n">
-        <v>13</v>
-      </c>
       <c r="Z42" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK42" t="n">
         <v>26</v>
       </c>
-      <c r="AA42" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>24</v>
-      </c>
       <c r="AL42" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN42" t="n">
         <v>18.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="43">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.66</v>
+        <v>1.25</v>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>1.26</v>
       </c>
       <c r="H43" t="n">
-        <v>2.76</v>
+        <v>15</v>
       </c>
       <c r="I43" t="n">
-        <v>2.8</v>
+        <v>15.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="K43" t="n">
-        <v>3.75</v>
+        <v>7.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V43" t="n">
         <v>1.06</v>
       </c>
-      <c r="N43" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W43" t="n">
-        <v>1.58</v>
+        <v>4.8</v>
       </c>
       <c r="X43" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="Y43" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>690</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK43" t="n">
         <v>14</v>
       </c>
-      <c r="Z43" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ43" t="n">
+      <c r="AL43" t="n">
         <v>40</v>
       </c>
-      <c r="AK43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>34</v>
-      </c>
       <c r="AM43" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="AN43" t="n">
-        <v>18.5</v>
+        <v>4.3</v>
       </c>
       <c r="AO43" t="n">
-        <v>19.5</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F44" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W44" t="n">
         <v>1.25</v>
       </c>
-      <c r="G44" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H44" t="n">
-        <v>15</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N44" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W44" t="n">
-        <v>4.8</v>
-      </c>
       <c r="X44" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Y44" t="n">
-        <v>46</v>
+        <v>10.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>160</v>
+        <v>11.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>750</v>
+        <v>19</v>
       </c>
       <c r="AB44" t="n">
-        <v>9.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="AC44" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AD44" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN44" t="n">
         <v>55</v>
       </c>
-      <c r="AE44" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ44" t="n">
+      <c r="AO44" t="n">
         <v>9</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>340</v>
       </c>
     </row>
     <row r="45">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>1.79</v>
       </c>
       <c r="G45" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I45" t="n">
         <v>5.1</v>
       </c>
-      <c r="H45" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.79</v>
-      </c>
       <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
         <v>4.1</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N45" t="n">
         <v>4.2</v>
       </c>
-      <c r="L45" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N45" t="n">
-        <v>4.9</v>
-      </c>
       <c r="O45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V45" t="n">
         <v>1.24</v>
       </c>
-      <c r="P45" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2.26</v>
-      </c>
       <c r="W45" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="X45" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y45" t="n">
         <v>19</v>
       </c>
-      <c r="Y45" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Z45" t="n">
-        <v>11.5</v>
+        <v>38</v>
       </c>
       <c r="AA45" t="n">
-        <v>18.5</v>
+        <v>120</v>
       </c>
       <c r="AB45" t="n">
-        <v>21</v>
+        <v>9.4</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD45" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="AE45" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AF45" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG45" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="AH45" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI45" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AJ45" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="AK45" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AM45" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN45" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="AO45" t="n">
-        <v>8.800000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F46" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.82</v>
       </c>
-      <c r="G46" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4.9</v>
-      </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>1.88</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="K46" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L46" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N46" t="n">
-        <v>4.3</v>
+        <v>2.96</v>
       </c>
       <c r="O46" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="P46" t="n">
-        <v>2.12</v>
+        <v>1.64</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="R46" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="S46" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="T46" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="U46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V46" t="n">
         <v>2.14</v>
       </c>
-      <c r="V46" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W46" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="X46" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Y46" t="n">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="Z46" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="AA46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK46" t="n">
         <v>120</v>
       </c>
-      <c r="AB46" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL46" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="AM46" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>10.5</v>
+        <v>170</v>
       </c>
       <c r="AO46" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="G47" t="n">
-        <v>5.3</v>
+        <v>1.62</v>
       </c>
       <c r="H47" t="n">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="I47" t="n">
-        <v>1.96</v>
+        <v>7.8</v>
       </c>
       <c r="J47" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="P47" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="R47" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S47" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="T47" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="U47" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="V47" t="n">
-        <v>2.04</v>
+        <v>1.15</v>
       </c>
       <c r="W47" t="n">
-        <v>1.23</v>
+        <v>2.6</v>
       </c>
       <c r="X47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG47" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y47" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB47" t="n">
+      <c r="AH47" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC47" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>330</v>
-      </c>
       <c r="AK47" t="n">
-        <v>530</v>
+        <v>19.5</v>
       </c>
       <c r="AL47" t="n">
-        <v>540</v>
+        <v>55</v>
       </c>
       <c r="AM47" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="AN47" t="n">
-        <v>270</v>
+        <v>12.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>20</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="G48" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="H48" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="I48" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="K48" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="L48" t="n">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="M48" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="P48" t="n">
-        <v>1.73</v>
+        <v>3.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.28</v>
+        <v>1.35</v>
       </c>
       <c r="R48" t="n">
-        <v>1.26</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
-        <v>4.4</v>
+        <v>1.89</v>
       </c>
       <c r="T48" t="n">
-        <v>2.32</v>
+        <v>1.03</v>
       </c>
       <c r="U48" t="n">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="V48" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W48" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="X48" t="n">
-        <v>11.5</v>
+        <v>250</v>
       </c>
       <c r="Y48" t="n">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="Z48" t="n">
-        <v>65</v>
+        <v>420</v>
       </c>
       <c r="AA48" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD48" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AE48" t="n">
+        <v>380</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM48" t="n">
         <v>160</v>
       </c>
-      <c r="AF48" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>250</v>
-      </c>
       <c r="AN48" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AO48" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Argentinian Primera C</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,60 +6998,60 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:05:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>CA Ituzaingo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Deportivo Espanol</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="G49" t="n">
-        <v>1.52</v>
+        <v>110</v>
       </c>
       <c r="H49" t="n">
-        <v>4.2</v>
+        <v>2.42</v>
       </c>
       <c r="I49" t="n">
         <v>1000</v>
       </c>
       <c r="J49" t="n">
-        <v>5.2</v>
+        <v>2.52</v>
       </c>
       <c r="K49" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="L49" t="n">
-        <v>1.17</v>
+        <v>1.61</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N49" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="O49" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="P49" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>1.12</v>
       </c>
       <c r="S49" t="n">
-        <v>1.88</v>
+        <v>2.28</v>
       </c>
       <c r="T49" t="n">
         <v>1.03</v>
@@ -7060,34 +7060,34 @@
         <v>1.03</v>
       </c>
       <c r="V49" t="n">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="W49" t="n">
-        <v>2.6</v>
+        <v>1.52</v>
       </c>
       <c r="X49" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA49" t="n">
         <v>250</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>420</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1000</v>
       </c>
       <c r="AB49" t="n">
         <v>980</v>
       </c>
       <c r="AC49" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD49" t="n">
         <v>980</v>
       </c>
-      <c r="AD49" t="n">
-        <v>55</v>
-      </c>
       <c r="AE49" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="AF49" t="n">
         <v>980</v>
@@ -7096,34 +7096,34 @@
         <v>980</v>
       </c>
       <c r="AH49" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AI49" t="n">
-        <v>130</v>
+        <v>540</v>
       </c>
       <c r="AJ49" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK49" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AL49" t="n">
-        <v>980</v>
+        <v>450</v>
       </c>
       <c r="AM49" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>29</v>
+        <v>600</v>
       </c>
       <c r="AO49" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Argentinian Primera C</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,126 +7133,126 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>20:05:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CA Ituzaingo</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Deportivo Espanol</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.02</v>
+        <v>1.67</v>
       </c>
       <c r="G50" t="n">
-        <v>1000</v>
+        <v>1.72</v>
       </c>
       <c r="H50" t="n">
-        <v>1.02</v>
+        <v>6.2</v>
       </c>
       <c r="I50" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J50" t="n">
-        <v>1.02</v>
+        <v>3.7</v>
       </c>
       <c r="K50" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.1</v>
+        <v>1.92</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R50" t="n">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="S50" t="n">
-        <v>1.05</v>
+        <v>3.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="U50" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="V50" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W50" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51">
@@ -7273,121 +7273,121 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G51" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="H51" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I51" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J51" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K51" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L51" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O51" t="n">
         <v>1.36</v>
       </c>
       <c r="P51" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R51" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S51" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T51" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U51" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V51" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W51" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="X51" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Y51" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Z51" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA51" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB51" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="AD51" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AE51" t="n">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="AF51" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AG51" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AH51" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI51" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AJ51" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK51" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL51" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AM51" t="n">
         <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>15.5</v>
+        <v>85</v>
       </c>
       <c r="AO51" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="G52" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="H52" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K52" t="n">
         <v>3.8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M52" t="n">
         <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O52" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P52" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R52" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T52" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="U52" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="V52" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W52" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X52" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y52" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z52" t="n">
         <v>980</v>
       </c>
       <c r="AA52" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AB52" t="n">
-        <v>16.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC52" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE52" t="n">
-        <v>440</v>
+        <v>110</v>
       </c>
       <c r="AF52" t="n">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="AG52" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI52" t="n">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AK52" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL52" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AM52" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN52" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AO52" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,261 +7538,126 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>22:20:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="G53" t="n">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="H53" t="n">
-        <v>4.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>5.9</v>
+        <v>9.6</v>
       </c>
       <c r="J53" t="n">
-        <v>3.55</v>
+        <v>5.1</v>
       </c>
       <c r="K53" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="L53" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="M53" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
+        <v>5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W53" t="n">
         <v>3.3</v>
       </c>
-      <c r="O53" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W53" t="n">
-        <v>2.14</v>
-      </c>
       <c r="X53" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y53" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Z53" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="AB53" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AE53" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AF53" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AG53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH53" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI53" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ53" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AK53" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM53" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AN53" t="n">
-        <v>18</v>
+        <v>5.8</v>
       </c>
       <c r="AO53" t="n">
         <v>150</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2025-10-29</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>23:30:00</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Los Angeles FC</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Austin FC</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H54" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N54" t="n">
-        <v>5</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W54" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X54" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>990</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,76 +667,76 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.6</v>
       </c>
-      <c r="H2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.59</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
         <v>980</v>
       </c>
-      <c r="Y2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>170</v>
-      </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
         <v>980</v>
@@ -745,31 +745,31 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Avenir S Marsa</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Etoile Sportive Sahel</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>15.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>990</v>
       </c>
       <c r="H3" t="n">
-        <v>2.86</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>17.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.72</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.84</v>
+        <v>1.17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O3" t="n">
+        <v>130</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>130</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>130</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X3" t="n">
         <v>1.15</v>
       </c>
-      <c r="N3" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>980</v>
-      </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>850</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>850</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>2.42</v>
+        <v>44</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1.47</v>
       </c>
       <c r="I4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.8</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.05</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.28</v>
+        <v>1.02</v>
       </c>
       <c r="O4" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>7.2</v>
+        <v>1.02</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,117 +1058,117 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.1</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>1.42</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.62</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.35</v>
       </c>
-      <c r="K5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.03</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="V5" t="n">
-        <v>2.6</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,102 +1193,102 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="P6" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.24</v>
+        <v>1.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="X6" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1297,19 +1297,19 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>17.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:10:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.63</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.47</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.18</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.08</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V7" t="n">
-        <v>1.16</v>
+        <v>1.64</v>
       </c>
       <c r="W7" t="n">
-        <v>2.44</v>
+        <v>1.35</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>7.4</v>
       </c>
       <c r="Z7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="n">
         <v>55</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL7" t="n">
         <v>240</v>
       </c>
-      <c r="AB7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>120</v>
-      </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="AO7" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1463,114 +1463,114 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>2.48</v>
       </c>
       <c r="H8" t="n">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
         <v>1.62</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="P8" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q8" t="n">
         <v>2.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V8" t="n">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="X8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AE8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AH8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>7.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>1.55</v>
       </c>
       <c r="I9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J9" t="n">
         <v>4.2</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.92</v>
-      </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.14</v>
       </c>
-      <c r="N9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.66</v>
-      </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>7.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>1.57</v>
       </c>
       <c r="G10" t="n">
-        <v>9.4</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>1.49</v>
+        <v>6.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.52</v>
+        <v>7.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2.92</v>
+        <v>1.15</v>
       </c>
       <c r="W10" t="n">
-        <v>1.12</v>
+        <v>2.6</v>
       </c>
       <c r="X10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>960</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>440</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>430</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AK10" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>330</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>160</v>
-      </c>
       <c r="AL10" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>FC Kosice</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.56</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>2.58</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AE11" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>KFC Komarno</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Kosice</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.58</v>
+        <v>5.6</v>
       </c>
       <c r="G12" t="n">
-        <v>1.63</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>5.6</v>
+        <v>1.57</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>1.62</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="S12" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.19</v>
+        <v>2.58</v>
       </c>
       <c r="W12" t="n">
-        <v>2.56</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK12" t="n">
         <v>70</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.4</v>
+        <v>60</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,117 +2138,117 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>KFC Komarno</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.69</v>
+        <v>2.42</v>
       </c>
       <c r="I13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.76</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.46</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.61</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>2.56</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="W13" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD13" t="n">
         <v>12</v>
       </c>
-      <c r="Z13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG13" t="n">
-        <v>38</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2257,13 +2257,13 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>1.66</v>
       </c>
       <c r="H14" t="n">
-        <v>2.44</v>
+        <v>7.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.58</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.95</v>
+        <v>2.24</v>
       </c>
       <c r="U14" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="V14" t="n">
-        <v>1.63</v>
+        <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>2.5</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="AB14" t="n">
-        <v>22</v>
+        <v>6.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>26</v>
       </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>60</v>
-      </c>
       <c r="AI14" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO14" t="n">
         <v>230</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>350</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="G15" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T15" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="W15" t="n">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="AB15" t="n">
         <v>6.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="H16" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
         <v>160</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG16" t="n">
         <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL16" t="n">
         <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.43</v>
+        <v>3.65</v>
       </c>
       <c r="G17" t="n">
-        <v>1.44</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>2.18</v>
       </c>
       <c r="I17" t="n">
-        <v>10.5</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="S17" t="n">
-        <v>3.45</v>
+        <v>2.88</v>
       </c>
       <c r="T17" t="n">
-        <v>2.24</v>
+        <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>1.79</v>
+        <v>2.46</v>
       </c>
       <c r="V17" t="n">
-        <v>1.11</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>3.25</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
         <v>27</v>
       </c>
-      <c r="Z17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>410</v>
-      </c>
       <c r="AB17" t="n">
-        <v>7.2</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD17" t="n">
         <v>11</v>
       </c>
-      <c r="AD17" t="n">
-        <v>36</v>
-      </c>
       <c r="AE17" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.4</v>
+        <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.4</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>260</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="G18" t="n">
-        <v>3.55</v>
+        <v>7.6</v>
       </c>
       <c r="H18" t="n">
-        <v>2.26</v>
+        <v>1.51</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>1.52</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S18" t="n">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>2.92</v>
       </c>
       <c r="W18" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA18" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH18" t="n">
         <v>21</v>
       </c>
-      <c r="AF18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="AK18" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AL18" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AO18" t="n">
-        <v>14.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>2.72</v>
       </c>
       <c r="G19" t="n">
-        <v>7.4</v>
+        <v>2.74</v>
       </c>
       <c r="H19" t="n">
-        <v>1.53</v>
+        <v>2.96</v>
       </c>
       <c r="I19" t="n">
-        <v>1.54</v>
+        <v>2.98</v>
       </c>
       <c r="J19" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.32</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.56</v>
-      </c>
       <c r="S19" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.15</v>
+        <v>1.57</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
-        <v>27</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.62</v>
+        <v>13.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.64</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>1.24</v>
       </c>
       <c r="I20" t="n">
-        <v>3.05</v>
+        <v>1.25</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>7.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.04</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.48</v>
+        <v>5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.6</v>
+        <v>1.07</v>
       </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
         <v>12</v>
       </c>
-      <c r="Z20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>34</v>
-      </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AJ20" t="n">
-        <v>38</v>
+        <v>590</v>
       </c>
       <c r="AK20" t="n">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AM20" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="AO20" t="n">
-        <v>34</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>13.5</v>
+        <v>5.3</v>
       </c>
       <c r="G21" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="I21" t="n">
-        <v>1.26</v>
+        <v>1.66</v>
       </c>
       <c r="J21" t="n">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="R21" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="S21" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="T21" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="V21" t="n">
-        <v>4.8</v>
+        <v>2.48</v>
       </c>
       <c r="W21" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="X21" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI21" t="n">
         <v>55</v>
       </c>
-      <c r="AC21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="I22" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="R22" t="n">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="T22" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="U22" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Y22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF22" t="n">
         <v>36</v>
       </c>
-      <c r="Z22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AG22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL22" t="n">
         <v>34</v>
       </c>
-      <c r="AF22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="I23" t="n">
-        <v>1.99</v>
+        <v>2.72</v>
       </c>
       <c r="J23" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC23" t="n">
         <v>7.6</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X23" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y23" t="n">
+      <c r="AD23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH23" t="n">
         <v>18</v>
       </c>
-      <c r="Z23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>14</v>
-      </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AM23" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>7.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.05</v>
+        <v>2.46</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>2.52</v>
       </c>
       <c r="H24" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="I24" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>1.8</v>
+        <v>2.68</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>3.85</v>
+        <v>2.42</v>
       </c>
       <c r="T24" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="U24" t="n">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="V24" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="W24" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="X24" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN24" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>48</v>
-      </c>
       <c r="AO24" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>1.52</v>
       </c>
       <c r="G25" t="n">
-        <v>2.48</v>
+        <v>1.54</v>
       </c>
       <c r="H25" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>5.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="P25" t="n">
-        <v>2.66</v>
+        <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.59</v>
+        <v>1.42</v>
       </c>
       <c r="R25" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="S25" t="n">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="T25" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U25" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="V25" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>1.67</v>
+        <v>2.84</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.5</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
         <v>25</v>
       </c>
-      <c r="AA25" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB25" t="n">
+      <c r="AE25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>16</v>
       </c>
-      <c r="AC25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>36</v>
-      </c>
       <c r="AK25" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>4.7</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="G26" t="n">
-        <v>1.58</v>
+        <v>2.24</v>
       </c>
       <c r="H26" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J26" t="n">
-        <v>4.9</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
-        <v>5.3</v>
+        <v>500</v>
       </c>
       <c r="L26" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.13</v>
+        <v>1.46</v>
       </c>
       <c r="P26" t="n">
-        <v>3.15</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R26" t="n">
-        <v>1.88</v>
+        <v>1.23</v>
       </c>
       <c r="S26" t="n">
-        <v>2.08</v>
+        <v>1.46</v>
       </c>
       <c r="T26" t="n">
-        <v>1.55</v>
+        <v>1.03</v>
       </c>
       <c r="U26" t="n">
-        <v>2.66</v>
+        <v>1.03</v>
       </c>
       <c r="V26" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="W26" t="n">
-        <v>2.72</v>
+        <v>1.81</v>
       </c>
       <c r="X26" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G27" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1</v>
+        <v>2.86</v>
       </c>
       <c r="O27" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.32</v>
+        <v>2.58</v>
       </c>
       <c r="R27" t="n">
         <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>1.32</v>
+        <v>5.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.03</v>
+        <v>1.77</v>
       </c>
       <c r="V27" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="X27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y27" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG27" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AN27" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.75</v>
+        <v>2.68</v>
       </c>
       <c r="G28" t="n">
-        <v>1.79</v>
+        <v>2.78</v>
       </c>
       <c r="H28" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S28" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="W28" t="n">
-        <v>2.26</v>
+        <v>1.56</v>
       </c>
       <c r="X28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.6</v>
+        <v>16.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AK28" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AL28" t="n">
         <v>46</v>
       </c>
       <c r="AM28" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AO28" t="n">
-        <v>600</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -4303,118 +4303,118 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="G29" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>5.3</v>
       </c>
       <c r="I29" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>2.72</v>
+        <v>3.55</v>
       </c>
       <c r="O29" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.72</v>
+        <v>2.06</v>
       </c>
       <c r="R29" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="U29" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="V29" t="n">
         <v>1.22</v>
       </c>
       <c r="W29" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="X29" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA29" t="n">
         <v>150</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH29" t="n">
         <v>22</v>
       </c>
-      <c r="AE29" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>26</v>
-      </c>
       <c r="AI29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM29" t="n">
         <v>130</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>220</v>
-      </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AO29" t="n">
         <v>160</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,126 +4433,126 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.72</v>
+        <v>1.9</v>
       </c>
       <c r="G30" t="n">
-        <v>2.8</v>
+        <v>1.92</v>
       </c>
       <c r="H30" t="n">
-        <v>2.94</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="U30" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="V30" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="W30" t="n">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD30" t="n">
         <v>20</v>
       </c>
-      <c r="AA30" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE30" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AJ30" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H31" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I31" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N31" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="P31" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="R31" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="S31" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="U31" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="V31" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W31" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y31" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z31" t="n">
         <v>38</v>
       </c>
       <c r="AA31" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC31" t="n">
         <v>7.8</v>
       </c>
       <c r="AD31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>21</v>
       </c>
-      <c r="AE31" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH31" t="n">
+      <c r="AK31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN31" t="n">
         <v>21</v>
       </c>
-      <c r="AI31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>16</v>
-      </c>
       <c r="AO31" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="G32" t="n">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="H32" t="n">
-        <v>5.3</v>
+        <v>9.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="M32" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>2.78</v>
+        <v>4.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.54</v>
+        <v>1.26</v>
       </c>
       <c r="P32" t="n">
-        <v>1.59</v>
+        <v>2.22</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.64</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="S32" t="n">
-        <v>5.5</v>
+        <v>3.05</v>
       </c>
       <c r="T32" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="U32" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V32" t="n">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="W32" t="n">
-        <v>2.06</v>
+        <v>3.25</v>
       </c>
       <c r="X32" t="n">
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="Z32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL32" t="n">
         <v>38</v>
       </c>
-      <c r="AA32" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>60</v>
-      </c>
       <c r="AM32" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="AN32" t="n">
-        <v>21</v>
+        <v>6.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.43</v>
+        <v>2.88</v>
       </c>
       <c r="G33" t="n">
-        <v>1.44</v>
+        <v>2.98</v>
       </c>
       <c r="H33" t="n">
-        <v>9.199999999999999</v>
+        <v>2.66</v>
       </c>
       <c r="I33" t="n">
-        <v>9.4</v>
+        <v>2.76</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="O33" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="P33" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="R33" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="S33" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="U33" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="V33" t="n">
-        <v>1.11</v>
+        <v>1.57</v>
       </c>
       <c r="W33" t="n">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="X33" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>80</v>
+        <v>17.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK33" t="n">
         <v>34</v>
       </c>
-      <c r="AE33" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH33" t="n">
+      <c r="AL33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO33" t="n">
         <v>27</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>190</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="G34" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.84</v>
+        <v>2.34</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L34" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>1.87</v>
+        <v>2.36</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.1</v>
+        <v>1.71</v>
       </c>
       <c r="R34" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="T34" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="U34" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="V34" t="n">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="W34" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD34" t="n">
         <v>11</v>
       </c>
-      <c r="Z34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>13</v>
-      </c>
       <c r="AE34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI34" t="n">
         <v>32</v>
       </c>
-      <c r="AF34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>160</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AK34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL34" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN34" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO34" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -5113,79 +5113,79 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H35" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="I35" t="n">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="J35" t="n">
         <v>3.75</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O35" t="n">
         <v>1.34</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.25</v>
-      </c>
       <c r="P35" t="n">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="R35" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="S35" t="n">
-        <v>2.92</v>
+        <v>3.65</v>
       </c>
       <c r="T35" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="U35" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="V35" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="W35" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="X35" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z35" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AB35" t="n">
         <v>15.5</v>
@@ -5194,37 +5194,37 @@
         <v>8.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF35" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AG35" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AH35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI35" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ35" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK35" t="n">
         <v>55</v>
       </c>
-      <c r="AK35" t="n">
-        <v>32</v>
-      </c>
       <c r="AL35" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AM35" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN35" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AO35" t="n">
         <v>15</v>
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.6</v>
+        <v>1.22</v>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>1.23</v>
       </c>
       <c r="H36" t="n">
-        <v>1.88</v>
+        <v>14.5</v>
       </c>
       <c r="I36" t="n">
+        <v>15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S36" t="n">
         <v>1.91</v>
       </c>
-      <c r="J36" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M36" t="n">
+      <c r="T36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V36" t="n">
         <v>1.07</v>
       </c>
-      <c r="N36" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.08</v>
-      </c>
       <c r="W36" t="n">
-        <v>1.27</v>
+        <v>5.3</v>
       </c>
       <c r="X36" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.6</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>540</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>95</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>11</v>
       </c>
-      <c r="AA36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI36" t="n">
+      <c r="AK36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL36" t="n">
         <v>38</v>
       </c>
-      <c r="AJ36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>70</v>
-      </c>
       <c r="AM36" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN36" t="n">
-        <v>70</v>
+        <v>3.1</v>
       </c>
       <c r="AO36" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="G37" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="H37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="X37" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB37" t="n">
         <v>13</v>
       </c>
-      <c r="I37" t="n">
-        <v>14</v>
-      </c>
-      <c r="J37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W37" t="n">
-        <v>5</v>
-      </c>
-      <c r="X37" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>14</v>
-      </c>
       <c r="AC37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK37" t="n">
         <v>20</v>
       </c>
-      <c r="AD37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>13</v>
-      </c>
       <c r="AL37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM37" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.35</v>
+        <v>11.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,126 +5513,126 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G38" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H38" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I38" t="n">
         <v>3.65</v>
       </c>
-      <c r="I38" t="n">
-        <v>3.85</v>
-      </c>
       <c r="J38" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L38" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P38" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="Q38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W38" t="n">
         <v>1.63</v>
       </c>
-      <c r="R38" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.9</v>
-      </c>
       <c r="X38" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
         <v>20</v>
       </c>
       <c r="Z38" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB38" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE38" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF38" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
         <v>15</v>
       </c>
       <c r="AI38" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK38" t="n">
         <v>19</v>
       </c>
       <c r="AL38" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM38" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AN38" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO38" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="H39" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I39" t="n">
         <v>5.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K39" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M39" t="n">
         <v>1.08</v>
@@ -5689,16 +5689,16 @@
         <v>3.45</v>
       </c>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P39" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q39" t="n">
         <v>2.16</v>
       </c>
       <c r="R39" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S39" t="n">
         <v>3.95</v>
@@ -5707,52 +5707,52 @@
         <v>1.97</v>
       </c>
       <c r="U39" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V39" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W39" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="X39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z39" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AB39" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AE39" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH39" t="n">
         <v>22</v>
       </c>
       <c r="AI39" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AJ39" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK39" t="n">
         <v>21</v>
@@ -5761,19 +5761,19 @@
         <v>42</v>
       </c>
       <c r="AM39" t="n">
-        <v>130</v>
+        <v>390</v>
       </c>
       <c r="AN39" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,126 +5783,126 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:05:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="G40" t="n">
-        <v>2.12</v>
+        <v>1.26</v>
       </c>
       <c r="H40" t="n">
-        <v>3.55</v>
+        <v>14.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="K40" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W40" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X40" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>730</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN40" t="n">
         <v>4.2</v>
       </c>
-      <c r="L40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N40" t="n">
-        <v>6</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X40" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AO40" t="n">
-        <v>22</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.18</v>
+        <v>4.8</v>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>1.79</v>
       </c>
       <c r="I41" t="n">
-        <v>3.75</v>
+        <v>1.81</v>
       </c>
       <c r="J41" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L41" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P41" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="R41" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="S41" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="T41" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="U41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V41" t="n">
         <v>2.22</v>
       </c>
-      <c r="V41" t="n">
-        <v>1.36</v>
-      </c>
       <c r="W41" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="X41" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>70</v>
+        <v>18.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD41" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE41" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AH41" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL41" t="n">
         <v>55</v>
       </c>
-      <c r="AJ41" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>38</v>
-      </c>
       <c r="AM41" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AO41" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.66</v>
+        <v>1.8</v>
       </c>
       <c r="G42" t="n">
-        <v>2.7</v>
+        <v>1.81</v>
       </c>
       <c r="H42" t="n">
-        <v>2.76</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="O42" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="P42" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="R42" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="S42" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="U42" t="n">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="V42" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="W42" t="n">
-        <v>1.58</v>
+        <v>2.22</v>
       </c>
       <c r="X42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y42" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y42" t="n">
-        <v>14</v>
-      </c>
       <c r="Z42" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AB42" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD42" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE42" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AF42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH42" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>15</v>
-      </c>
       <c r="AI42" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AJ42" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AK42" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AL42" t="n">
         <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN42" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AO42" t="n">
-        <v>19.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F43" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O43" t="n">
         <v>1.25</v>
       </c>
-      <c r="G43" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H43" t="n">
-        <v>15</v>
-      </c>
-      <c r="I43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.2</v>
-      </c>
       <c r="P43" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="R43" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="S43" t="n">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="T43" t="n">
-        <v>2.24</v>
+        <v>1.66</v>
       </c>
       <c r="U43" t="n">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="V43" t="n">
-        <v>1.06</v>
+        <v>1.58</v>
       </c>
       <c r="W43" t="n">
-        <v>4.8</v>
+        <v>1.56</v>
       </c>
       <c r="X43" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>46</v>
+        <v>13.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="n">
-        <v>690</v>
+        <v>40</v>
       </c>
       <c r="AB43" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>15.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>260</v>
+        <v>26</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.4</v>
+        <v>19.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI43" t="n">
         <v>34</v>
       </c>
-      <c r="AI43" t="n">
-        <v>200</v>
-      </c>
       <c r="AJ43" t="n">
-        <v>9.199999999999999</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AL43" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.3</v>
+        <v>19.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>340</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4.9</v>
+        <v>2.18</v>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T44" t="n">
         <v>1.79</v>
       </c>
-      <c r="I44" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N44" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.73</v>
-      </c>
       <c r="U44" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="V44" t="n">
-        <v>2.22</v>
+        <v>1.35</v>
       </c>
       <c r="W44" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="X44" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Y44" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG44" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>18.5</v>
       </c>
       <c r="AH44" t="n">
         <v>17</v>
       </c>
       <c r="AI44" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AJ44" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AK44" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AL44" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AM44" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN44" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="AO44" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.79</v>
+        <v>6.6</v>
       </c>
       <c r="G45" t="n">
-        <v>1.81</v>
+        <v>7.4</v>
       </c>
       <c r="H45" t="n">
-        <v>4.9</v>
+        <v>1.64</v>
       </c>
       <c r="I45" t="n">
-        <v>5.1</v>
+        <v>1.67</v>
       </c>
       <c r="J45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K45" t="n">
         <v>4</v>
       </c>
-      <c r="K45" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L45" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="P45" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.89</v>
+        <v>2.4</v>
       </c>
       <c r="R45" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="S45" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="T45" t="n">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="U45" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="V45" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="W45" t="n">
-        <v>2.22</v>
+        <v>1.16</v>
       </c>
       <c r="X45" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Y45" t="n">
-        <v>19</v>
+        <v>6.6</v>
       </c>
       <c r="Z45" t="n">
-        <v>38</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA45" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF45" t="n">
         <v>120</v>
       </c>
-      <c r="AB45" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>11</v>
-      </c>
       <c r="AG45" t="n">
-        <v>9.6</v>
+        <v>60</v>
       </c>
       <c r="AH45" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AI45" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ45" t="n">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="AK45" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="AL45" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="AM45" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="AN45" t="n">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="AO45" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="G46" t="n">
-        <v>6.2</v>
+        <v>1.62</v>
       </c>
       <c r="H46" t="n">
-        <v>1.82</v>
+        <v>7.4</v>
       </c>
       <c r="I46" t="n">
-        <v>1.88</v>
+        <v>7.6</v>
       </c>
       <c r="J46" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L46" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="P46" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="R46" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S46" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="T46" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="V46" t="n">
-        <v>2.14</v>
+        <v>1.15</v>
       </c>
       <c r="W46" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="X46" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.6</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AA46" t="n">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="AB46" t="n">
-        <v>18</v>
+        <v>6.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="AF46" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AG46" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI46" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL46" t="n">
         <v>55</v>
       </c>
-      <c r="AJ46" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>140</v>
-      </c>
       <c r="AM46" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="AN46" t="n">
-        <v>170</v>
+        <v>12.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F47" t="n">
         <v>1.6</v>
       </c>
       <c r="G47" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="H47" t="n">
-        <v>7.2</v>
+        <v>4.4</v>
       </c>
       <c r="I47" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K47" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M47" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="P47" t="n">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="R47" t="n">
-        <v>1.27</v>
+        <v>1.97</v>
       </c>
       <c r="S47" t="n">
-        <v>4.5</v>
+        <v>1.87</v>
       </c>
       <c r="T47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W47" t="n">
         <v>2.28</v>
       </c>
-      <c r="U47" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W47" t="n">
-        <v>2.6</v>
-      </c>
       <c r="X47" t="n">
-        <v>11.5</v>
+        <v>250</v>
       </c>
       <c r="Y47" t="n">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="Z47" t="n">
-        <v>65</v>
+        <v>420</v>
       </c>
       <c r="AA47" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="AC47" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD47" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AE47" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="AF47" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AG47" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AH47" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI47" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AJ47" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AK47" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AL47" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM47" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AO47" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Argentinian Primera C</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:05:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>CA Ituzaingo</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Deportivo Espanol</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
       <c r="G48" t="n">
-        <v>1.54</v>
+        <v>2.46</v>
       </c>
       <c r="H48" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>7.8</v>
+        <v>5.4</v>
       </c>
       <c r="J48" t="n">
-        <v>5.3</v>
+        <v>2.64</v>
       </c>
       <c r="K48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X48" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB48" t="n">
         <v>6.6</v>
       </c>
-      <c r="L48" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N48" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W48" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X48" t="n">
-        <v>250</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z48" t="n">
+      <c r="AC48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>540</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>450</v>
+      </c>
+      <c r="AM48" t="n">
         <v>420</v>
       </c>
-      <c r="AA48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>160</v>
-      </c>
       <c r="AN48" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AO48" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Argentinian Primera C</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,126 +6998,126 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>20:05:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CA Ituzaingo</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Deportivo Espanol</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="G49" t="n">
-        <v>110</v>
+        <v>1.71</v>
       </c>
       <c r="H49" t="n">
-        <v>2.42</v>
+        <v>6.2</v>
       </c>
       <c r="I49" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
-        <v>2.52</v>
+        <v>3.75</v>
       </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="L49" t="n">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="M49" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>1.1</v>
+        <v>3.65</v>
       </c>
       <c r="O49" t="n">
-        <v>1.12</v>
+        <v>1.35</v>
       </c>
       <c r="P49" t="n">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="R49" t="n">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="S49" t="n">
-        <v>2.28</v>
+        <v>3.65</v>
       </c>
       <c r="T49" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="U49" t="n">
-        <v>1.03</v>
+        <v>1.88</v>
       </c>
       <c r="V49" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="W49" t="n">
-        <v>1.52</v>
+        <v>2.4</v>
       </c>
       <c r="X49" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL49" t="n">
         <v>980</v>
       </c>
-      <c r="Y49" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>540</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>450</v>
-      </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN49" t="n">
-        <v>600</v>
+        <v>11.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>600</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50">
@@ -7138,121 +7138,121 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="G50" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="H50" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="I50" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="J50" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K50" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L50" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O50" t="n">
         <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R50" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S50" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T50" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="U50" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="V50" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="W50" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="X50" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z50" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AA50" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD50" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AE50" t="n">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="AF50" t="n">
-        <v>9.6</v>
+        <v>24</v>
       </c>
       <c r="AG50" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH50" t="n">
         <v>60</v>
       </c>
       <c r="AI50" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AJ50" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="AK50" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AL50" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AM50" t="n">
         <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AO50" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51">
@@ -7268,132 +7268,132 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="G51" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="H51" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I51" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J51" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K51" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L51" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O51" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P51" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U51" t="n">
         <v>1.88</v>
       </c>
-      <c r="Q51" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V51" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W51" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="X51" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA51" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM51" t="n">
         <v>170</v>
       </c>
-      <c r="AB51" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>440</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>580</v>
-      </c>
       <c r="AN51" t="n">
-        <v>85</v>
+        <v>17.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>600</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,260 +7403,125 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>22:20:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.82</v>
+        <v>1.42</v>
       </c>
       <c r="G52" t="n">
-        <v>1.88</v>
+        <v>1.43</v>
       </c>
       <c r="H52" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N52" t="n">
         <v>5</v>
       </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N52" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O52" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="P52" t="n">
-        <v>1.77</v>
+        <v>2.36</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="R52" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="T52" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U52" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V52" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="W52" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="X52" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y52" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Z52" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AA52" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="AB52" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AE52" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AF52" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH52" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI52" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ52" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AK52" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AL52" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM52" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AN52" t="n">
-        <v>18</v>
+        <v>5.8</v>
       </c>
       <c r="AO52" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2025-10-29</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>23:30:00</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Los Angeles FC</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Austin FC</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H53" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P53" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W53" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X53" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO53" t="n">
         <v>150</v>
       </c>
     </row>
